--- a/SysCEF.Web/Content/uploads/Source.xlsx
+++ b/SysCEF.Web/Content/uploads/Source.xlsx
@@ -3292,6 +3292,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -3322,18 +3537,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3355,10 +3558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3379,264 +3578,42 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="173" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3676,42 +3653,111 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -3737,10 +3783,6 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
@@ -3752,48 +3794,6 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3865,15 +3865,15 @@
 </file>
 
 <file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3909,15 +3909,15 @@
 </file>
 
 <file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D50-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5985,7 +5985,9 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:CG209"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="200" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScale="200" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:AZ20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -6006,7 +6008,7 @@
     <col min="49" max="49" width="6.7109375" style="3" customWidth="1"/>
     <col min="50" max="50" width="7.7109375" style="3" customWidth="1"/>
     <col min="51" max="51" width="3.140625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="8.7109375" style="4" customWidth="1"/>
+    <col min="52" max="52" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="6.7109375" style="3" customWidth="1"/>
     <col min="54" max="54" width="9.5703125" style="3" customWidth="1"/>
     <col min="55" max="55" width="7.5703125" style="3" customWidth="1"/>
@@ -6102,30 +6104,30 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="286" t="s">
+      <c r="L2" s="340" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="286"/>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340"/>
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
+      <c r="Q2" s="340"/>
+      <c r="R2" s="340"/>
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340"/>
+      <c r="W2" s="340"/>
+      <c r="X2" s="340"/>
+      <c r="Y2" s="340"/>
+      <c r="Z2" s="340"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -6135,7 +6137,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
-      <c r="AZ2" s="4">
+      <c r="AZ2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BH2" s="9"/>
@@ -6215,13 +6217,13 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AC4" s="3"/>
-      <c r="AE4" s="293" t="s">
+      <c r="AE4" s="344" t="s">
         <v>121</v>
       </c>
-      <c r="AF4" s="294"/>
-      <c r="AG4" s="294"/>
-      <c r="AH4" s="294"/>
-      <c r="AI4" s="295"/>
+      <c r="AF4" s="345"/>
+      <c r="AG4" s="345"/>
+      <c r="AH4" s="345"/>
+      <c r="AI4" s="346"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -6229,7 +6231,7 @@
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
-      <c r="AZ4" s="4">
+      <c r="AZ4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6261,11 +6263,11 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AC5" s="3"/>
-      <c r="AE5" s="296"/>
-      <c r="AF5" s="297"/>
-      <c r="AG5" s="297"/>
-      <c r="AH5" s="297"/>
-      <c r="AI5" s="298"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="348"/>
+      <c r="AG5" s="348"/>
+      <c r="AH5" s="348"/>
+      <c r="AI5" s="349"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -6378,39 +6380,39 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="287"/>
-      <c r="M8" s="288"/>
-      <c r="N8" s="288"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="288"/>
-      <c r="Q8" s="288"/>
-      <c r="R8" s="288"/>
-      <c r="S8" s="288"/>
-      <c r="T8" s="288"/>
-      <c r="U8" s="288"/>
-      <c r="V8" s="289"/>
-      <c r="W8" s="287"/>
-      <c r="X8" s="288"/>
-      <c r="Y8" s="288"/>
-      <c r="Z8" s="288"/>
-      <c r="AA8" s="288"/>
-      <c r="AB8" s="288"/>
-      <c r="AC8" s="288"/>
-      <c r="AD8" s="288"/>
-      <c r="AE8" s="288"/>
-      <c r="AF8" s="289"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="291"/>
-      <c r="AI8" s="292"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="291"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="291"/>
+      <c r="AG8" s="341"/>
+      <c r="AH8" s="342"/>
+      <c r="AI8" s="343"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="24"/>
       <c r="AM8" s="25"/>
-      <c r="AP8" s="299"/>
-      <c r="AQ8" s="299"/>
-      <c r="AR8" s="299"/>
-      <c r="AS8" s="299"/>
-      <c r="AT8" s="299"/>
-      <c r="AU8" s="299"/>
+      <c r="AP8" s="287"/>
+      <c r="AQ8" s="287"/>
+      <c r="AR8" s="287"/>
+      <c r="AS8" s="287"/>
+      <c r="AT8" s="287"/>
+      <c r="AU8" s="287"/>
       <c r="AZ8" s="4" t="b">
         <v>0</v>
       </c>
@@ -6502,14 +6504,14 @@
       <c r="AJ10" s="28"/>
       <c r="AK10" s="2"/>
       <c r="AM10" s="25"/>
-      <c r="AN10" s="299"/>
-      <c r="AO10" s="299"/>
-      <c r="AP10" s="300"/>
-      <c r="AQ10" s="300"/>
-      <c r="AR10" s="301"/>
-      <c r="AS10" s="301"/>
-      <c r="AT10" s="285"/>
-      <c r="AU10" s="285"/>
+      <c r="AN10" s="287"/>
+      <c r="AO10" s="287"/>
+      <c r="AP10" s="350"/>
+      <c r="AQ10" s="350"/>
+      <c r="AR10" s="351"/>
+      <c r="AS10" s="351"/>
+      <c r="AT10" s="339"/>
+      <c r="AU10" s="339"/>
       <c r="AZ10" s="4" t="b">
         <v>0</v>
       </c>
@@ -6557,54 +6559,54 @@
       <c r="AJ11" s="31"/>
       <c r="AK11" s="2"/>
       <c r="AM11" s="25"/>
-      <c r="AN11" s="299"/>
-      <c r="AO11" s="299"/>
-      <c r="AP11" s="300"/>
-      <c r="AQ11" s="300"/>
-      <c r="AR11" s="301"/>
-      <c r="AS11" s="301"/>
-      <c r="AT11" s="285"/>
-      <c r="AU11" s="285"/>
+      <c r="AN11" s="287"/>
+      <c r="AO11" s="287"/>
+      <c r="AP11" s="350"/>
+      <c r="AQ11" s="350"/>
+      <c r="AR11" s="351"/>
+      <c r="AS11" s="351"/>
+      <c r="AT11" s="339"/>
+      <c r="AU11" s="339"/>
       <c r="AZ11" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:83" ht="10.15" customHeight="1">
       <c r="A12" s="28"/>
-      <c r="B12" s="287"/>
-      <c r="C12" s="288"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="288"/>
-      <c r="F12" s="288"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="288"/>
-      <c r="N12" s="288"/>
-      <c r="O12" s="288"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="288"/>
-      <c r="R12" s="288"/>
-      <c r="S12" s="288"/>
-      <c r="T12" s="288"/>
-      <c r="U12" s="289"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="290"/>
+      <c r="K12" s="290"/>
+      <c r="L12" s="290"/>
+      <c r="M12" s="290"/>
+      <c r="N12" s="290"/>
+      <c r="O12" s="290"/>
+      <c r="P12" s="290"/>
+      <c r="Q12" s="290"/>
+      <c r="R12" s="290"/>
+      <c r="S12" s="290"/>
+      <c r="T12" s="290"/>
+      <c r="U12" s="291"/>
       <c r="V12" s="36"/>
-      <c r="W12" s="287"/>
-      <c r="X12" s="288"/>
-      <c r="Y12" s="288"/>
-      <c r="Z12" s="288"/>
-      <c r="AA12" s="288"/>
-      <c r="AB12" s="288"/>
-      <c r="AC12" s="288"/>
-      <c r="AD12" s="288"/>
-      <c r="AE12" s="288"/>
-      <c r="AF12" s="288"/>
-      <c r="AG12" s="288"/>
-      <c r="AH12" s="288"/>
-      <c r="AI12" s="289"/>
+      <c r="W12" s="303"/>
+      <c r="X12" s="290"/>
+      <c r="Y12" s="290"/>
+      <c r="Z12" s="290"/>
+      <c r="AA12" s="290"/>
+      <c r="AB12" s="290"/>
+      <c r="AC12" s="290"/>
+      <c r="AD12" s="290"/>
+      <c r="AE12" s="290"/>
+      <c r="AF12" s="290"/>
+      <c r="AG12" s="290"/>
+      <c r="AH12" s="290"/>
+      <c r="AI12" s="291"/>
       <c r="AJ12" s="28"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -6705,40 +6707,40 @@
     </row>
     <row r="15" spans="1:83" ht="10.15" customHeight="1">
       <c r="A15" s="28"/>
-      <c r="B15" s="287"/>
-      <c r="C15" s="288"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="288"/>
-      <c r="N15" s="288"/>
-      <c r="O15" s="288"/>
-      <c r="P15" s="288"/>
-      <c r="Q15" s="288"/>
-      <c r="R15" s="288"/>
-      <c r="S15" s="288"/>
-      <c r="T15" s="288"/>
-      <c r="U15" s="289"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
+      <c r="L15" s="290"/>
+      <c r="M15" s="290"/>
+      <c r="N15" s="290"/>
+      <c r="O15" s="290"/>
+      <c r="P15" s="290"/>
+      <c r="Q15" s="290"/>
+      <c r="R15" s="290"/>
+      <c r="S15" s="290"/>
+      <c r="T15" s="290"/>
+      <c r="U15" s="291"/>
       <c r="V15" s="36"/>
-      <c r="W15" s="287"/>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="288"/>
-      <c r="Z15" s="288"/>
-      <c r="AA15" s="288"/>
-      <c r="AB15" s="288"/>
-      <c r="AC15" s="288"/>
-      <c r="AD15" s="288"/>
-      <c r="AE15" s="288"/>
-      <c r="AF15" s="288"/>
-      <c r="AG15" s="288"/>
-      <c r="AH15" s="288"/>
-      <c r="AI15" s="289"/>
+      <c r="W15" s="303"/>
+      <c r="X15" s="290"/>
+      <c r="Y15" s="290"/>
+      <c r="Z15" s="290"/>
+      <c r="AA15" s="290"/>
+      <c r="AB15" s="290"/>
+      <c r="AC15" s="290"/>
+      <c r="AD15" s="290"/>
+      <c r="AE15" s="290"/>
+      <c r="AF15" s="290"/>
+      <c r="AG15" s="290"/>
+      <c r="AH15" s="290"/>
+      <c r="AI15" s="291"/>
       <c r="AJ15" s="28"/>
       <c r="AZ15" s="4" t="b">
         <v>0</v>
@@ -6827,21 +6829,21 @@
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
       <c r="V17" s="34"/>
-      <c r="W17" s="302" t="s">
+      <c r="W17" s="352" t="s">
         <v>116</v>
       </c>
-      <c r="X17" s="303"/>
-      <c r="Y17" s="303"/>
-      <c r="Z17" s="303"/>
-      <c r="AA17" s="303"/>
-      <c r="AB17" s="303"/>
-      <c r="AC17" s="303"/>
-      <c r="AD17" s="303"/>
-      <c r="AE17" s="303"/>
-      <c r="AF17" s="303"/>
-      <c r="AG17" s="303"/>
-      <c r="AH17" s="303"/>
-      <c r="AI17" s="304"/>
+      <c r="X17" s="353"/>
+      <c r="Y17" s="353"/>
+      <c r="Z17" s="353"/>
+      <c r="AA17" s="353"/>
+      <c r="AB17" s="353"/>
+      <c r="AC17" s="353"/>
+      <c r="AD17" s="353"/>
+      <c r="AE17" s="353"/>
+      <c r="AF17" s="353"/>
+      <c r="AG17" s="353"/>
+      <c r="AH17" s="353"/>
+      <c r="AI17" s="354"/>
       <c r="AJ17" s="31"/>
       <c r="AZ17" s="4" t="b">
         <v>0</v>
@@ -6849,40 +6851,40 @@
     </row>
     <row r="18" spans="1:83" ht="10.15" customHeight="1">
       <c r="A18" s="28"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="288"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="288"/>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="288"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="288"/>
-      <c r="N18" s="288"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="288"/>
-      <c r="R18" s="288"/>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="289"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
+      <c r="K18" s="290"/>
+      <c r="L18" s="290"/>
+      <c r="M18" s="290"/>
+      <c r="N18" s="290"/>
+      <c r="O18" s="290"/>
+      <c r="P18" s="290"/>
+      <c r="Q18" s="290"/>
+      <c r="R18" s="290"/>
+      <c r="S18" s="290"/>
+      <c r="T18" s="290"/>
+      <c r="U18" s="291"/>
       <c r="V18" s="36"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="288"/>
-      <c r="AI18" s="289"/>
+      <c r="W18" s="303"/>
+      <c r="X18" s="290"/>
+      <c r="Y18" s="290"/>
+      <c r="Z18" s="290"/>
+      <c r="AA18" s="290"/>
+      <c r="AB18" s="290"/>
+      <c r="AC18" s="290"/>
+      <c r="AD18" s="290"/>
+      <c r="AE18" s="290"/>
+      <c r="AF18" s="290"/>
+      <c r="AG18" s="290"/>
+      <c r="AH18" s="290"/>
+      <c r="AI18" s="291"/>
       <c r="AJ18" s="28"/>
       <c r="AZ18" s="4" t="b">
         <v>0</v>
@@ -7010,40 +7012,40 @@
     </row>
     <row r="21" spans="1:83" ht="9.75" customHeight="1">
       <c r="A21" s="28"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="288"/>
-      <c r="I21" s="288"/>
-      <c r="J21" s="288"/>
-      <c r="K21" s="288"/>
-      <c r="L21" s="288"/>
-      <c r="M21" s="288"/>
-      <c r="N21" s="288"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="288"/>
-      <c r="Q21" s="288"/>
-      <c r="R21" s="288"/>
-      <c r="S21" s="288"/>
-      <c r="T21" s="288"/>
-      <c r="U21" s="289"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="290"/>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="290"/>
+      <c r="N21" s="290"/>
+      <c r="O21" s="290"/>
+      <c r="P21" s="290"/>
+      <c r="Q21" s="290"/>
+      <c r="R21" s="290"/>
+      <c r="S21" s="290"/>
+      <c r="T21" s="290"/>
+      <c r="U21" s="291"/>
       <c r="V21" s="36"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="288"/>
-      <c r="Z21" s="288"/>
-      <c r="AA21" s="288"/>
-      <c r="AB21" s="288"/>
-      <c r="AC21" s="288"/>
-      <c r="AD21" s="288"/>
-      <c r="AE21" s="288"/>
-      <c r="AF21" s="288"/>
-      <c r="AG21" s="288"/>
-      <c r="AH21" s="288"/>
-      <c r="AI21" s="289"/>
+      <c r="W21" s="303"/>
+      <c r="X21" s="290"/>
+      <c r="Y21" s="290"/>
+      <c r="Z21" s="290"/>
+      <c r="AA21" s="290"/>
+      <c r="AB21" s="290"/>
+      <c r="AC21" s="290"/>
+      <c r="AD21" s="290"/>
+      <c r="AE21" s="290"/>
+      <c r="AF21" s="290"/>
+      <c r="AG21" s="290"/>
+      <c r="AH21" s="290"/>
+      <c r="AI21" s="291"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="37"/>
       <c r="AL21" s="37"/>
@@ -7184,40 +7186,40 @@
     </row>
     <row r="24" spans="1:83" ht="10.15" customHeight="1">
       <c r="A24" s="28"/>
-      <c r="B24" s="287"/>
-      <c r="C24" s="288"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
-      <c r="H24" s="288"/>
-      <c r="I24" s="288"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="289"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="288"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="288"/>
-      <c r="Q24" s="288"/>
-      <c r="R24" s="288"/>
-      <c r="S24" s="288"/>
-      <c r="T24" s="288"/>
-      <c r="U24" s="288"/>
-      <c r="V24" s="289"/>
-      <c r="W24" s="287"/>
-      <c r="X24" s="288"/>
-      <c r="Y24" s="288"/>
-      <c r="Z24" s="288"/>
-      <c r="AA24" s="288"/>
-      <c r="AB24" s="288"/>
-      <c r="AC24" s="288"/>
-      <c r="AD24" s="288"/>
-      <c r="AE24" s="288"/>
-      <c r="AF24" s="288"/>
-      <c r="AG24" s="289"/>
-      <c r="AH24" s="287"/>
-      <c r="AI24" s="289"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="303"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="290"/>
+      <c r="Q24" s="290"/>
+      <c r="R24" s="290"/>
+      <c r="S24" s="290"/>
+      <c r="T24" s="290"/>
+      <c r="U24" s="290"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="303"/>
+      <c r="X24" s="290"/>
+      <c r="Y24" s="290"/>
+      <c r="Z24" s="290"/>
+      <c r="AA24" s="290"/>
+      <c r="AB24" s="290"/>
+      <c r="AC24" s="290"/>
+      <c r="AD24" s="290"/>
+      <c r="AE24" s="290"/>
+      <c r="AF24" s="290"/>
+      <c r="AG24" s="291"/>
+      <c r="AH24" s="303"/>
+      <c r="AI24" s="291"/>
       <c r="AJ24" s="28"/>
       <c r="AK24" s="37"/>
       <c r="AL24" s="37"/>
@@ -7821,40 +7823,40 @@
     </row>
     <row r="35" spans="1:83" ht="10.15" customHeight="1">
       <c r="A35" s="28"/>
-      <c r="B35" s="287"/>
-      <c r="C35" s="288"/>
-      <c r="D35" s="288"/>
-      <c r="E35" s="288"/>
-      <c r="F35" s="289"/>
-      <c r="G35" s="287"/>
-      <c r="H35" s="288"/>
-      <c r="I35" s="288"/>
-      <c r="J35" s="288"/>
-      <c r="K35" s="288"/>
-      <c r="L35" s="288"/>
-      <c r="M35" s="288"/>
-      <c r="N35" s="288"/>
-      <c r="O35" s="289"/>
-      <c r="P35" s="287"/>
-      <c r="Q35" s="288"/>
-      <c r="R35" s="288"/>
-      <c r="S35" s="288"/>
-      <c r="T35" s="288"/>
-      <c r="U35" s="288"/>
-      <c r="V35" s="289"/>
-      <c r="W35" s="287"/>
-      <c r="X35" s="288"/>
-      <c r="Y35" s="288"/>
-      <c r="Z35" s="288"/>
-      <c r="AA35" s="288"/>
-      <c r="AB35" s="288"/>
-      <c r="AC35" s="288"/>
-      <c r="AD35" s="289"/>
-      <c r="AE35" s="287"/>
-      <c r="AF35" s="288"/>
-      <c r="AG35" s="288"/>
-      <c r="AH35" s="288"/>
-      <c r="AI35" s="289"/>
+      <c r="B35" s="303"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="291"/>
+      <c r="G35" s="303"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="290"/>
+      <c r="J35" s="290"/>
+      <c r="K35" s="290"/>
+      <c r="L35" s="290"/>
+      <c r="M35" s="290"/>
+      <c r="N35" s="290"/>
+      <c r="O35" s="291"/>
+      <c r="P35" s="303"/>
+      <c r="Q35" s="290"/>
+      <c r="R35" s="290"/>
+      <c r="S35" s="290"/>
+      <c r="T35" s="290"/>
+      <c r="U35" s="290"/>
+      <c r="V35" s="291"/>
+      <c r="W35" s="303"/>
+      <c r="X35" s="290"/>
+      <c r="Y35" s="290"/>
+      <c r="Z35" s="290"/>
+      <c r="AA35" s="290"/>
+      <c r="AB35" s="290"/>
+      <c r="AC35" s="290"/>
+      <c r="AD35" s="291"/>
+      <c r="AE35" s="303"/>
+      <c r="AF35" s="290"/>
+      <c r="AG35" s="290"/>
+      <c r="AH35" s="290"/>
+      <c r="AI35" s="291"/>
       <c r="AJ35" s="28"/>
       <c r="AK35" s="46"/>
       <c r="AL35" s="46"/>
@@ -8002,40 +8004,40 @@
     </row>
     <row r="38" spans="1:83" ht="10.15" customHeight="1">
       <c r="A38" s="28"/>
-      <c r="B38" s="305"/>
-      <c r="C38" s="306"/>
-      <c r="D38" s="306"/>
-      <c r="E38" s="306"/>
-      <c r="F38" s="306"/>
+      <c r="B38" s="328"/>
+      <c r="C38" s="329"/>
+      <c r="D38" s="329"/>
+      <c r="E38" s="329"/>
+      <c r="F38" s="329"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="305"/>
-      <c r="I38" s="306"/>
-      <c r="J38" s="306"/>
-      <c r="K38" s="306"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="329"/>
+      <c r="J38" s="329"/>
+      <c r="K38" s="329"/>
       <c r="L38" s="58"/>
-      <c r="M38" s="305"/>
-      <c r="N38" s="306"/>
-      <c r="O38" s="306"/>
-      <c r="P38" s="306"/>
+      <c r="M38" s="328"/>
+      <c r="N38" s="329"/>
+      <c r="O38" s="329"/>
+      <c r="P38" s="329"/>
       <c r="Q38" s="58"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="306"/>
+      <c r="R38" s="328"/>
+      <c r="S38" s="329"/>
+      <c r="T38" s="329"/>
+      <c r="U38" s="329"/>
       <c r="V38" s="59"/>
       <c r="W38" s="58"/>
-      <c r="X38" s="305"/>
-      <c r="Y38" s="306"/>
-      <c r="Z38" s="306"/>
-      <c r="AA38" s="306"/>
+      <c r="X38" s="328"/>
+      <c r="Y38" s="329"/>
+      <c r="Z38" s="329"/>
+      <c r="AA38" s="329"/>
       <c r="AB38" s="58"/>
-      <c r="AC38" s="307"/>
-      <c r="AD38" s="308"/>
-      <c r="AE38" s="308"/>
-      <c r="AF38" s="308"/>
-      <c r="AG38" s="308"/>
-      <c r="AH38" s="308"/>
-      <c r="AI38" s="309"/>
+      <c r="AC38" s="330"/>
+      <c r="AD38" s="331"/>
+      <c r="AE38" s="331"/>
+      <c r="AF38" s="331"/>
+      <c r="AG38" s="331"/>
+      <c r="AH38" s="331"/>
+      <c r="AI38" s="332"/>
       <c r="AJ38" s="28"/>
       <c r="AK38" s="46"/>
       <c r="AL38" s="46"/>
@@ -8301,40 +8303,40 @@
     </row>
     <row r="43" spans="1:83" ht="10.15" customHeight="1">
       <c r="A43" s="28"/>
-      <c r="B43" s="287"/>
-      <c r="C43" s="288"/>
-      <c r="D43" s="288"/>
-      <c r="E43" s="288"/>
-      <c r="F43" s="288"/>
-      <c r="G43" s="289"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="288"/>
-      <c r="K43" s="288"/>
-      <c r="L43" s="288"/>
-      <c r="M43" s="288"/>
-      <c r="N43" s="289"/>
-      <c r="O43" s="287"/>
-      <c r="P43" s="288"/>
-      <c r="Q43" s="288"/>
-      <c r="R43" s="288"/>
-      <c r="S43" s="288"/>
-      <c r="T43" s="289"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="311"/>
-      <c r="W43" s="311"/>
-      <c r="X43" s="311"/>
-      <c r="Y43" s="311"/>
-      <c r="Z43" s="311"/>
-      <c r="AA43" s="312"/>
-      <c r="AB43" s="287"/>
-      <c r="AC43" s="288"/>
-      <c r="AD43" s="288"/>
-      <c r="AE43" s="288"/>
-      <c r="AF43" s="288"/>
-      <c r="AG43" s="288"/>
-      <c r="AH43" s="288"/>
-      <c r="AI43" s="289"/>
+      <c r="B43" s="303"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="303"/>
+      <c r="I43" s="290"/>
+      <c r="J43" s="290"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="291"/>
+      <c r="O43" s="303"/>
+      <c r="P43" s="290"/>
+      <c r="Q43" s="290"/>
+      <c r="R43" s="290"/>
+      <c r="S43" s="290"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="325"/>
+      <c r="V43" s="326"/>
+      <c r="W43" s="326"/>
+      <c r="X43" s="326"/>
+      <c r="Y43" s="326"/>
+      <c r="Z43" s="326"/>
+      <c r="AA43" s="327"/>
+      <c r="AB43" s="303"/>
+      <c r="AC43" s="290"/>
+      <c r="AD43" s="290"/>
+      <c r="AE43" s="290"/>
+      <c r="AF43" s="290"/>
+      <c r="AG43" s="290"/>
+      <c r="AH43" s="290"/>
+      <c r="AI43" s="291"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="49"/>
       <c r="AL43" s="63"/>
@@ -8491,38 +8493,38 @@
     </row>
     <row r="46" spans="1:83" ht="10.15" customHeight="1">
       <c r="A46" s="28"/>
-      <c r="B46" s="287"/>
-      <c r="C46" s="288"/>
-      <c r="D46" s="288"/>
-      <c r="E46" s="288"/>
-      <c r="F46" s="288"/>
-      <c r="G46" s="289"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="288"/>
-      <c r="J46" s="288"/>
-      <c r="K46" s="288"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="287"/>
-      <c r="N46" s="288"/>
-      <c r="O46" s="288"/>
-      <c r="P46" s="289"/>
-      <c r="Q46" s="287"/>
-      <c r="R46" s="288"/>
-      <c r="S46" s="288"/>
-      <c r="T46" s="288"/>
-      <c r="U46" s="288"/>
-      <c r="V46" s="288"/>
-      <c r="W46" s="289"/>
-      <c r="X46" s="287"/>
-      <c r="Y46" s="288"/>
+      <c r="B46" s="303"/>
+      <c r="C46" s="290"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="303"/>
+      <c r="I46" s="290"/>
+      <c r="J46" s="290"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="291"/>
+      <c r="M46" s="303"/>
+      <c r="N46" s="290"/>
+      <c r="O46" s="290"/>
+      <c r="P46" s="291"/>
+      <c r="Q46" s="303"/>
+      <c r="R46" s="290"/>
+      <c r="S46" s="290"/>
+      <c r="T46" s="290"/>
+      <c r="U46" s="290"/>
+      <c r="V46" s="290"/>
+      <c r="W46" s="291"/>
+      <c r="X46" s="303"/>
+      <c r="Y46" s="290"/>
       <c r="Z46" s="67" t="s">
         <v>97</v>
       </c>
       <c r="AA46" s="68"/>
       <c r="AB46" s="68"/>
       <c r="AC46" s="68"/>
-      <c r="AD46" s="288"/>
-      <c r="AE46" s="288"/>
+      <c r="AD46" s="290"/>
+      <c r="AE46" s="290"/>
       <c r="AF46" s="67" t="s">
         <v>98</v>
       </c>
@@ -8621,18 +8623,18 @@
       <c r="B48" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="317" t="s">
+      <c r="G48" s="324" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="L48" s="318" t="s">
+      <c r="H48" s="324"/>
+      <c r="I48" s="324"/>
+      <c r="J48" s="324"/>
+      <c r="L48" s="279" t="s">
         <v>101</v>
       </c>
-      <c r="M48" s="318"/>
-      <c r="N48" s="318"/>
-      <c r="O48" s="318"/>
+      <c r="M48" s="279"/>
+      <c r="N48" s="279"/>
+      <c r="O48" s="279"/>
       <c r="R48" s="71" t="s">
         <v>102</v>
       </c>
@@ -8640,22 +8642,22 @@
       <c r="U48" s="72"/>
       <c r="V48" s="72"/>
       <c r="W48" s="72"/>
-      <c r="X48" s="319" t="s">
+      <c r="X48" s="321" t="s">
         <v>103</v>
       </c>
-      <c r="Y48" s="318"/>
-      <c r="Z48" s="318"/>
-      <c r="AA48" s="318"/>
-      <c r="AB48" s="318"/>
-      <c r="AC48" s="320"/>
-      <c r="AD48" s="319" t="s">
+      <c r="Y48" s="279"/>
+      <c r="Z48" s="279"/>
+      <c r="AA48" s="279"/>
+      <c r="AB48" s="279"/>
+      <c r="AC48" s="322"/>
+      <c r="AD48" s="321" t="s">
         <v>104</v>
       </c>
-      <c r="AE48" s="318"/>
-      <c r="AF48" s="318"/>
-      <c r="AG48" s="318"/>
-      <c r="AH48" s="318"/>
-      <c r="AI48" s="320"/>
+      <c r="AE48" s="279"/>
+      <c r="AF48" s="279"/>
+      <c r="AG48" s="279"/>
+      <c r="AH48" s="279"/>
+      <c r="AI48" s="322"/>
       <c r="AJ48" s="28"/>
       <c r="AK48" s="73"/>
       <c r="AL48" s="73"/>
@@ -8703,30 +8705,30 @@
       <c r="B49" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="315"/>
-      <c r="H49" s="315"/>
-      <c r="I49" s="315"/>
-      <c r="J49" s="315"/>
+      <c r="G49" s="305"/>
+      <c r="H49" s="305"/>
+      <c r="I49" s="305"/>
+      <c r="J49" s="305"/>
       <c r="K49" s="79"/>
-      <c r="L49" s="315" t="s">
+      <c r="L49" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="M49" s="315"/>
-      <c r="N49" s="315"/>
-      <c r="O49" s="315"/>
+      <c r="M49" s="305"/>
+      <c r="N49" s="305"/>
+      <c r="O49" s="305"/>
       <c r="P49" s="79"/>
-      <c r="Q49" s="314"/>
-      <c r="R49" s="314"/>
-      <c r="S49" s="314"/>
-      <c r="T49" s="314"/>
+      <c r="Q49" s="286"/>
+      <c r="R49" s="286"/>
+      <c r="S49" s="286"/>
+      <c r="T49" s="286"/>
       <c r="U49" s="80"/>
       <c r="V49" s="80"/>
       <c r="W49" s="80"/>
       <c r="X49" s="81"/>
       <c r="Y49" s="79"/>
-      <c r="Z49" s="313"/>
-      <c r="AA49" s="313"/>
-      <c r="AB49" s="313"/>
+      <c r="Z49" s="323"/>
+      <c r="AA49" s="323"/>
+      <c r="AB49" s="323"/>
       <c r="AC49" s="79"/>
       <c r="AD49" s="82"/>
       <c r="AE49" s="79"/>
@@ -8781,34 +8783,34 @@
       <c r="B50" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="316" t="s">
+      <c r="G50" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="H50" s="316"/>
-      <c r="I50" s="316"/>
-      <c r="J50" s="316"/>
+      <c r="H50" s="306"/>
+      <c r="I50" s="306"/>
+      <c r="J50" s="306"/>
       <c r="K50" s="79"/>
-      <c r="L50" s="316" t="s">
+      <c r="L50" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="M50" s="316"/>
-      <c r="N50" s="316"/>
-      <c r="O50" s="316"/>
+      <c r="M50" s="306"/>
+      <c r="N50" s="306"/>
+      <c r="O50" s="306"/>
       <c r="P50" s="79"/>
-      <c r="Q50" s="314" t="s">
+      <c r="Q50" s="286" t="s">
         <v>125</v>
       </c>
-      <c r="R50" s="314"/>
-      <c r="S50" s="314"/>
-      <c r="T50" s="314"/>
+      <c r="R50" s="286"/>
+      <c r="S50" s="286"/>
+      <c r="T50" s="286"/>
       <c r="U50" s="80"/>
       <c r="V50" s="80"/>
       <c r="W50" s="80"/>
       <c r="X50" s="81"/>
       <c r="Y50" s="79"/>
-      <c r="Z50" s="313"/>
-      <c r="AA50" s="313"/>
-      <c r="AB50" s="313"/>
+      <c r="Z50" s="323"/>
+      <c r="AA50" s="323"/>
+      <c r="AB50" s="323"/>
       <c r="AC50" s="79"/>
       <c r="AD50" s="82"/>
       <c r="AE50" s="79"/>
@@ -8863,34 +8865,34 @@
       <c r="B51" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="G51" s="316" t="s">
+      <c r="G51" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="316"/>
-      <c r="I51" s="316"/>
-      <c r="J51" s="316"/>
+      <c r="H51" s="306"/>
+      <c r="I51" s="306"/>
+      <c r="J51" s="306"/>
       <c r="K51" s="79"/>
-      <c r="L51" s="316" t="s">
+      <c r="L51" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="M51" s="316"/>
-      <c r="N51" s="316"/>
-      <c r="O51" s="316"/>
+      <c r="M51" s="306"/>
+      <c r="N51" s="306"/>
+      <c r="O51" s="306"/>
       <c r="P51" s="79"/>
-      <c r="Q51" s="314" t="s">
+      <c r="Q51" s="286" t="s">
         <v>125</v>
       </c>
-      <c r="R51" s="314"/>
-      <c r="S51" s="314"/>
-      <c r="T51" s="314"/>
+      <c r="R51" s="286"/>
+      <c r="S51" s="286"/>
+      <c r="T51" s="286"/>
       <c r="U51" s="80"/>
       <c r="V51" s="80"/>
       <c r="W51" s="80"/>
       <c r="X51" s="81"/>
       <c r="Y51" s="79"/>
-      <c r="Z51" s="313"/>
-      <c r="AA51" s="313"/>
-      <c r="AB51" s="313"/>
+      <c r="Z51" s="323"/>
+      <c r="AA51" s="323"/>
+      <c r="AB51" s="323"/>
       <c r="AC51" s="79"/>
       <c r="AD51" s="82"/>
       <c r="AE51" s="79"/>
@@ -8945,36 +8947,36 @@
       <c r="B52" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G52" s="333"/>
-      <c r="H52" s="333"/>
-      <c r="I52" s="333"/>
-      <c r="J52" s="333"/>
+      <c r="G52" s="319"/>
+      <c r="H52" s="319"/>
+      <c r="I52" s="319"/>
+      <c r="J52" s="319"/>
       <c r="K52" s="79"/>
-      <c r="L52" s="333"/>
-      <c r="M52" s="333"/>
-      <c r="N52" s="333"/>
-      <c r="O52" s="333"/>
+      <c r="L52" s="319"/>
+      <c r="M52" s="319"/>
+      <c r="N52" s="319"/>
+      <c r="O52" s="319"/>
       <c r="P52" s="79"/>
-      <c r="Q52" s="334"/>
-      <c r="R52" s="334"/>
-      <c r="S52" s="334"/>
-      <c r="T52" s="334"/>
+      <c r="Q52" s="320"/>
+      <c r="R52" s="320"/>
+      <c r="S52" s="320"/>
+      <c r="T52" s="320"/>
       <c r="U52" s="80"/>
       <c r="V52" s="80"/>
       <c r="W52" s="80"/>
       <c r="X52" s="81"/>
-      <c r="Y52" s="315" t="s">
+      <c r="Y52" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="Z52" s="315"/>
-      <c r="AA52" s="315"/>
-      <c r="AB52" s="315"/>
+      <c r="Z52" s="305"/>
+      <c r="AA52" s="305"/>
+      <c r="AB52" s="305"/>
       <c r="AC52" s="79"/>
       <c r="AD52" s="82"/>
-      <c r="AE52" s="314"/>
-      <c r="AF52" s="314"/>
-      <c r="AG52" s="314"/>
-      <c r="AH52" s="314"/>
+      <c r="AE52" s="286"/>
+      <c r="AF52" s="286"/>
+      <c r="AG52" s="286"/>
+      <c r="AH52" s="286"/>
       <c r="AI52" s="83"/>
       <c r="AJ52" s="28"/>
       <c r="AK52" s="73"/>
@@ -9252,40 +9254,40 @@
     </row>
     <row r="56" spans="1:82" ht="10.5" customHeight="1">
       <c r="A56" s="28"/>
-      <c r="B56" s="321"/>
-      <c r="C56" s="322"/>
-      <c r="D56" s="322"/>
-      <c r="E56" s="322"/>
-      <c r="F56" s="322"/>
-      <c r="G56" s="322"/>
-      <c r="H56" s="322"/>
-      <c r="I56" s="322"/>
-      <c r="J56" s="322"/>
-      <c r="K56" s="322"/>
-      <c r="L56" s="322"/>
-      <c r="M56" s="322"/>
-      <c r="N56" s="322"/>
-      <c r="O56" s="322"/>
-      <c r="P56" s="322"/>
-      <c r="Q56" s="322"/>
-      <c r="R56" s="322"/>
-      <c r="S56" s="322"/>
-      <c r="T56" s="322"/>
-      <c r="U56" s="322"/>
-      <c r="V56" s="322"/>
-      <c r="W56" s="322"/>
-      <c r="X56" s="322"/>
-      <c r="Y56" s="322"/>
-      <c r="Z56" s="322"/>
-      <c r="AA56" s="322"/>
-      <c r="AB56" s="322"/>
-      <c r="AC56" s="322"/>
-      <c r="AD56" s="322"/>
-      <c r="AE56" s="322"/>
-      <c r="AF56" s="322"/>
-      <c r="AG56" s="322"/>
-      <c r="AH56" s="322"/>
-      <c r="AI56" s="323"/>
+      <c r="B56" s="307"/>
+      <c r="C56" s="308"/>
+      <c r="D56" s="308"/>
+      <c r="E56" s="308"/>
+      <c r="F56" s="308"/>
+      <c r="G56" s="308"/>
+      <c r="H56" s="308"/>
+      <c r="I56" s="308"/>
+      <c r="J56" s="308"/>
+      <c r="K56" s="308"/>
+      <c r="L56" s="308"/>
+      <c r="M56" s="308"/>
+      <c r="N56" s="308"/>
+      <c r="O56" s="308"/>
+      <c r="P56" s="308"/>
+      <c r="Q56" s="308"/>
+      <c r="R56" s="308"/>
+      <c r="S56" s="308"/>
+      <c r="T56" s="308"/>
+      <c r="U56" s="308"/>
+      <c r="V56" s="308"/>
+      <c r="W56" s="308"/>
+      <c r="X56" s="308"/>
+      <c r="Y56" s="308"/>
+      <c r="Z56" s="308"/>
+      <c r="AA56" s="308"/>
+      <c r="AB56" s="308"/>
+      <c r="AC56" s="308"/>
+      <c r="AD56" s="308"/>
+      <c r="AE56" s="308"/>
+      <c r="AF56" s="308"/>
+      <c r="AG56" s="308"/>
+      <c r="AH56" s="308"/>
+      <c r="AI56" s="309"/>
       <c r="AJ56" s="28"/>
       <c r="AK56" s="88"/>
       <c r="AL56" s="88"/>
@@ -9327,40 +9329,40 @@
     </row>
     <row r="57" spans="1:82" ht="9" customHeight="1">
       <c r="A57" s="28"/>
-      <c r="B57" s="321"/>
-      <c r="C57" s="322"/>
-      <c r="D57" s="322"/>
-      <c r="E57" s="322"/>
-      <c r="F57" s="322"/>
-      <c r="G57" s="322"/>
-      <c r="H57" s="322"/>
-      <c r="I57" s="322"/>
-      <c r="J57" s="322"/>
-      <c r="K57" s="322"/>
-      <c r="L57" s="322"/>
-      <c r="M57" s="322"/>
-      <c r="N57" s="322"/>
-      <c r="O57" s="322"/>
-      <c r="P57" s="322"/>
-      <c r="Q57" s="322"/>
-      <c r="R57" s="322"/>
-      <c r="S57" s="322"/>
-      <c r="T57" s="322"/>
-      <c r="U57" s="322"/>
-      <c r="V57" s="322"/>
-      <c r="W57" s="322"/>
-      <c r="X57" s="322"/>
-      <c r="Y57" s="322"/>
-      <c r="Z57" s="322"/>
-      <c r="AA57" s="322"/>
-      <c r="AB57" s="322"/>
-      <c r="AC57" s="322"/>
-      <c r="AD57" s="322"/>
-      <c r="AE57" s="322"/>
-      <c r="AF57" s="322"/>
-      <c r="AG57" s="322"/>
-      <c r="AH57" s="322"/>
-      <c r="AI57" s="323"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="308"/>
+      <c r="D57" s="308"/>
+      <c r="E57" s="308"/>
+      <c r="F57" s="308"/>
+      <c r="G57" s="308"/>
+      <c r="H57" s="308"/>
+      <c r="I57" s="308"/>
+      <c r="J57" s="308"/>
+      <c r="K57" s="308"/>
+      <c r="L57" s="308"/>
+      <c r="M57" s="308"/>
+      <c r="N57" s="308"/>
+      <c r="O57" s="308"/>
+      <c r="P57" s="308"/>
+      <c r="Q57" s="308"/>
+      <c r="R57" s="308"/>
+      <c r="S57" s="308"/>
+      <c r="T57" s="308"/>
+      <c r="U57" s="308"/>
+      <c r="V57" s="308"/>
+      <c r="W57" s="308"/>
+      <c r="X57" s="308"/>
+      <c r="Y57" s="308"/>
+      <c r="Z57" s="308"/>
+      <c r="AA57" s="308"/>
+      <c r="AB57" s="308"/>
+      <c r="AC57" s="308"/>
+      <c r="AD57" s="308"/>
+      <c r="AE57" s="308"/>
+      <c r="AF57" s="308"/>
+      <c r="AG57" s="308"/>
+      <c r="AH57" s="308"/>
+      <c r="AI57" s="309"/>
       <c r="AJ57" s="28"/>
       <c r="AK57" s="88"/>
       <c r="AL57" s="88"/>
@@ -9402,40 +9404,40 @@
     </row>
     <row r="58" spans="1:82" ht="5.25" customHeight="1">
       <c r="A58" s="28"/>
-      <c r="B58" s="324"/>
-      <c r="C58" s="325"/>
-      <c r="D58" s="325"/>
-      <c r="E58" s="325"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="325"/>
-      <c r="H58" s="325"/>
-      <c r="I58" s="325"/>
-      <c r="J58" s="325"/>
-      <c r="K58" s="325"/>
-      <c r="L58" s="325"/>
-      <c r="M58" s="325"/>
-      <c r="N58" s="325"/>
-      <c r="O58" s="325"/>
-      <c r="P58" s="325"/>
-      <c r="Q58" s="325"/>
-      <c r="R58" s="325"/>
-      <c r="S58" s="325"/>
-      <c r="T58" s="325"/>
-      <c r="U58" s="325"/>
-      <c r="V58" s="325"/>
-      <c r="W58" s="325"/>
-      <c r="X58" s="325"/>
-      <c r="Y58" s="325"/>
-      <c r="Z58" s="325"/>
-      <c r="AA58" s="325"/>
-      <c r="AB58" s="325"/>
-      <c r="AC58" s="325"/>
-      <c r="AD58" s="325"/>
-      <c r="AE58" s="325"/>
-      <c r="AF58" s="325"/>
-      <c r="AG58" s="325"/>
-      <c r="AH58" s="325"/>
-      <c r="AI58" s="326"/>
+      <c r="B58" s="310"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="311"/>
+      <c r="E58" s="311"/>
+      <c r="F58" s="311"/>
+      <c r="G58" s="311"/>
+      <c r="H58" s="311"/>
+      <c r="I58" s="311"/>
+      <c r="J58" s="311"/>
+      <c r="K58" s="311"/>
+      <c r="L58" s="311"/>
+      <c r="M58" s="311"/>
+      <c r="N58" s="311"/>
+      <c r="O58" s="311"/>
+      <c r="P58" s="311"/>
+      <c r="Q58" s="311"/>
+      <c r="R58" s="311"/>
+      <c r="S58" s="311"/>
+      <c r="T58" s="311"/>
+      <c r="U58" s="311"/>
+      <c r="V58" s="311"/>
+      <c r="W58" s="311"/>
+      <c r="X58" s="311"/>
+      <c r="Y58" s="311"/>
+      <c r="Z58" s="311"/>
+      <c r="AA58" s="311"/>
+      <c r="AB58" s="311"/>
+      <c r="AC58" s="311"/>
+      <c r="AD58" s="311"/>
+      <c r="AE58" s="311"/>
+      <c r="AF58" s="311"/>
+      <c r="AG58" s="311"/>
+      <c r="AH58" s="311"/>
+      <c r="AI58" s="312"/>
       <c r="AJ58" s="28"/>
       <c r="AK58" s="88"/>
       <c r="AL58" s="88"/>
@@ -9686,40 +9688,40 @@
     </row>
     <row r="62" spans="1:82" ht="9.75" customHeight="1">
       <c r="A62" s="28"/>
-      <c r="B62" s="287"/>
-      <c r="C62" s="288"/>
-      <c r="D62" s="288"/>
-      <c r="E62" s="288"/>
-      <c r="F62" s="288"/>
-      <c r="G62" s="288"/>
-      <c r="H62" s="288"/>
-      <c r="I62" s="288"/>
-      <c r="J62" s="288"/>
-      <c r="K62" s="288"/>
-      <c r="L62" s="288"/>
-      <c r="M62" s="289"/>
-      <c r="N62" s="327"/>
-      <c r="O62" s="328"/>
-      <c r="P62" s="328"/>
-      <c r="Q62" s="328"/>
-      <c r="R62" s="329"/>
-      <c r="S62" s="330"/>
-      <c r="T62" s="331"/>
-      <c r="U62" s="331"/>
-      <c r="V62" s="331"/>
-      <c r="W62" s="332"/>
-      <c r="X62" s="287"/>
-      <c r="Y62" s="288"/>
-      <c r="Z62" s="288"/>
-      <c r="AA62" s="288"/>
-      <c r="AB62" s="289"/>
-      <c r="AC62" s="287"/>
-      <c r="AD62" s="288"/>
-      <c r="AE62" s="288"/>
-      <c r="AF62" s="288"/>
-      <c r="AG62" s="288"/>
-      <c r="AH62" s="288"/>
-      <c r="AI62" s="289"/>
+      <c r="B62" s="303"/>
+      <c r="C62" s="290"/>
+      <c r="D62" s="290"/>
+      <c r="E62" s="290"/>
+      <c r="F62" s="290"/>
+      <c r="G62" s="290"/>
+      <c r="H62" s="290"/>
+      <c r="I62" s="290"/>
+      <c r="J62" s="290"/>
+      <c r="K62" s="290"/>
+      <c r="L62" s="290"/>
+      <c r="M62" s="291"/>
+      <c r="N62" s="313"/>
+      <c r="O62" s="314"/>
+      <c r="P62" s="314"/>
+      <c r="Q62" s="314"/>
+      <c r="R62" s="315"/>
+      <c r="S62" s="316"/>
+      <c r="T62" s="317"/>
+      <c r="U62" s="317"/>
+      <c r="V62" s="317"/>
+      <c r="W62" s="318"/>
+      <c r="X62" s="303"/>
+      <c r="Y62" s="290"/>
+      <c r="Z62" s="290"/>
+      <c r="AA62" s="290"/>
+      <c r="AB62" s="291"/>
+      <c r="AC62" s="303"/>
+      <c r="AD62" s="290"/>
+      <c r="AE62" s="290"/>
+      <c r="AF62" s="290"/>
+      <c r="AG62" s="290"/>
+      <c r="AH62" s="290"/>
+      <c r="AI62" s="291"/>
       <c r="AJ62" s="28"/>
       <c r="AK62" s="88"/>
       <c r="AL62" s="88"/>
@@ -9912,40 +9914,40 @@
     </row>
     <row r="65" spans="1:82" ht="18" customHeight="1">
       <c r="A65" s="28"/>
-      <c r="B65" s="279"/>
-      <c r="C65" s="280"/>
-      <c r="D65" s="280"/>
-      <c r="E65" s="280"/>
-      <c r="F65" s="281"/>
-      <c r="G65" s="279"/>
-      <c r="H65" s="280"/>
-      <c r="I65" s="280"/>
-      <c r="J65" s="280"/>
-      <c r="K65" s="280"/>
-      <c r="L65" s="281"/>
-      <c r="M65" s="282"/>
-      <c r="N65" s="283"/>
-      <c r="O65" s="283"/>
-      <c r="P65" s="283"/>
-      <c r="Q65" s="283"/>
-      <c r="R65" s="283"/>
-      <c r="S65" s="283"/>
-      <c r="T65" s="283"/>
-      <c r="U65" s="283"/>
-      <c r="V65" s="283"/>
-      <c r="W65" s="283"/>
-      <c r="X65" s="283"/>
-      <c r="Y65" s="283"/>
-      <c r="Z65" s="283"/>
-      <c r="AA65" s="283"/>
-      <c r="AB65" s="283"/>
-      <c r="AC65" s="283"/>
-      <c r="AD65" s="283"/>
-      <c r="AE65" s="284"/>
-      <c r="AF65" s="279"/>
-      <c r="AG65" s="280"/>
-      <c r="AH65" s="280"/>
-      <c r="AI65" s="281"/>
+      <c r="B65" s="333"/>
+      <c r="C65" s="334"/>
+      <c r="D65" s="334"/>
+      <c r="E65" s="334"/>
+      <c r="F65" s="335"/>
+      <c r="G65" s="333"/>
+      <c r="H65" s="334"/>
+      <c r="I65" s="334"/>
+      <c r="J65" s="334"/>
+      <c r="K65" s="334"/>
+      <c r="L65" s="335"/>
+      <c r="M65" s="336"/>
+      <c r="N65" s="337"/>
+      <c r="O65" s="337"/>
+      <c r="P65" s="337"/>
+      <c r="Q65" s="337"/>
+      <c r="R65" s="337"/>
+      <c r="S65" s="337"/>
+      <c r="T65" s="337"/>
+      <c r="U65" s="337"/>
+      <c r="V65" s="337"/>
+      <c r="W65" s="337"/>
+      <c r="X65" s="337"/>
+      <c r="Y65" s="337"/>
+      <c r="Z65" s="337"/>
+      <c r="AA65" s="337"/>
+      <c r="AB65" s="337"/>
+      <c r="AC65" s="337"/>
+      <c r="AD65" s="337"/>
+      <c r="AE65" s="338"/>
+      <c r="AF65" s="333"/>
+      <c r="AG65" s="334"/>
+      <c r="AH65" s="334"/>
+      <c r="AI65" s="335"/>
       <c r="AJ65" s="28"/>
       <c r="AK65" s="88"/>
       <c r="AL65" s="88"/>
@@ -10196,40 +10198,40 @@
     </row>
     <row r="69" spans="1:82" ht="10.15" customHeight="1">
       <c r="A69" s="28"/>
-      <c r="B69" s="335"/>
-      <c r="C69" s="336"/>
-      <c r="D69" s="336"/>
-      <c r="E69" s="336"/>
-      <c r="F69" s="336"/>
-      <c r="G69" s="337"/>
-      <c r="H69" s="287"/>
-      <c r="I69" s="288"/>
-      <c r="J69" s="288"/>
-      <c r="K69" s="288"/>
-      <c r="L69" s="288"/>
-      <c r="M69" s="288"/>
-      <c r="N69" s="288"/>
-      <c r="O69" s="288"/>
-      <c r="P69" s="288"/>
-      <c r="Q69" s="288"/>
-      <c r="R69" s="288"/>
-      <c r="S69" s="288"/>
-      <c r="T69" s="288"/>
-      <c r="U69" s="288"/>
-      <c r="V69" s="288"/>
-      <c r="W69" s="288"/>
-      <c r="X69" s="288"/>
-      <c r="Y69" s="288"/>
-      <c r="Z69" s="288"/>
-      <c r="AA69" s="288"/>
-      <c r="AB69" s="288"/>
-      <c r="AC69" s="288"/>
-      <c r="AD69" s="288"/>
-      <c r="AE69" s="288"/>
-      <c r="AF69" s="288"/>
-      <c r="AG69" s="288"/>
-      <c r="AH69" s="288"/>
-      <c r="AI69" s="289"/>
+      <c r="B69" s="300"/>
+      <c r="C69" s="301"/>
+      <c r="D69" s="301"/>
+      <c r="E69" s="301"/>
+      <c r="F69" s="301"/>
+      <c r="G69" s="302"/>
+      <c r="H69" s="303"/>
+      <c r="I69" s="290"/>
+      <c r="J69" s="290"/>
+      <c r="K69" s="290"/>
+      <c r="L69" s="290"/>
+      <c r="M69" s="290"/>
+      <c r="N69" s="290"/>
+      <c r="O69" s="290"/>
+      <c r="P69" s="290"/>
+      <c r="Q69" s="290"/>
+      <c r="R69" s="290"/>
+      <c r="S69" s="290"/>
+      <c r="T69" s="290"/>
+      <c r="U69" s="290"/>
+      <c r="V69" s="290"/>
+      <c r="W69" s="290"/>
+      <c r="X69" s="290"/>
+      <c r="Y69" s="290"/>
+      <c r="Z69" s="290"/>
+      <c r="AA69" s="290"/>
+      <c r="AB69" s="290"/>
+      <c r="AC69" s="290"/>
+      <c r="AD69" s="290"/>
+      <c r="AE69" s="290"/>
+      <c r="AF69" s="290"/>
+      <c r="AG69" s="290"/>
+      <c r="AH69" s="290"/>
+      <c r="AI69" s="291"/>
       <c r="AJ69" s="28"/>
       <c r="AK69" s="88"/>
       <c r="AL69" s="88"/>
@@ -10398,30 +10400,30 @@
       <c r="N72" s="114"/>
       <c r="O72" s="114"/>
       <c r="P72" s="114"/>
-      <c r="Q72" s="318" t="s">
+      <c r="Q72" s="279" t="s">
         <v>38</v>
       </c>
-      <c r="R72" s="318"/>
-      <c r="S72" s="318"/>
-      <c r="T72" s="318"/>
+      <c r="R72" s="279"/>
+      <c r="S72" s="279"/>
+      <c r="T72" s="279"/>
       <c r="U72" s="114"/>
       <c r="V72" s="114"/>
-      <c r="W72" s="338" t="s">
+      <c r="W72" s="304" t="s">
         <v>41</v>
       </c>
-      <c r="X72" s="338"/>
-      <c r="Y72" s="338"/>
-      <c r="Z72" s="338"/>
+      <c r="X72" s="304"/>
+      <c r="Y72" s="304"/>
+      <c r="Z72" s="304"/>
       <c r="AA72" s="25"/>
       <c r="AB72" s="25"/>
       <c r="AC72" s="25"/>
-      <c r="AD72" s="318" t="s">
+      <c r="AD72" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="AE72" s="318"/>
-      <c r="AF72" s="318"/>
-      <c r="AG72" s="318"/>
-      <c r="AH72" s="318"/>
+      <c r="AE72" s="279"/>
+      <c r="AF72" s="279"/>
+      <c r="AG72" s="279"/>
+      <c r="AH72" s="279"/>
       <c r="AI72" s="41"/>
       <c r="AJ72" s="28"/>
       <c r="AK72" s="88"/>
@@ -10462,11 +10464,11 @@
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
       <c r="F73" s="114"/>
-      <c r="G73" s="315"/>
-      <c r="H73" s="315"/>
-      <c r="I73" s="315"/>
-      <c r="J73" s="315"/>
-      <c r="K73" s="315"/>
+      <c r="G73" s="305"/>
+      <c r="H73" s="305"/>
+      <c r="I73" s="305"/>
+      <c r="J73" s="305"/>
+      <c r="K73" s="305"/>
       <c r="L73" s="25"/>
       <c r="M73" s="103" t="s">
         <v>9</v>
@@ -10474,30 +10476,30 @@
       <c r="N73" s="114"/>
       <c r="O73" s="114"/>
       <c r="P73" s="114"/>
-      <c r="Q73" s="315" t="s">
+      <c r="Q73" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="R73" s="315"/>
-      <c r="S73" s="315"/>
-      <c r="T73" s="315"/>
+      <c r="R73" s="305"/>
+      <c r="S73" s="305"/>
+      <c r="T73" s="305"/>
       <c r="U73" s="79"/>
       <c r="V73" s="79"/>
-      <c r="W73" s="315" t="s">
+      <c r="W73" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="X73" s="315"/>
-      <c r="Y73" s="315"/>
-      <c r="Z73" s="315"/>
+      <c r="X73" s="305"/>
+      <c r="Y73" s="305"/>
+      <c r="Z73" s="305"/>
       <c r="AA73" s="116"/>
       <c r="AB73" s="116"/>
       <c r="AC73" s="116"/>
-      <c r="AD73" s="315" t="s">
+      <c r="AD73" s="305" t="s">
         <v>125</v>
       </c>
-      <c r="AE73" s="315"/>
-      <c r="AF73" s="315"/>
-      <c r="AG73" s="315"/>
-      <c r="AH73" s="315"/>
+      <c r="AE73" s="305"/>
+      <c r="AF73" s="305"/>
+      <c r="AG73" s="305"/>
+      <c r="AH73" s="305"/>
       <c r="AI73" s="41"/>
       <c r="AJ73" s="28"/>
       <c r="AK73" s="88"/>
@@ -10538,11 +10540,11 @@
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
       <c r="F74" s="114"/>
-      <c r="G74" s="316"/>
-      <c r="H74" s="316"/>
-      <c r="I74" s="316"/>
-      <c r="J74" s="316"/>
-      <c r="K74" s="316"/>
+      <c r="G74" s="306"/>
+      <c r="H74" s="306"/>
+      <c r="I74" s="306"/>
+      <c r="J74" s="306"/>
+      <c r="K74" s="306"/>
       <c r="L74" s="25"/>
       <c r="M74" s="103" t="s">
         <v>50</v>
@@ -10550,30 +10552,30 @@
       <c r="N74" s="114"/>
       <c r="O74" s="114"/>
       <c r="P74" s="114"/>
-      <c r="Q74" s="316" t="s">
+      <c r="Q74" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="R74" s="316"/>
-      <c r="S74" s="316"/>
-      <c r="T74" s="316"/>
+      <c r="R74" s="306"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
       <c r="U74" s="79"/>
       <c r="V74" s="79"/>
-      <c r="W74" s="316" t="s">
+      <c r="W74" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="X74" s="316"/>
-      <c r="Y74" s="316"/>
-      <c r="Z74" s="316"/>
+      <c r="X74" s="306"/>
+      <c r="Y74" s="306"/>
+      <c r="Z74" s="306"/>
       <c r="AA74" s="116"/>
       <c r="AB74" s="116"/>
       <c r="AC74" s="116"/>
-      <c r="AD74" s="316" t="s">
+      <c r="AD74" s="306" t="s">
         <v>125</v>
       </c>
-      <c r="AE74" s="316"/>
-      <c r="AF74" s="316"/>
-      <c r="AG74" s="316"/>
-      <c r="AH74" s="316"/>
+      <c r="AE74" s="306"/>
+      <c r="AF74" s="306"/>
+      <c r="AG74" s="306"/>
+      <c r="AH74" s="306"/>
       <c r="AI74" s="41"/>
       <c r="AJ74" s="28"/>
       <c r="AK74" s="88"/>
@@ -10624,30 +10626,30 @@
       <c r="N75" s="114"/>
       <c r="O75" s="114"/>
       <c r="P75" s="114"/>
-      <c r="Q75" s="341" t="s">
+      <c r="Q75" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="R75" s="341"/>
-      <c r="S75" s="341"/>
-      <c r="T75" s="341"/>
+      <c r="R75" s="285"/>
+      <c r="S75" s="285"/>
+      <c r="T75" s="285"/>
       <c r="U75" s="79"/>
       <c r="V75" s="79"/>
-      <c r="W75" s="341" t="s">
+      <c r="W75" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="X75" s="341"/>
-      <c r="Y75" s="341"/>
-      <c r="Z75" s="341"/>
+      <c r="X75" s="285"/>
+      <c r="Y75" s="285"/>
+      <c r="Z75" s="285"/>
       <c r="AA75" s="116"/>
       <c r="AB75" s="116"/>
       <c r="AC75" s="116"/>
-      <c r="AD75" s="341" t="s">
+      <c r="AD75" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="AE75" s="341"/>
-      <c r="AF75" s="341"/>
-      <c r="AG75" s="341"/>
-      <c r="AH75" s="341"/>
+      <c r="AE75" s="285"/>
+      <c r="AF75" s="285"/>
+      <c r="AG75" s="285"/>
+      <c r="AH75" s="285"/>
       <c r="AI75" s="41"/>
       <c r="AJ75" s="28"/>
       <c r="AK75" s="88"/>
@@ -10688,11 +10690,11 @@
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
-      <c r="G76" s="314"/>
-      <c r="H76" s="314"/>
-      <c r="I76" s="314"/>
-      <c r="J76" s="314"/>
-      <c r="K76" s="314"/>
+      <c r="G76" s="286"/>
+      <c r="H76" s="286"/>
+      <c r="I76" s="286"/>
+      <c r="J76" s="286"/>
+      <c r="K76" s="286"/>
       <c r="L76" s="25"/>
       <c r="M76" s="117" t="s">
         <v>11</v>
@@ -10713,13 +10715,13 @@
       <c r="AA76" s="116"/>
       <c r="AB76" s="116"/>
       <c r="AC76" s="116"/>
-      <c r="AD76" s="341" t="s">
+      <c r="AD76" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="AE76" s="341"/>
-      <c r="AF76" s="341"/>
-      <c r="AG76" s="341"/>
-      <c r="AH76" s="341"/>
+      <c r="AE76" s="285"/>
+      <c r="AF76" s="285"/>
+      <c r="AG76" s="285"/>
+      <c r="AH76" s="285"/>
       <c r="AI76" s="41"/>
       <c r="AJ76" s="28"/>
       <c r="AK76" s="88"/>
@@ -10955,40 +10957,40 @@
     </row>
     <row r="80" spans="1:82" ht="10.15" customHeight="1">
       <c r="A80" s="28"/>
-      <c r="B80" s="343"/>
-      <c r="C80" s="288"/>
-      <c r="D80" s="288"/>
-      <c r="E80" s="288"/>
-      <c r="F80" s="288"/>
-      <c r="G80" s="288"/>
-      <c r="H80" s="288"/>
-      <c r="I80" s="288"/>
-      <c r="J80" s="288"/>
-      <c r="K80" s="288"/>
-      <c r="L80" s="289"/>
-      <c r="M80" s="287"/>
-      <c r="N80" s="288"/>
-      <c r="O80" s="288"/>
-      <c r="P80" s="288"/>
-      <c r="Q80" s="288"/>
-      <c r="R80" s="288"/>
-      <c r="S80" s="288"/>
-      <c r="T80" s="288"/>
-      <c r="U80" s="288"/>
-      <c r="V80" s="288"/>
-      <c r="W80" s="288"/>
-      <c r="X80" s="288"/>
-      <c r="Y80" s="288"/>
-      <c r="Z80" s="288"/>
-      <c r="AA80" s="288"/>
-      <c r="AB80" s="288"/>
-      <c r="AC80" s="288"/>
-      <c r="AD80" s="288"/>
-      <c r="AE80" s="288"/>
-      <c r="AF80" s="288"/>
-      <c r="AG80" s="288"/>
-      <c r="AH80" s="288"/>
-      <c r="AI80" s="289"/>
+      <c r="B80" s="289"/>
+      <c r="C80" s="290"/>
+      <c r="D80" s="290"/>
+      <c r="E80" s="290"/>
+      <c r="F80" s="290"/>
+      <c r="G80" s="290"/>
+      <c r="H80" s="290"/>
+      <c r="I80" s="290"/>
+      <c r="J80" s="290"/>
+      <c r="K80" s="290"/>
+      <c r="L80" s="291"/>
+      <c r="M80" s="303"/>
+      <c r="N80" s="290"/>
+      <c r="O80" s="290"/>
+      <c r="P80" s="290"/>
+      <c r="Q80" s="290"/>
+      <c r="R80" s="290"/>
+      <c r="S80" s="290"/>
+      <c r="T80" s="290"/>
+      <c r="U80" s="290"/>
+      <c r="V80" s="290"/>
+      <c r="W80" s="290"/>
+      <c r="X80" s="290"/>
+      <c r="Y80" s="290"/>
+      <c r="Z80" s="290"/>
+      <c r="AA80" s="290"/>
+      <c r="AB80" s="290"/>
+      <c r="AC80" s="290"/>
+      <c r="AD80" s="290"/>
+      <c r="AE80" s="290"/>
+      <c r="AF80" s="290"/>
+      <c r="AG80" s="290"/>
+      <c r="AH80" s="290"/>
+      <c r="AI80" s="291"/>
       <c r="AJ80" s="28"/>
       <c r="AK80" s="88"/>
       <c r="AL80" s="88"/>
@@ -11160,40 +11162,40 @@
     </row>
     <row r="83" spans="1:74" ht="12.75" customHeight="1">
       <c r="A83" s="28"/>
-      <c r="B83" s="287"/>
-      <c r="C83" s="288"/>
-      <c r="D83" s="288"/>
-      <c r="E83" s="288"/>
-      <c r="F83" s="288"/>
-      <c r="G83" s="288"/>
-      <c r="H83" s="288"/>
-      <c r="I83" s="289"/>
-      <c r="J83" s="287"/>
-      <c r="K83" s="288"/>
-      <c r="L83" s="288"/>
-      <c r="M83" s="288"/>
-      <c r="N83" s="288"/>
-      <c r="O83" s="288"/>
-      <c r="P83" s="288"/>
-      <c r="Q83" s="288"/>
-      <c r="R83" s="288"/>
-      <c r="S83" s="289"/>
-      <c r="T83" s="287"/>
-      <c r="U83" s="288"/>
-      <c r="V83" s="288"/>
-      <c r="W83" s="288"/>
-      <c r="X83" s="288"/>
-      <c r="Y83" s="288"/>
-      <c r="Z83" s="288"/>
-      <c r="AA83" s="288"/>
-      <c r="AB83" s="288"/>
-      <c r="AC83" s="289"/>
-      <c r="AD83" s="287"/>
-      <c r="AE83" s="288"/>
-      <c r="AF83" s="288"/>
-      <c r="AG83" s="288"/>
-      <c r="AH83" s="288"/>
-      <c r="AI83" s="289"/>
+      <c r="B83" s="303"/>
+      <c r="C83" s="290"/>
+      <c r="D83" s="290"/>
+      <c r="E83" s="290"/>
+      <c r="F83" s="290"/>
+      <c r="G83" s="290"/>
+      <c r="H83" s="290"/>
+      <c r="I83" s="291"/>
+      <c r="J83" s="303"/>
+      <c r="K83" s="290"/>
+      <c r="L83" s="290"/>
+      <c r="M83" s="290"/>
+      <c r="N83" s="290"/>
+      <c r="O83" s="290"/>
+      <c r="P83" s="290"/>
+      <c r="Q83" s="290"/>
+      <c r="R83" s="290"/>
+      <c r="S83" s="291"/>
+      <c r="T83" s="303"/>
+      <c r="U83" s="290"/>
+      <c r="V83" s="290"/>
+      <c r="W83" s="290"/>
+      <c r="X83" s="290"/>
+      <c r="Y83" s="290"/>
+      <c r="Z83" s="290"/>
+      <c r="AA83" s="290"/>
+      <c r="AB83" s="290"/>
+      <c r="AC83" s="291"/>
+      <c r="AD83" s="303"/>
+      <c r="AE83" s="290"/>
+      <c r="AF83" s="290"/>
+      <c r="AG83" s="290"/>
+      <c r="AH83" s="290"/>
+      <c r="AI83" s="291"/>
       <c r="AJ83" s="28"/>
       <c r="AK83" s="88"/>
       <c r="AL83" s="88"/>
@@ -11349,40 +11351,40 @@
     </row>
     <row r="86" spans="1:74" ht="10.5" customHeight="1">
       <c r="A86" s="28"/>
-      <c r="B86" s="345"/>
-      <c r="C86" s="346"/>
-      <c r="D86" s="346"/>
-      <c r="E86" s="346"/>
-      <c r="F86" s="346"/>
-      <c r="G86" s="346"/>
-      <c r="H86" s="346"/>
-      <c r="I86" s="346"/>
-      <c r="J86" s="346"/>
-      <c r="K86" s="346"/>
-      <c r="L86" s="346"/>
-      <c r="M86" s="346"/>
-      <c r="N86" s="346"/>
-      <c r="O86" s="346"/>
-      <c r="P86" s="346"/>
-      <c r="Q86" s="346"/>
-      <c r="R86" s="346"/>
-      <c r="S86" s="346"/>
-      <c r="T86" s="346"/>
-      <c r="U86" s="346"/>
-      <c r="V86" s="346"/>
-      <c r="W86" s="346"/>
-      <c r="X86" s="346"/>
-      <c r="Y86" s="346"/>
-      <c r="Z86" s="346"/>
-      <c r="AA86" s="346"/>
-      <c r="AB86" s="346"/>
-      <c r="AC86" s="346"/>
-      <c r="AD86" s="346"/>
-      <c r="AE86" s="346"/>
-      <c r="AF86" s="346"/>
-      <c r="AG86" s="346"/>
-      <c r="AH86" s="346"/>
-      <c r="AI86" s="347"/>
+      <c r="B86" s="293"/>
+      <c r="C86" s="294"/>
+      <c r="D86" s="294"/>
+      <c r="E86" s="294"/>
+      <c r="F86" s="294"/>
+      <c r="G86" s="294"/>
+      <c r="H86" s="294"/>
+      <c r="I86" s="294"/>
+      <c r="J86" s="294"/>
+      <c r="K86" s="294"/>
+      <c r="L86" s="294"/>
+      <c r="M86" s="294"/>
+      <c r="N86" s="294"/>
+      <c r="O86" s="294"/>
+      <c r="P86" s="294"/>
+      <c r="Q86" s="294"/>
+      <c r="R86" s="294"/>
+      <c r="S86" s="294"/>
+      <c r="T86" s="294"/>
+      <c r="U86" s="294"/>
+      <c r="V86" s="294"/>
+      <c r="W86" s="294"/>
+      <c r="X86" s="294"/>
+      <c r="Y86" s="294"/>
+      <c r="Z86" s="294"/>
+      <c r="AA86" s="294"/>
+      <c r="AB86" s="294"/>
+      <c r="AC86" s="294"/>
+      <c r="AD86" s="294"/>
+      <c r="AE86" s="294"/>
+      <c r="AF86" s="294"/>
+      <c r="AG86" s="294"/>
+      <c r="AH86" s="294"/>
+      <c r="AI86" s="295"/>
       <c r="AJ86" s="28"/>
       <c r="AK86" s="46"/>
       <c r="AL86" s="46"/>
@@ -11413,40 +11415,40 @@
     </row>
     <row r="87" spans="1:74" ht="15.75" customHeight="1">
       <c r="A87" s="28"/>
-      <c r="B87" s="345"/>
-      <c r="C87" s="346"/>
-      <c r="D87" s="346"/>
-      <c r="E87" s="346"/>
-      <c r="F87" s="346"/>
-      <c r="G87" s="346"/>
-      <c r="H87" s="346"/>
-      <c r="I87" s="346"/>
-      <c r="J87" s="346"/>
-      <c r="K87" s="346"/>
-      <c r="L87" s="346"/>
-      <c r="M87" s="346"/>
-      <c r="N87" s="346"/>
-      <c r="O87" s="346"/>
-      <c r="P87" s="346"/>
-      <c r="Q87" s="346"/>
-      <c r="R87" s="346"/>
-      <c r="S87" s="346"/>
-      <c r="T87" s="346"/>
-      <c r="U87" s="346"/>
-      <c r="V87" s="346"/>
-      <c r="W87" s="346"/>
-      <c r="X87" s="346"/>
-      <c r="Y87" s="346"/>
-      <c r="Z87" s="346"/>
-      <c r="AA87" s="346"/>
-      <c r="AB87" s="346"/>
-      <c r="AC87" s="346"/>
-      <c r="AD87" s="346"/>
-      <c r="AE87" s="346"/>
-      <c r="AF87" s="346"/>
-      <c r="AG87" s="346"/>
-      <c r="AH87" s="346"/>
-      <c r="AI87" s="347"/>
+      <c r="B87" s="293"/>
+      <c r="C87" s="294"/>
+      <c r="D87" s="294"/>
+      <c r="E87" s="294"/>
+      <c r="F87" s="294"/>
+      <c r="G87" s="294"/>
+      <c r="H87" s="294"/>
+      <c r="I87" s="294"/>
+      <c r="J87" s="294"/>
+      <c r="K87" s="294"/>
+      <c r="L87" s="294"/>
+      <c r="M87" s="294"/>
+      <c r="N87" s="294"/>
+      <c r="O87" s="294"/>
+      <c r="P87" s="294"/>
+      <c r="Q87" s="294"/>
+      <c r="R87" s="294"/>
+      <c r="S87" s="294"/>
+      <c r="T87" s="294"/>
+      <c r="U87" s="294"/>
+      <c r="V87" s="294"/>
+      <c r="W87" s="294"/>
+      <c r="X87" s="294"/>
+      <c r="Y87" s="294"/>
+      <c r="Z87" s="294"/>
+      <c r="AA87" s="294"/>
+      <c r="AB87" s="294"/>
+      <c r="AC87" s="294"/>
+      <c r="AD87" s="294"/>
+      <c r="AE87" s="294"/>
+      <c r="AF87" s="294"/>
+      <c r="AG87" s="294"/>
+      <c r="AH87" s="294"/>
+      <c r="AI87" s="295"/>
       <c r="AJ87" s="28"/>
       <c r="AK87" s="37"/>
       <c r="AL87" s="37"/>
@@ -11461,40 +11463,40 @@
     </row>
     <row r="88" spans="1:74" ht="11.25" customHeight="1">
       <c r="A88" s="28"/>
-      <c r="B88" s="348"/>
-      <c r="C88" s="349"/>
-      <c r="D88" s="349"/>
-      <c r="E88" s="349"/>
-      <c r="F88" s="349"/>
-      <c r="G88" s="349"/>
-      <c r="H88" s="349"/>
-      <c r="I88" s="349"/>
-      <c r="J88" s="349"/>
-      <c r="K88" s="349"/>
-      <c r="L88" s="349"/>
-      <c r="M88" s="349"/>
-      <c r="N88" s="349"/>
-      <c r="O88" s="349"/>
-      <c r="P88" s="349"/>
-      <c r="Q88" s="349"/>
-      <c r="R88" s="349"/>
-      <c r="S88" s="349"/>
-      <c r="T88" s="349"/>
-      <c r="U88" s="349"/>
-      <c r="V88" s="349"/>
-      <c r="W88" s="349"/>
-      <c r="X88" s="349"/>
-      <c r="Y88" s="349"/>
-      <c r="Z88" s="349"/>
-      <c r="AA88" s="349"/>
-      <c r="AB88" s="349"/>
-      <c r="AC88" s="349"/>
-      <c r="AD88" s="349"/>
-      <c r="AE88" s="349"/>
-      <c r="AF88" s="349"/>
-      <c r="AG88" s="349"/>
-      <c r="AH88" s="349"/>
-      <c r="AI88" s="350"/>
+      <c r="B88" s="296"/>
+      <c r="C88" s="297"/>
+      <c r="D88" s="297"/>
+      <c r="E88" s="297"/>
+      <c r="F88" s="297"/>
+      <c r="G88" s="297"/>
+      <c r="H88" s="297"/>
+      <c r="I88" s="297"/>
+      <c r="J88" s="297"/>
+      <c r="K88" s="297"/>
+      <c r="L88" s="297"/>
+      <c r="M88" s="297"/>
+      <c r="N88" s="297"/>
+      <c r="O88" s="297"/>
+      <c r="P88" s="297"/>
+      <c r="Q88" s="297"/>
+      <c r="R88" s="297"/>
+      <c r="S88" s="297"/>
+      <c r="T88" s="297"/>
+      <c r="U88" s="297"/>
+      <c r="V88" s="297"/>
+      <c r="W88" s="297"/>
+      <c r="X88" s="297"/>
+      <c r="Y88" s="297"/>
+      <c r="Z88" s="297"/>
+      <c r="AA88" s="297"/>
+      <c r="AB88" s="297"/>
+      <c r="AC88" s="297"/>
+      <c r="AD88" s="297"/>
+      <c r="AE88" s="297"/>
+      <c r="AF88" s="297"/>
+      <c r="AG88" s="297"/>
+      <c r="AH88" s="297"/>
+      <c r="AI88" s="298"/>
       <c r="AJ88" s="28"/>
       <c r="AK88" s="46"/>
       <c r="AL88" s="46"/>
@@ -11564,35 +11566,35 @@
       <c r="D90" s="25"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="351"/>
-      <c r="H90" s="351"/>
-      <c r="I90" s="351"/>
-      <c r="J90" s="351"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="351"/>
-      <c r="M90" s="351"/>
-      <c r="N90" s="351"/>
-      <c r="O90" s="351"/>
-      <c r="P90" s="351"/>
-      <c r="Q90" s="351"/>
-      <c r="R90" s="351"/>
-      <c r="S90" s="351"/>
-      <c r="T90" s="351"/>
-      <c r="U90" s="351"/>
-      <c r="V90" s="351"/>
-      <c r="W90" s="351"/>
-      <c r="X90" s="351"/>
-      <c r="Y90" s="351"/>
-      <c r="Z90" s="351"/>
-      <c r="AA90" s="351"/>
-      <c r="AB90" s="351"/>
-      <c r="AC90" s="351"/>
-      <c r="AD90" s="351"/>
-      <c r="AE90" s="351"/>
-      <c r="AF90" s="351"/>
-      <c r="AG90" s="351"/>
-      <c r="AH90" s="351"/>
-      <c r="AI90" s="351"/>
+      <c r="G90" s="299"/>
+      <c r="H90" s="299"/>
+      <c r="I90" s="299"/>
+      <c r="J90" s="299"/>
+      <c r="K90" s="299"/>
+      <c r="L90" s="299"/>
+      <c r="M90" s="299"/>
+      <c r="N90" s="299"/>
+      <c r="O90" s="299"/>
+      <c r="P90" s="299"/>
+      <c r="Q90" s="299"/>
+      <c r="R90" s="299"/>
+      <c r="S90" s="299"/>
+      <c r="T90" s="299"/>
+      <c r="U90" s="299"/>
+      <c r="V90" s="299"/>
+      <c r="W90" s="299"/>
+      <c r="X90" s="299"/>
+      <c r="Y90" s="299"/>
+      <c r="Z90" s="299"/>
+      <c r="AA90" s="299"/>
+      <c r="AB90" s="299"/>
+      <c r="AC90" s="299"/>
+      <c r="AD90" s="299"/>
+      <c r="AE90" s="299"/>
+      <c r="AF90" s="299"/>
+      <c r="AG90" s="299"/>
+      <c r="AH90" s="299"/>
+      <c r="AI90" s="299"/>
       <c r="AJ90" s="25"/>
       <c r="AK90" s="46"/>
       <c r="AL90" s="46"/>
@@ -11706,39 +11708,39 @@
       <c r="AT92" s="51"/>
     </row>
     <row r="93" spans="1:74" s="25" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B93" s="344"/>
-      <c r="C93" s="344"/>
-      <c r="D93" s="344"/>
-      <c r="E93" s="344"/>
-      <c r="F93" s="344"/>
-      <c r="G93" s="344"/>
-      <c r="H93" s="344"/>
-      <c r="I93" s="344"/>
-      <c r="J93" s="344"/>
-      <c r="K93" s="344"/>
-      <c r="L93" s="344"/>
-      <c r="M93" s="344"/>
-      <c r="N93" s="344"/>
-      <c r="O93" s="344"/>
-      <c r="P93" s="344"/>
-      <c r="Q93" s="344"/>
-      <c r="R93" s="344"/>
-      <c r="S93" s="344"/>
-      <c r="T93" s="344"/>
-      <c r="U93" s="344"/>
-      <c r="V93" s="344"/>
-      <c r="W93" s="344"/>
-      <c r="X93" s="344"/>
-      <c r="Y93" s="344"/>
-      <c r="Z93" s="344"/>
-      <c r="AA93" s="344"/>
-      <c r="AB93" s="344"/>
-      <c r="AC93" s="344"/>
-      <c r="AE93" s="299"/>
-      <c r="AF93" s="299"/>
-      <c r="AG93" s="299"/>
-      <c r="AH93" s="299"/>
-      <c r="AI93" s="299"/>
+      <c r="B93" s="292"/>
+      <c r="C93" s="292"/>
+      <c r="D93" s="292"/>
+      <c r="E93" s="292"/>
+      <c r="F93" s="292"/>
+      <c r="G93" s="292"/>
+      <c r="H93" s="292"/>
+      <c r="I93" s="292"/>
+      <c r="J93" s="292"/>
+      <c r="K93" s="292"/>
+      <c r="L93" s="292"/>
+      <c r="M93" s="292"/>
+      <c r="N93" s="292"/>
+      <c r="O93" s="292"/>
+      <c r="P93" s="292"/>
+      <c r="Q93" s="292"/>
+      <c r="R93" s="292"/>
+      <c r="S93" s="292"/>
+      <c r="T93" s="292"/>
+      <c r="U93" s="292"/>
+      <c r="V93" s="292"/>
+      <c r="W93" s="292"/>
+      <c r="X93" s="292"/>
+      <c r="Y93" s="292"/>
+      <c r="Z93" s="292"/>
+      <c r="AA93" s="292"/>
+      <c r="AB93" s="292"/>
+      <c r="AC93" s="292"/>
+      <c r="AE93" s="287"/>
+      <c r="AF93" s="287"/>
+      <c r="AG93" s="287"/>
+      <c r="AH93" s="287"/>
+      <c r="AI93" s="287"/>
       <c r="AK93" s="127"/>
       <c r="AL93" s="127"/>
       <c r="AM93" s="127"/>
@@ -11771,22 +11773,22 @@
       <c r="Q94" s="130"/>
       <c r="R94" s="25"/>
       <c r="S94" s="25"/>
-      <c r="T94" s="339"/>
-      <c r="U94" s="339"/>
-      <c r="V94" s="339"/>
-      <c r="W94" s="339"/>
-      <c r="X94" s="339"/>
-      <c r="Y94" s="339"/>
-      <c r="Z94" s="339"/>
-      <c r="AA94" s="339"/>
-      <c r="AB94" s="339"/>
-      <c r="AC94" s="339"/>
+      <c r="T94" s="284"/>
+      <c r="U94" s="284"/>
+      <c r="V94" s="284"/>
+      <c r="W94" s="284"/>
+      <c r="X94" s="284"/>
+      <c r="Y94" s="284"/>
+      <c r="Z94" s="284"/>
+      <c r="AA94" s="284"/>
+      <c r="AB94" s="284"/>
+      <c r="AC94" s="284"/>
       <c r="AD94" s="25"/>
-      <c r="AE94" s="299"/>
-      <c r="AF94" s="299"/>
-      <c r="AG94" s="299"/>
-      <c r="AH94" s="299"/>
-      <c r="AI94" s="299"/>
+      <c r="AE94" s="287"/>
+      <c r="AF94" s="287"/>
+      <c r="AG94" s="287"/>
+      <c r="AH94" s="287"/>
+      <c r="AI94" s="287"/>
       <c r="AJ94" s="53"/>
       <c r="AK94" s="46"/>
       <c r="AL94" s="46"/>
@@ -11804,31 +11806,31 @@
       <c r="B95" s="131"/>
       <c r="C95" s="131"/>
       <c r="D95" s="131"/>
-      <c r="E95" s="299"/>
-      <c r="F95" s="342"/>
-      <c r="G95" s="342"/>
-      <c r="H95" s="342"/>
-      <c r="I95" s="342"/>
-      <c r="J95" s="342"/>
-      <c r="K95" s="342"/>
-      <c r="L95" s="342"/>
-      <c r="M95" s="342"/>
-      <c r="N95" s="342"/>
-      <c r="O95" s="342"/>
-      <c r="P95" s="342"/>
-      <c r="Q95" s="342"/>
+      <c r="E95" s="287"/>
+      <c r="F95" s="288"/>
+      <c r="G95" s="288"/>
+      <c r="H95" s="288"/>
+      <c r="I95" s="288"/>
+      <c r="J95" s="288"/>
+      <c r="K95" s="288"/>
+      <c r="L95" s="288"/>
+      <c r="M95" s="288"/>
+      <c r="N95" s="288"/>
+      <c r="O95" s="288"/>
+      <c r="P95" s="288"/>
+      <c r="Q95" s="288"/>
       <c r="R95" s="25"/>
       <c r="S95" s="25"/>
-      <c r="T95" s="339"/>
-      <c r="U95" s="339"/>
-      <c r="V95" s="339"/>
-      <c r="W95" s="339"/>
-      <c r="X95" s="339"/>
-      <c r="Y95" s="339"/>
-      <c r="Z95" s="339"/>
-      <c r="AA95" s="339"/>
-      <c r="AB95" s="339"/>
-      <c r="AC95" s="339"/>
+      <c r="T95" s="284"/>
+      <c r="U95" s="284"/>
+      <c r="V95" s="284"/>
+      <c r="W95" s="284"/>
+      <c r="X95" s="284"/>
+      <c r="Y95" s="284"/>
+      <c r="Z95" s="284"/>
+      <c r="AA95" s="284"/>
+      <c r="AB95" s="284"/>
+      <c r="AC95" s="284"/>
       <c r="AD95" s="25"/>
       <c r="AE95" s="266"/>
       <c r="AF95" s="126"/>
@@ -11848,38 +11850,38 @@
       <c r="AT95" s="51"/>
     </row>
     <row r="96" spans="1:74" s="53" customFormat="1" ht="12" customHeight="1">
-      <c r="B96" s="339" t="s">
+      <c r="B96" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="339"/>
-      <c r="D96" s="339"/>
-      <c r="E96" s="353"/>
-      <c r="F96" s="353"/>
-      <c r="G96" s="353"/>
-      <c r="H96" s="353"/>
-      <c r="I96" s="353"/>
-      <c r="J96" s="353"/>
-      <c r="K96" s="353"/>
-      <c r="L96" s="353"/>
-      <c r="M96" s="353"/>
-      <c r="N96" s="353"/>
-      <c r="O96" s="353"/>
-      <c r="P96" s="353"/>
-      <c r="Q96" s="353"/>
-      <c r="R96" s="352" t="s">
+      <c r="C96" s="284"/>
+      <c r="D96" s="284"/>
+      <c r="E96" s="281"/>
+      <c r="F96" s="281"/>
+      <c r="G96" s="281"/>
+      <c r="H96" s="281"/>
+      <c r="I96" s="281"/>
+      <c r="J96" s="281"/>
+      <c r="K96" s="281"/>
+      <c r="L96" s="281"/>
+      <c r="M96" s="281"/>
+      <c r="N96" s="281"/>
+      <c r="O96" s="281"/>
+      <c r="P96" s="281"/>
+      <c r="Q96" s="281"/>
+      <c r="R96" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="S96" s="352"/>
-      <c r="T96" s="353"/>
-      <c r="U96" s="353"/>
-      <c r="V96" s="353"/>
-      <c r="W96" s="353"/>
-      <c r="X96" s="353"/>
-      <c r="Y96" s="353"/>
-      <c r="Z96" s="353"/>
-      <c r="AA96" s="353"/>
-      <c r="AB96" s="353"/>
-      <c r="AC96" s="353"/>
+      <c r="S96" s="280"/>
+      <c r="T96" s="281"/>
+      <c r="U96" s="281"/>
+      <c r="V96" s="281"/>
+      <c r="W96" s="281"/>
+      <c r="X96" s="281"/>
+      <c r="Y96" s="281"/>
+      <c r="Z96" s="281"/>
+      <c r="AA96" s="281"/>
+      <c r="AB96" s="281"/>
+      <c r="AC96" s="281"/>
       <c r="AD96" s="130"/>
       <c r="AE96" s="71" t="s">
         <v>20</v>
@@ -11901,38 +11903,38 @@
       <c r="AZ96" s="99"/>
     </row>
     <row r="97" spans="2:84" s="53" customFormat="1" ht="12" customHeight="1">
-      <c r="B97" s="339" t="s">
+      <c r="B97" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="339"/>
-      <c r="D97" s="339"/>
-      <c r="E97" s="354"/>
-      <c r="F97" s="354"/>
-      <c r="G97" s="354"/>
-      <c r="H97" s="354"/>
-      <c r="I97" s="354"/>
-      <c r="J97" s="354"/>
-      <c r="K97" s="354"/>
-      <c r="L97" s="354"/>
-      <c r="M97" s="354"/>
-      <c r="N97" s="354"/>
-      <c r="O97" s="354"/>
-      <c r="P97" s="354"/>
-      <c r="Q97" s="354"/>
-      <c r="R97" s="352" t="s">
+      <c r="C97" s="284"/>
+      <c r="D97" s="284"/>
+      <c r="E97" s="282"/>
+      <c r="F97" s="282"/>
+      <c r="G97" s="282"/>
+      <c r="H97" s="282"/>
+      <c r="I97" s="282"/>
+      <c r="J97" s="282"/>
+      <c r="K97" s="282"/>
+      <c r="L97" s="282"/>
+      <c r="M97" s="282"/>
+      <c r="N97" s="282"/>
+      <c r="O97" s="282"/>
+      <c r="P97" s="282"/>
+      <c r="Q97" s="282"/>
+      <c r="R97" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="S97" s="352"/>
-      <c r="T97" s="340"/>
-      <c r="U97" s="340"/>
-      <c r="V97" s="340"/>
-      <c r="W97" s="340"/>
-      <c r="X97" s="340"/>
-      <c r="Y97" s="340"/>
-      <c r="Z97" s="340"/>
-      <c r="AA97" s="340"/>
-      <c r="AB97" s="340"/>
-      <c r="AC97" s="340"/>
+      <c r="S97" s="280"/>
+      <c r="T97" s="283"/>
+      <c r="U97" s="283"/>
+      <c r="V97" s="283"/>
+      <c r="W97" s="283"/>
+      <c r="X97" s="283"/>
+      <c r="Y97" s="283"/>
+      <c r="Z97" s="283"/>
+      <c r="AA97" s="283"/>
+      <c r="AB97" s="283"/>
+      <c r="AC97" s="283"/>
       <c r="AD97" s="132"/>
       <c r="AE97" s="130"/>
       <c r="AF97" s="130"/>
@@ -11953,33 +11955,33 @@
     </row>
     <row r="98" spans="2:84" ht="8.85" customHeight="1">
       <c r="D98" s="53"/>
-      <c r="E98" s="318" t="s">
+      <c r="E98" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="F98" s="318"/>
-      <c r="G98" s="318"/>
-      <c r="H98" s="318"/>
-      <c r="I98" s="318"/>
-      <c r="J98" s="318"/>
-      <c r="K98" s="318"/>
-      <c r="L98" s="318"/>
-      <c r="M98" s="318"/>
-      <c r="N98" s="318"/>
-      <c r="O98" s="318"/>
-      <c r="P98" s="318"/>
-      <c r="Q98" s="318"/>
-      <c r="T98" s="318" t="s">
+      <c r="F98" s="279"/>
+      <c r="G98" s="279"/>
+      <c r="H98" s="279"/>
+      <c r="I98" s="279"/>
+      <c r="J98" s="279"/>
+      <c r="K98" s="279"/>
+      <c r="L98" s="279"/>
+      <c r="M98" s="279"/>
+      <c r="N98" s="279"/>
+      <c r="O98" s="279"/>
+      <c r="P98" s="279"/>
+      <c r="Q98" s="279"/>
+      <c r="T98" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="U98" s="318"/>
-      <c r="V98" s="318"/>
-      <c r="W98" s="318"/>
-      <c r="X98" s="318"/>
-      <c r="Y98" s="318"/>
-      <c r="Z98" s="318"/>
-      <c r="AA98" s="318"/>
-      <c r="AB98" s="318"/>
-      <c r="AC98" s="318"/>
+      <c r="U98" s="279"/>
+      <c r="V98" s="279"/>
+      <c r="W98" s="279"/>
+      <c r="X98" s="279"/>
+      <c r="Y98" s="279"/>
+      <c r="Z98" s="279"/>
+      <c r="AA98" s="279"/>
+      <c r="AB98" s="279"/>
+      <c r="AC98" s="279"/>
       <c r="AE98" s="267"/>
       <c r="AF98" s="267"/>
       <c r="AG98" s="267"/>
@@ -13004,52 +13006,57 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="E98:Q98"/>
-    <mergeCell ref="T98:AC98"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="E96:Q96"/>
-    <mergeCell ref="E97:Q97"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="T96:AC96"/>
-    <mergeCell ref="T97:AC97"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="AD76:AH76"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="W75:Z75"/>
-    <mergeCell ref="AD75:AH75"/>
-    <mergeCell ref="G76:K76"/>
-    <mergeCell ref="E95:Q95"/>
-    <mergeCell ref="B80:L80"/>
-    <mergeCell ref="B93:AC93"/>
-    <mergeCell ref="B86:AI88"/>
-    <mergeCell ref="G90:AI90"/>
-    <mergeCell ref="AE93:AI94"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:AI69"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="W72:Z72"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="AD73:AH73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="W73:Z73"/>
-    <mergeCell ref="M80:AI80"/>
-    <mergeCell ref="AD83:AI83"/>
-    <mergeCell ref="T94:AC95"/>
-    <mergeCell ref="AD74:AH74"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="W74:Z74"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="J83:S83"/>
-    <mergeCell ref="T83:AC83"/>
-    <mergeCell ref="B56:AI58"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="N62:R62"/>
-    <mergeCell ref="S62:W62"/>
-    <mergeCell ref="X62:AB62"/>
-    <mergeCell ref="AC62:AI62"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="L2:AG2"/>
+    <mergeCell ref="L8:V8"/>
+    <mergeCell ref="W8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AE4:AI5"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AT11:AU11"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="W12:AI12"/>
+    <mergeCell ref="B15:U15"/>
+    <mergeCell ref="W15:AI15"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:V24"/>
+    <mergeCell ref="W24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="B21:U21"/>
+    <mergeCell ref="W21:AI21"/>
+    <mergeCell ref="W17:AI17"/>
+    <mergeCell ref="B18:U18"/>
+    <mergeCell ref="W18:AI18"/>
+    <mergeCell ref="B12:U12"/>
+    <mergeCell ref="AE35:AI35"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="R38:U38"/>
+    <mergeCell ref="X38:AA38"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="P35:V35"/>
+    <mergeCell ref="W35:AD35"/>
+    <mergeCell ref="AC38:AI38"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="U43:AA43"/>
+    <mergeCell ref="AB43:AI43"/>
+    <mergeCell ref="AD46:AE46"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="M46:P46"/>
+    <mergeCell ref="Q46:W46"/>
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="L52:O52"/>
     <mergeCell ref="Q52:T52"/>
@@ -13071,61 +13078,56 @@
     <mergeCell ref="Q51:T51"/>
     <mergeCell ref="G48:J48"/>
     <mergeCell ref="L48:O48"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="U43:AA43"/>
-    <mergeCell ref="AB43:AI43"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="M46:P46"/>
-    <mergeCell ref="Q46:W46"/>
-    <mergeCell ref="AE35:AI35"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="R38:U38"/>
-    <mergeCell ref="X38:AA38"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:O35"/>
-    <mergeCell ref="P35:V35"/>
-    <mergeCell ref="W35:AD35"/>
-    <mergeCell ref="AC38:AI38"/>
-    <mergeCell ref="W12:AI12"/>
-    <mergeCell ref="B15:U15"/>
-    <mergeCell ref="W15:AI15"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:V24"/>
-    <mergeCell ref="W24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="B21:U21"/>
-    <mergeCell ref="W21:AI21"/>
+    <mergeCell ref="AD74:AH74"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="W74:Z74"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="J83:S83"/>
+    <mergeCell ref="T83:AC83"/>
+    <mergeCell ref="B56:AI58"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="N62:R62"/>
+    <mergeCell ref="S62:W62"/>
+    <mergeCell ref="X62:AB62"/>
+    <mergeCell ref="AC62:AI62"/>
     <mergeCell ref="B65:F65"/>
     <mergeCell ref="G65:L65"/>
     <mergeCell ref="M65:AE65"/>
     <mergeCell ref="AF65:AI65"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="L2:AG2"/>
-    <mergeCell ref="L8:V8"/>
-    <mergeCell ref="W8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AE4:AI5"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AT11:AU11"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="W17:AI17"/>
-    <mergeCell ref="B18:U18"/>
-    <mergeCell ref="W18:AI18"/>
-    <mergeCell ref="B12:U12"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:AI69"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="W72:Z72"/>
+    <mergeCell ref="AD72:AH72"/>
+    <mergeCell ref="AD73:AH73"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="W73:Z73"/>
+    <mergeCell ref="AD76:AH76"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="W75:Z75"/>
+    <mergeCell ref="AD75:AH75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="E95:Q95"/>
+    <mergeCell ref="B80:L80"/>
+    <mergeCell ref="B93:AC93"/>
+    <mergeCell ref="B86:AI88"/>
+    <mergeCell ref="G90:AI90"/>
+    <mergeCell ref="AE93:AI94"/>
+    <mergeCell ref="M80:AI80"/>
+    <mergeCell ref="AD83:AI83"/>
+    <mergeCell ref="T94:AC95"/>
+    <mergeCell ref="E98:Q98"/>
+    <mergeCell ref="T98:AC98"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="E96:Q96"/>
+    <mergeCell ref="E97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="T96:AC96"/>
+    <mergeCell ref="T97:AC97"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.53" right="0.28000000000000003" top="0.31" bottom="0.32" header="0.25" footer="0.31496062992125984"/>
@@ -13135,8 +13137,483 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7330" r:id="rId4" name="ResUni">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ1" r:id="rId5">
+        <control shapeId="7357" r:id="rId4" name="Laze">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ20" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7357" r:id="rId4" name="Laze"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7356" r:id="rId6" name="Segu">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ19" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7356" r:id="rId6" name="Segu"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7355" r:id="rId8" name="Saud">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ18" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7355" r:id="rId8" name="Saud"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7354" r:id="rId10" name="Esco">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ17" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>34</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7354" r:id="rId10" name="Esco"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7353" r:id="rId12" name="ReBa">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ16" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7353" r:id="rId12" name="ReBa"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7352" r:id="rId14" name="Come">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ15" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7352" r:id="rId14" name="Come"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7351" r:id="rId16" name="Tran">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ14" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7351" r:id="rId16" name="Tran"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7350" r:id="rId18" name="Lixo">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ13" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7350" r:id="rId18" name="Lixo"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7349" r:id="rId20" name="Il">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ12" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7349" r:id="rId20" name="Il"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7348" r:id="rId22" name="Gas">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ11" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7348" r:id="rId22" name="Gas"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7347" r:id="rId24" name="Plu">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ10" r:id="rId25">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7347" r:id="rId24" name="Plu"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7346" r:id="rId26" name="Pav">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ9" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7346" r:id="rId26" name="Pav"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7345" r:id="rId28" name="Tel">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ8" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7345" r:id="rId28" name="Tel"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7344" r:id="rId30" name="EE">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ7" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7344" r:id="rId30" name="EE"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7343" r:id="rId32" name="Esg">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ6" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7343" r:id="rId32" name="Esg"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7342" r:id="rId34" name="Ag">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ5" r:id="rId35">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>133350</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7342" r:id="rId34" name="Ag"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7339" r:id="rId36" name="Ind">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ4" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7339" r:id="rId36" name="Ind"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7338" r:id="rId38" name="ResMult">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ2" r:id="rId39">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7338" r:id="rId38" name="ResMult"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7337" r:id="rId40" name="Com">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ3" r:id="rId41">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7337" r:id="rId40" name="Com"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7330" r:id="rId42" name="ResUni">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ1" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -13155,482 +13632,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7330" r:id="rId4" name="ResUni"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7337" r:id="rId6" name="Com">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7337" r:id="rId6" name="Com"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7338" r:id="rId8" name="ResMult">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ2" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7338" r:id="rId8" name="ResMult"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7339" r:id="rId10" name="Ind">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ4" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7339" r:id="rId10" name="Ind"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7342" r:id="rId12" name="Ag">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ5" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7342" r:id="rId12" name="Ag"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7343" r:id="rId14" name="Esg">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ6" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7343" r:id="rId14" name="Esg"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7344" r:id="rId16" name="EE">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ7" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7344" r:id="rId16" name="EE"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7345" r:id="rId18" name="Tel">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ8" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7345" r:id="rId18" name="Tel"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7346" r:id="rId20" name="Pav">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ9" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7346" r:id="rId20" name="Pav"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7347" r:id="rId22" name="Plu">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ10" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7347" r:id="rId22" name="Plu"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7348" r:id="rId24" name="Gas">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ11" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7348" r:id="rId24" name="Gas"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7349" r:id="rId26" name="Il">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ12" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7349" r:id="rId26" name="Il"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7350" r:id="rId28" name="Lixo">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ13" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7350" r:id="rId28" name="Lixo"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7351" r:id="rId30" name="Tran">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ14" r:id="rId31">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7351" r:id="rId30" name="Tran"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7352" r:id="rId32" name="Come">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ15" r:id="rId33">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7352" r:id="rId32" name="Come"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7353" r:id="rId34" name="ReBa">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ16" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7353" r:id="rId34" name="ReBa"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7354" r:id="rId36" name="Esco">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ17" r:id="rId37">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>34</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7354" r:id="rId36" name="Esco"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7355" r:id="rId38" name="Saud">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ18" r:id="rId39">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>34</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7355" r:id="rId38" name="Saud"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7356" r:id="rId40" name="Segu">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ19" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>34</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7356" r:id="rId40" name="Segu"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7357" r:id="rId42" name="Laze">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="AZ20" r:id="rId43">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>34</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7357" r:id="rId42" name="Laze"/>
+        <control shapeId="7330" r:id="rId42" name="ResUni"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13777,30 +13779,30 @@
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
       <c r="K2" s="141"/>
-      <c r="L2" s="286" t="s">
+      <c r="L2" s="340" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="286"/>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340"/>
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
+      <c r="Q2" s="340"/>
+      <c r="R2" s="340"/>
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340"/>
+      <c r="W2" s="340"/>
+      <c r="X2" s="340"/>
+      <c r="Y2" s="340"/>
+      <c r="Z2" s="340"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
       <c r="AH2" s="141"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="141"/>
@@ -13951,31 +13953,31 @@
       <c r="I6" s="157"/>
       <c r="J6" s="157"/>
       <c r="K6" s="157"/>
-      <c r="L6" s="387"/>
-      <c r="M6" s="388"/>
-      <c r="N6" s="388"/>
-      <c r="O6" s="388"/>
-      <c r="P6" s="388"/>
-      <c r="Q6" s="388"/>
-      <c r="R6" s="388"/>
-      <c r="S6" s="388"/>
-      <c r="T6" s="388"/>
-      <c r="U6" s="388"/>
-      <c r="V6" s="389"/>
-      <c r="W6" s="387"/>
-      <c r="X6" s="388"/>
-      <c r="Y6" s="388"/>
-      <c r="Z6" s="388"/>
-      <c r="AA6" s="388"/>
-      <c r="AB6" s="388"/>
-      <c r="AC6" s="388"/>
-      <c r="AD6" s="388"/>
-      <c r="AE6" s="388"/>
-      <c r="AF6" s="389"/>
-      <c r="AG6" s="390" t="s">
+      <c r="L6" s="360"/>
+      <c r="M6" s="361"/>
+      <c r="N6" s="361"/>
+      <c r="O6" s="361"/>
+      <c r="P6" s="361"/>
+      <c r="Q6" s="361"/>
+      <c r="R6" s="361"/>
+      <c r="S6" s="361"/>
+      <c r="T6" s="361"/>
+      <c r="U6" s="361"/>
+      <c r="V6" s="362"/>
+      <c r="W6" s="360"/>
+      <c r="X6" s="361"/>
+      <c r="Y6" s="361"/>
+      <c r="Z6" s="361"/>
+      <c r="AA6" s="361"/>
+      <c r="AB6" s="361"/>
+      <c r="AC6" s="361"/>
+      <c r="AD6" s="361"/>
+      <c r="AE6" s="361"/>
+      <c r="AF6" s="362"/>
+      <c r="AG6" s="363" t="s">
         <v>126</v>
       </c>
-      <c r="AH6" s="391"/>
+      <c r="AH6" s="364"/>
       <c r="AI6" s="248"/>
       <c r="AJ6" s="157"/>
       <c r="AK6" s="158"/>
@@ -14226,38 +14228,38 @@
     <row r="12" spans="1:78" ht="30" customHeight="1">
       <c r="A12" s="169"/>
       <c r="B12" s="191"/>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-      <c r="G12" s="325"/>
-      <c r="H12" s="325"/>
-      <c r="I12" s="325"/>
-      <c r="J12" s="325"/>
-      <c r="K12" s="325"/>
-      <c r="L12" s="325"/>
-      <c r="M12" s="325"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="325"/>
-      <c r="P12" s="325"/>
-      <c r="Q12" s="325"/>
-      <c r="R12" s="325"/>
-      <c r="S12" s="325"/>
-      <c r="T12" s="325"/>
-      <c r="U12" s="325"/>
-      <c r="V12" s="325"/>
-      <c r="W12" s="325"/>
-      <c r="X12" s="325"/>
-      <c r="Y12" s="325"/>
-      <c r="Z12" s="325"/>
-      <c r="AA12" s="325"/>
-      <c r="AB12" s="325"/>
-      <c r="AC12" s="325"/>
-      <c r="AD12" s="325"/>
-      <c r="AE12" s="325"/>
-      <c r="AF12" s="325"/>
-      <c r="AG12" s="325"/>
-      <c r="AH12" s="326"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="311"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="311"/>
+      <c r="J12" s="311"/>
+      <c r="K12" s="311"/>
+      <c r="L12" s="311"/>
+      <c r="M12" s="311"/>
+      <c r="N12" s="311"/>
+      <c r="O12" s="311"/>
+      <c r="P12" s="311"/>
+      <c r="Q12" s="311"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="311"/>
+      <c r="T12" s="311"/>
+      <c r="U12" s="311"/>
+      <c r="V12" s="311"/>
+      <c r="W12" s="311"/>
+      <c r="X12" s="311"/>
+      <c r="Y12" s="311"/>
+      <c r="Z12" s="311"/>
+      <c r="AA12" s="311"/>
+      <c r="AB12" s="311"/>
+      <c r="AC12" s="311"/>
+      <c r="AD12" s="311"/>
+      <c r="AE12" s="311"/>
+      <c r="AF12" s="311"/>
+      <c r="AG12" s="311"/>
+      <c r="AH12" s="312"/>
       <c r="AI12" s="179"/>
       <c r="AJ12" s="169"/>
       <c r="AK12" s="172"/>
@@ -14478,38 +14480,38 @@
     <row r="17" spans="1:46" ht="30" customHeight="1">
       <c r="A17" s="169"/>
       <c r="B17" s="191"/>
-      <c r="C17" s="325"/>
-      <c r="D17" s="325"/>
-      <c r="E17" s="325"/>
-      <c r="F17" s="325"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="325"/>
-      <c r="L17" s="325"/>
-      <c r="M17" s="325"/>
-      <c r="N17" s="325"/>
-      <c r="O17" s="325"/>
-      <c r="P17" s="325"/>
-      <c r="Q17" s="325"/>
-      <c r="R17" s="325"/>
-      <c r="S17" s="325"/>
-      <c r="T17" s="325"/>
-      <c r="U17" s="325"/>
-      <c r="V17" s="325"/>
-      <c r="W17" s="325"/>
-      <c r="X17" s="325"/>
-      <c r="Y17" s="325"/>
-      <c r="Z17" s="325"/>
-      <c r="AA17" s="325"/>
-      <c r="AB17" s="325"/>
-      <c r="AC17" s="325"/>
-      <c r="AD17" s="325"/>
-      <c r="AE17" s="325"/>
-      <c r="AF17" s="325"/>
-      <c r="AG17" s="325"/>
-      <c r="AH17" s="326"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="311"/>
+      <c r="K17" s="311"/>
+      <c r="L17" s="311"/>
+      <c r="M17" s="311"/>
+      <c r="N17" s="311"/>
+      <c r="O17" s="311"/>
+      <c r="P17" s="311"/>
+      <c r="Q17" s="311"/>
+      <c r="R17" s="311"/>
+      <c r="S17" s="311"/>
+      <c r="T17" s="311"/>
+      <c r="U17" s="311"/>
+      <c r="V17" s="311"/>
+      <c r="W17" s="311"/>
+      <c r="X17" s="311"/>
+      <c r="Y17" s="311"/>
+      <c r="Z17" s="311"/>
+      <c r="AA17" s="311"/>
+      <c r="AB17" s="311"/>
+      <c r="AC17" s="311"/>
+      <c r="AD17" s="311"/>
+      <c r="AE17" s="311"/>
+      <c r="AF17" s="311"/>
+      <c r="AG17" s="311"/>
+      <c r="AH17" s="312"/>
       <c r="AI17" s="179"/>
       <c r="AJ17" s="169"/>
       <c r="AK17" s="188"/>
@@ -14726,38 +14728,38 @@
     <row r="22" spans="1:46" ht="30" customHeight="1">
       <c r="A22" s="169"/>
       <c r="B22" s="191"/>
-      <c r="C22" s="325"/>
-      <c r="D22" s="325"/>
-      <c r="E22" s="325"/>
-      <c r="F22" s="325"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
-      <c r="N22" s="325"/>
-      <c r="O22" s="325"/>
-      <c r="P22" s="325"/>
-      <c r="Q22" s="325"/>
-      <c r="R22" s="325"/>
-      <c r="S22" s="325"/>
-      <c r="T22" s="325"/>
-      <c r="U22" s="325"/>
-      <c r="V22" s="325"/>
-      <c r="W22" s="325"/>
-      <c r="X22" s="325"/>
-      <c r="Y22" s="325"/>
-      <c r="Z22" s="325"/>
-      <c r="AA22" s="325"/>
-      <c r="AB22" s="325"/>
-      <c r="AC22" s="325"/>
-      <c r="AD22" s="325"/>
-      <c r="AE22" s="325"/>
-      <c r="AF22" s="325"/>
-      <c r="AG22" s="325"/>
-      <c r="AH22" s="326"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="311"/>
+      <c r="G22" s="311"/>
+      <c r="H22" s="311"/>
+      <c r="I22" s="311"/>
+      <c r="J22" s="311"/>
+      <c r="K22" s="311"/>
+      <c r="L22" s="311"/>
+      <c r="M22" s="311"/>
+      <c r="N22" s="311"/>
+      <c r="O22" s="311"/>
+      <c r="P22" s="311"/>
+      <c r="Q22" s="311"/>
+      <c r="R22" s="311"/>
+      <c r="S22" s="311"/>
+      <c r="T22" s="311"/>
+      <c r="U22" s="311"/>
+      <c r="V22" s="311"/>
+      <c r="W22" s="311"/>
+      <c r="X22" s="311"/>
+      <c r="Y22" s="311"/>
+      <c r="Z22" s="311"/>
+      <c r="AA22" s="311"/>
+      <c r="AB22" s="311"/>
+      <c r="AC22" s="311"/>
+      <c r="AD22" s="311"/>
+      <c r="AE22" s="311"/>
+      <c r="AF22" s="311"/>
+      <c r="AG22" s="311"/>
+      <c r="AH22" s="312"/>
       <c r="AI22" s="179"/>
       <c r="AJ22" s="169"/>
       <c r="AK22" s="188"/>
@@ -15024,38 +15026,38 @@
     <row r="28" spans="1:46" ht="30" customHeight="1">
       <c r="A28" s="169"/>
       <c r="B28" s="191"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="375"/>
-      <c r="E28" s="375"/>
-      <c r="F28" s="375"/>
-      <c r="G28" s="375"/>
-      <c r="H28" s="375"/>
-      <c r="I28" s="375"/>
-      <c r="J28" s="375"/>
-      <c r="K28" s="375"/>
-      <c r="L28" s="375"/>
-      <c r="M28" s="375"/>
-      <c r="N28" s="375"/>
-      <c r="O28" s="375"/>
-      <c r="P28" s="375"/>
-      <c r="Q28" s="375"/>
-      <c r="R28" s="375"/>
-      <c r="S28" s="375"/>
-      <c r="T28" s="375"/>
-      <c r="U28" s="375"/>
-      <c r="V28" s="375"/>
-      <c r="W28" s="375"/>
-      <c r="X28" s="375"/>
-      <c r="Y28" s="375"/>
-      <c r="Z28" s="375"/>
-      <c r="AA28" s="375"/>
-      <c r="AB28" s="375"/>
-      <c r="AC28" s="375"/>
-      <c r="AD28" s="375"/>
-      <c r="AE28" s="375"/>
-      <c r="AF28" s="375"/>
-      <c r="AG28" s="375"/>
-      <c r="AH28" s="376"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="365"/>
+      <c r="F28" s="365"/>
+      <c r="G28" s="365"/>
+      <c r="H28" s="365"/>
+      <c r="I28" s="365"/>
+      <c r="J28" s="365"/>
+      <c r="K28" s="365"/>
+      <c r="L28" s="365"/>
+      <c r="M28" s="365"/>
+      <c r="N28" s="365"/>
+      <c r="O28" s="365"/>
+      <c r="P28" s="365"/>
+      <c r="Q28" s="365"/>
+      <c r="R28" s="365"/>
+      <c r="S28" s="365"/>
+      <c r="T28" s="365"/>
+      <c r="U28" s="365"/>
+      <c r="V28" s="365"/>
+      <c r="W28" s="365"/>
+      <c r="X28" s="365"/>
+      <c r="Y28" s="365"/>
+      <c r="Z28" s="365"/>
+      <c r="AA28" s="365"/>
+      <c r="AB28" s="365"/>
+      <c r="AC28" s="365"/>
+      <c r="AD28" s="365"/>
+      <c r="AE28" s="365"/>
+      <c r="AF28" s="365"/>
+      <c r="AG28" s="365"/>
+      <c r="AH28" s="366"/>
       <c r="AI28" s="179"/>
       <c r="AJ28" s="169"/>
       <c r="AK28" s="188"/>
@@ -15479,39 +15481,39 @@
     </row>
     <row r="37" spans="1:56" s="159" customFormat="1" ht="10.15" customHeight="1">
       <c r="A37" s="169"/>
-      <c r="B37" s="377"/>
-      <c r="C37" s="378"/>
-      <c r="D37" s="378"/>
-      <c r="E37" s="378"/>
-      <c r="F37" s="378"/>
-      <c r="G37" s="378"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="392"/>
-      <c r="J37" s="392"/>
-      <c r="K37" s="392"/>
-      <c r="L37" s="392"/>
-      <c r="M37" s="392"/>
-      <c r="N37" s="392"/>
-      <c r="O37" s="392"/>
-      <c r="P37" s="392"/>
-      <c r="Q37" s="392"/>
-      <c r="R37" s="392"/>
-      <c r="S37" s="393"/>
-      <c r="T37" s="380"/>
-      <c r="U37" s="381"/>
-      <c r="V37" s="381"/>
-      <c r="W37" s="381"/>
-      <c r="X37" s="381"/>
-      <c r="Y37" s="381"/>
-      <c r="Z37" s="381"/>
-      <c r="AA37" s="381"/>
-      <c r="AB37" s="381"/>
-      <c r="AC37" s="381"/>
-      <c r="AD37" s="381"/>
-      <c r="AE37" s="381"/>
-      <c r="AF37" s="381"/>
-      <c r="AG37" s="381"/>
-      <c r="AH37" s="382"/>
+      <c r="B37" s="367"/>
+      <c r="C37" s="368"/>
+      <c r="D37" s="368"/>
+      <c r="E37" s="368"/>
+      <c r="F37" s="368"/>
+      <c r="G37" s="368"/>
+      <c r="H37" s="369"/>
+      <c r="I37" s="357"/>
+      <c r="J37" s="357"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="357"/>
+      <c r="M37" s="357"/>
+      <c r="N37" s="357"/>
+      <c r="O37" s="357"/>
+      <c r="P37" s="357"/>
+      <c r="Q37" s="357"/>
+      <c r="R37" s="357"/>
+      <c r="S37" s="358"/>
+      <c r="T37" s="370"/>
+      <c r="U37" s="371"/>
+      <c r="V37" s="371"/>
+      <c r="W37" s="371"/>
+      <c r="X37" s="371"/>
+      <c r="Y37" s="371"/>
+      <c r="Z37" s="371"/>
+      <c r="AA37" s="371"/>
+      <c r="AB37" s="371"/>
+      <c r="AC37" s="371"/>
+      <c r="AD37" s="371"/>
+      <c r="AE37" s="371"/>
+      <c r="AF37" s="371"/>
+      <c r="AG37" s="371"/>
+      <c r="AH37" s="372"/>
       <c r="AI37" s="249"/>
       <c r="AJ37" s="169"/>
       <c r="AK37" s="188"/>
@@ -15628,41 +15630,41 @@
     </row>
     <row r="40" spans="1:56" ht="12.75" customHeight="1">
       <c r="A40" s="169"/>
-      <c r="B40" s="387" t="s">
+      <c r="B40" s="360" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="388"/>
-      <c r="D40" s="388"/>
-      <c r="E40" s="388"/>
-      <c r="F40" s="388"/>
-      <c r="G40" s="388"/>
-      <c r="H40" s="388"/>
-      <c r="I40" s="388"/>
-      <c r="J40" s="388"/>
-      <c r="K40" s="388"/>
-      <c r="L40" s="388"/>
-      <c r="M40" s="388"/>
-      <c r="N40" s="388"/>
-      <c r="O40" s="388"/>
-      <c r="P40" s="388"/>
-      <c r="Q40" s="388"/>
-      <c r="R40" s="388"/>
-      <c r="S40" s="388"/>
-      <c r="T40" s="388"/>
-      <c r="U40" s="388"/>
-      <c r="V40" s="388"/>
-      <c r="W40" s="388"/>
-      <c r="X40" s="388"/>
-      <c r="Y40" s="388"/>
-      <c r="Z40" s="388"/>
-      <c r="AA40" s="388"/>
-      <c r="AB40" s="388"/>
-      <c r="AC40" s="388"/>
-      <c r="AD40" s="388"/>
-      <c r="AE40" s="388"/>
-      <c r="AF40" s="388"/>
-      <c r="AG40" s="388"/>
-      <c r="AH40" s="389"/>
+      <c r="C40" s="361"/>
+      <c r="D40" s="361"/>
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
+      <c r="G40" s="361"/>
+      <c r="H40" s="361"/>
+      <c r="I40" s="361"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="361"/>
+      <c r="L40" s="361"/>
+      <c r="M40" s="361"/>
+      <c r="N40" s="361"/>
+      <c r="O40" s="361"/>
+      <c r="P40" s="361"/>
+      <c r="Q40" s="361"/>
+      <c r="R40" s="361"/>
+      <c r="S40" s="361"/>
+      <c r="T40" s="361"/>
+      <c r="U40" s="361"/>
+      <c r="V40" s="361"/>
+      <c r="W40" s="361"/>
+      <c r="X40" s="361"/>
+      <c r="Y40" s="361"/>
+      <c r="Z40" s="361"/>
+      <c r="AA40" s="361"/>
+      <c r="AB40" s="361"/>
+      <c r="AC40" s="361"/>
+      <c r="AD40" s="361"/>
+      <c r="AE40" s="361"/>
+      <c r="AF40" s="361"/>
+      <c r="AG40" s="361"/>
+      <c r="AH40" s="362"/>
       <c r="AI40" s="250"/>
       <c r="AJ40" s="169"/>
       <c r="AK40" s="172"/>
@@ -15883,38 +15885,38 @@
     <row r="45" spans="1:56" s="213" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="209"/>
       <c r="B45" s="251"/>
-      <c r="C45" s="383"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="383"/>
-      <c r="G45" s="383"/>
-      <c r="H45" s="383"/>
-      <c r="I45" s="383"/>
-      <c r="J45" s="383"/>
-      <c r="K45" s="383"/>
-      <c r="L45" s="383"/>
-      <c r="M45" s="383"/>
-      <c r="N45" s="383"/>
-      <c r="O45" s="383"/>
-      <c r="P45" s="383"/>
-      <c r="Q45" s="383"/>
-      <c r="R45" s="383"/>
-      <c r="S45" s="383"/>
-      <c r="T45" s="383"/>
-      <c r="U45" s="383"/>
-      <c r="V45" s="383"/>
-      <c r="W45" s="383"/>
-      <c r="X45" s="383"/>
-      <c r="Y45" s="383"/>
-      <c r="Z45" s="383"/>
-      <c r="AA45" s="383"/>
-      <c r="AB45" s="383"/>
-      <c r="AC45" s="383"/>
-      <c r="AD45" s="383"/>
-      <c r="AE45" s="383"/>
-      <c r="AF45" s="383"/>
-      <c r="AG45" s="383"/>
-      <c r="AH45" s="384"/>
+      <c r="C45" s="373"/>
+      <c r="D45" s="373"/>
+      <c r="E45" s="373"/>
+      <c r="F45" s="373"/>
+      <c r="G45" s="373"/>
+      <c r="H45" s="373"/>
+      <c r="I45" s="373"/>
+      <c r="J45" s="373"/>
+      <c r="K45" s="373"/>
+      <c r="L45" s="373"/>
+      <c r="M45" s="373"/>
+      <c r="N45" s="373"/>
+      <c r="O45" s="373"/>
+      <c r="P45" s="373"/>
+      <c r="Q45" s="373"/>
+      <c r="R45" s="373"/>
+      <c r="S45" s="373"/>
+      <c r="T45" s="373"/>
+      <c r="U45" s="373"/>
+      <c r="V45" s="373"/>
+      <c r="W45" s="373"/>
+      <c r="X45" s="373"/>
+      <c r="Y45" s="373"/>
+      <c r="Z45" s="373"/>
+      <c r="AA45" s="373"/>
+      <c r="AB45" s="373"/>
+      <c r="AC45" s="373"/>
+      <c r="AD45" s="373"/>
+      <c r="AE45" s="373"/>
+      <c r="AF45" s="373"/>
+      <c r="AG45" s="373"/>
+      <c r="AH45" s="374"/>
       <c r="AI45" s="252"/>
       <c r="AJ45" s="209"/>
       <c r="AK45" s="210"/>
@@ -16108,38 +16110,38 @@
     <row r="49" spans="1:56" ht="12" customHeight="1">
       <c r="A49" s="169"/>
       <c r="B49" s="251"/>
-      <c r="C49" s="385"/>
-      <c r="D49" s="386"/>
-      <c r="E49" s="386"/>
-      <c r="F49" s="386"/>
-      <c r="G49" s="386"/>
-      <c r="H49" s="386"/>
-      <c r="I49" s="386"/>
-      <c r="J49" s="386"/>
-      <c r="K49" s="386"/>
-      <c r="L49" s="386"/>
-      <c r="M49" s="386"/>
-      <c r="N49" s="386"/>
-      <c r="O49" s="386"/>
-      <c r="P49" s="386"/>
-      <c r="Q49" s="386"/>
-      <c r="R49" s="386"/>
-      <c r="S49" s="386"/>
-      <c r="T49" s="386"/>
-      <c r="U49" s="386"/>
-      <c r="V49" s="386"/>
-      <c r="W49" s="386"/>
-      <c r="X49" s="386"/>
-      <c r="Y49" s="386"/>
-      <c r="Z49" s="386"/>
-      <c r="AA49" s="386"/>
-      <c r="AB49" s="386"/>
-      <c r="AC49" s="386"/>
-      <c r="AD49" s="386"/>
-      <c r="AE49" s="386"/>
-      <c r="AF49" s="386"/>
-      <c r="AG49" s="386"/>
-      <c r="AH49" s="359"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="376"/>
+      <c r="E49" s="376"/>
+      <c r="F49" s="376"/>
+      <c r="G49" s="376"/>
+      <c r="H49" s="376"/>
+      <c r="I49" s="376"/>
+      <c r="J49" s="376"/>
+      <c r="K49" s="376"/>
+      <c r="L49" s="376"/>
+      <c r="M49" s="376"/>
+      <c r="N49" s="376"/>
+      <c r="O49" s="376"/>
+      <c r="P49" s="376"/>
+      <c r="Q49" s="376"/>
+      <c r="R49" s="376"/>
+      <c r="S49" s="376"/>
+      <c r="T49" s="376"/>
+      <c r="U49" s="376"/>
+      <c r="V49" s="376"/>
+      <c r="W49" s="376"/>
+      <c r="X49" s="376"/>
+      <c r="Y49" s="376"/>
+      <c r="Z49" s="376"/>
+      <c r="AA49" s="376"/>
+      <c r="AB49" s="376"/>
+      <c r="AC49" s="376"/>
+      <c r="AD49" s="376"/>
+      <c r="AE49" s="376"/>
+      <c r="AF49" s="376"/>
+      <c r="AG49" s="376"/>
+      <c r="AH49" s="377"/>
       <c r="AI49" s="253"/>
       <c r="AJ49" s="169"/>
       <c r="AK49" s="185"/>
@@ -16166,38 +16168,38 @@
     <row r="50" spans="1:56" ht="12" customHeight="1">
       <c r="A50" s="169"/>
       <c r="B50" s="270"/>
-      <c r="C50" s="386"/>
-      <c r="D50" s="386"/>
-      <c r="E50" s="386"/>
-      <c r="F50" s="386"/>
-      <c r="G50" s="386"/>
-      <c r="H50" s="386"/>
-      <c r="I50" s="386"/>
-      <c r="J50" s="386"/>
-      <c r="K50" s="386"/>
-      <c r="L50" s="386"/>
-      <c r="M50" s="386"/>
-      <c r="N50" s="386"/>
-      <c r="O50" s="386"/>
-      <c r="P50" s="386"/>
-      <c r="Q50" s="386"/>
-      <c r="R50" s="386"/>
-      <c r="S50" s="386"/>
-      <c r="T50" s="386"/>
-      <c r="U50" s="386"/>
-      <c r="V50" s="386"/>
-      <c r="W50" s="386"/>
-      <c r="X50" s="386"/>
-      <c r="Y50" s="386"/>
-      <c r="Z50" s="386"/>
-      <c r="AA50" s="386"/>
-      <c r="AB50" s="386"/>
-      <c r="AC50" s="386"/>
-      <c r="AD50" s="386"/>
-      <c r="AE50" s="386"/>
-      <c r="AF50" s="386"/>
-      <c r="AG50" s="386"/>
-      <c r="AH50" s="359"/>
+      <c r="C50" s="376"/>
+      <c r="D50" s="376"/>
+      <c r="E50" s="376"/>
+      <c r="F50" s="376"/>
+      <c r="G50" s="376"/>
+      <c r="H50" s="376"/>
+      <c r="I50" s="376"/>
+      <c r="J50" s="376"/>
+      <c r="K50" s="376"/>
+      <c r="L50" s="376"/>
+      <c r="M50" s="376"/>
+      <c r="N50" s="376"/>
+      <c r="O50" s="376"/>
+      <c r="P50" s="376"/>
+      <c r="Q50" s="376"/>
+      <c r="R50" s="376"/>
+      <c r="S50" s="376"/>
+      <c r="T50" s="376"/>
+      <c r="U50" s="376"/>
+      <c r="V50" s="376"/>
+      <c r="W50" s="376"/>
+      <c r="X50" s="376"/>
+      <c r="Y50" s="376"/>
+      <c r="Z50" s="376"/>
+      <c r="AA50" s="376"/>
+      <c r="AB50" s="376"/>
+      <c r="AC50" s="376"/>
+      <c r="AD50" s="376"/>
+      <c r="AE50" s="376"/>
+      <c r="AF50" s="376"/>
+      <c r="AG50" s="376"/>
+      <c r="AH50" s="377"/>
       <c r="AI50" s="253"/>
       <c r="AJ50" s="169"/>
       <c r="AK50" s="185"/>
@@ -16224,38 +16226,38 @@
     <row r="51" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="169"/>
       <c r="B51" s="270"/>
-      <c r="C51" s="386"/>
-      <c r="D51" s="386"/>
-      <c r="E51" s="386"/>
-      <c r="F51" s="386"/>
-      <c r="G51" s="386"/>
-      <c r="H51" s="386"/>
-      <c r="I51" s="386"/>
-      <c r="J51" s="386"/>
-      <c r="K51" s="386"/>
-      <c r="L51" s="386"/>
-      <c r="M51" s="386"/>
-      <c r="N51" s="386"/>
-      <c r="O51" s="386"/>
-      <c r="P51" s="386"/>
-      <c r="Q51" s="386"/>
-      <c r="R51" s="386"/>
-      <c r="S51" s="386"/>
-      <c r="T51" s="386"/>
-      <c r="U51" s="386"/>
-      <c r="V51" s="386"/>
-      <c r="W51" s="386"/>
-      <c r="X51" s="386"/>
-      <c r="Y51" s="386"/>
-      <c r="Z51" s="386"/>
-      <c r="AA51" s="386"/>
-      <c r="AB51" s="386"/>
-      <c r="AC51" s="386"/>
-      <c r="AD51" s="386"/>
-      <c r="AE51" s="386"/>
-      <c r="AF51" s="386"/>
-      <c r="AG51" s="386"/>
-      <c r="AH51" s="359"/>
+      <c r="C51" s="376"/>
+      <c r="D51" s="376"/>
+      <c r="E51" s="376"/>
+      <c r="F51" s="376"/>
+      <c r="G51" s="376"/>
+      <c r="H51" s="376"/>
+      <c r="I51" s="376"/>
+      <c r="J51" s="376"/>
+      <c r="K51" s="376"/>
+      <c r="L51" s="376"/>
+      <c r="M51" s="376"/>
+      <c r="N51" s="376"/>
+      <c r="O51" s="376"/>
+      <c r="P51" s="376"/>
+      <c r="Q51" s="376"/>
+      <c r="R51" s="376"/>
+      <c r="S51" s="376"/>
+      <c r="T51" s="376"/>
+      <c r="U51" s="376"/>
+      <c r="V51" s="376"/>
+      <c r="W51" s="376"/>
+      <c r="X51" s="376"/>
+      <c r="Y51" s="376"/>
+      <c r="Z51" s="376"/>
+      <c r="AA51" s="376"/>
+      <c r="AB51" s="376"/>
+      <c r="AC51" s="376"/>
+      <c r="AD51" s="376"/>
+      <c r="AE51" s="376"/>
+      <c r="AF51" s="376"/>
+      <c r="AG51" s="376"/>
+      <c r="AH51" s="377"/>
       <c r="AI51" s="253"/>
       <c r="AJ51" s="169"/>
       <c r="AK51" s="225"/>
@@ -16282,38 +16284,38 @@
     <row r="52" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="169"/>
       <c r="B52" s="270"/>
-      <c r="C52" s="386"/>
-      <c r="D52" s="386"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="386"/>
-      <c r="G52" s="386"/>
-      <c r="H52" s="386"/>
-      <c r="I52" s="386"/>
-      <c r="J52" s="386"/>
-      <c r="K52" s="386"/>
-      <c r="L52" s="386"/>
-      <c r="M52" s="386"/>
-      <c r="N52" s="386"/>
-      <c r="O52" s="386"/>
-      <c r="P52" s="386"/>
-      <c r="Q52" s="386"/>
-      <c r="R52" s="386"/>
-      <c r="S52" s="386"/>
-      <c r="T52" s="386"/>
-      <c r="U52" s="386"/>
-      <c r="V52" s="386"/>
-      <c r="W52" s="386"/>
-      <c r="X52" s="386"/>
-      <c r="Y52" s="386"/>
-      <c r="Z52" s="386"/>
-      <c r="AA52" s="386"/>
-      <c r="AB52" s="386"/>
-      <c r="AC52" s="386"/>
-      <c r="AD52" s="386"/>
-      <c r="AE52" s="386"/>
-      <c r="AF52" s="386"/>
-      <c r="AG52" s="386"/>
-      <c r="AH52" s="359"/>
+      <c r="C52" s="376"/>
+      <c r="D52" s="376"/>
+      <c r="E52" s="376"/>
+      <c r="F52" s="376"/>
+      <c r="G52" s="376"/>
+      <c r="H52" s="376"/>
+      <c r="I52" s="376"/>
+      <c r="J52" s="376"/>
+      <c r="K52" s="376"/>
+      <c r="L52" s="376"/>
+      <c r="M52" s="376"/>
+      <c r="N52" s="376"/>
+      <c r="O52" s="376"/>
+      <c r="P52" s="376"/>
+      <c r="Q52" s="376"/>
+      <c r="R52" s="376"/>
+      <c r="S52" s="376"/>
+      <c r="T52" s="376"/>
+      <c r="U52" s="376"/>
+      <c r="V52" s="376"/>
+      <c r="W52" s="376"/>
+      <c r="X52" s="376"/>
+      <c r="Y52" s="376"/>
+      <c r="Z52" s="376"/>
+      <c r="AA52" s="376"/>
+      <c r="AB52" s="376"/>
+      <c r="AC52" s="376"/>
+      <c r="AD52" s="376"/>
+      <c r="AE52" s="376"/>
+      <c r="AF52" s="376"/>
+      <c r="AG52" s="376"/>
+      <c r="AH52" s="377"/>
       <c r="AI52" s="253"/>
       <c r="AJ52" s="169"/>
       <c r="AK52" s="225"/>
@@ -16340,38 +16342,38 @@
     <row r="53" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="169"/>
       <c r="B53" s="270"/>
-      <c r="C53" s="386"/>
-      <c r="D53" s="386"/>
-      <c r="E53" s="386"/>
-      <c r="F53" s="386"/>
-      <c r="G53" s="386"/>
-      <c r="H53" s="386"/>
-      <c r="I53" s="386"/>
-      <c r="J53" s="386"/>
-      <c r="K53" s="386"/>
-      <c r="L53" s="386"/>
-      <c r="M53" s="386"/>
-      <c r="N53" s="386"/>
-      <c r="O53" s="386"/>
-      <c r="P53" s="386"/>
-      <c r="Q53" s="386"/>
-      <c r="R53" s="386"/>
-      <c r="S53" s="386"/>
-      <c r="T53" s="386"/>
-      <c r="U53" s="386"/>
-      <c r="V53" s="386"/>
-      <c r="W53" s="386"/>
-      <c r="X53" s="386"/>
-      <c r="Y53" s="386"/>
-      <c r="Z53" s="386"/>
-      <c r="AA53" s="386"/>
-      <c r="AB53" s="386"/>
-      <c r="AC53" s="386"/>
-      <c r="AD53" s="386"/>
-      <c r="AE53" s="386"/>
-      <c r="AF53" s="386"/>
-      <c r="AG53" s="386"/>
-      <c r="AH53" s="359"/>
+      <c r="C53" s="376"/>
+      <c r="D53" s="376"/>
+      <c r="E53" s="376"/>
+      <c r="F53" s="376"/>
+      <c r="G53" s="376"/>
+      <c r="H53" s="376"/>
+      <c r="I53" s="376"/>
+      <c r="J53" s="376"/>
+      <c r="K53" s="376"/>
+      <c r="L53" s="376"/>
+      <c r="M53" s="376"/>
+      <c r="N53" s="376"/>
+      <c r="O53" s="376"/>
+      <c r="P53" s="376"/>
+      <c r="Q53" s="376"/>
+      <c r="R53" s="376"/>
+      <c r="S53" s="376"/>
+      <c r="T53" s="376"/>
+      <c r="U53" s="376"/>
+      <c r="V53" s="376"/>
+      <c r="W53" s="376"/>
+      <c r="X53" s="376"/>
+      <c r="Y53" s="376"/>
+      <c r="Z53" s="376"/>
+      <c r="AA53" s="376"/>
+      <c r="AB53" s="376"/>
+      <c r="AC53" s="376"/>
+      <c r="AD53" s="376"/>
+      <c r="AE53" s="376"/>
+      <c r="AF53" s="376"/>
+      <c r="AG53" s="376"/>
+      <c r="AH53" s="377"/>
       <c r="AI53" s="253"/>
       <c r="AJ53" s="169"/>
       <c r="AK53" s="225"/>
@@ -16398,38 +16400,38 @@
     <row r="54" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="169"/>
       <c r="B54" s="270"/>
-      <c r="C54" s="386"/>
-      <c r="D54" s="386"/>
-      <c r="E54" s="386"/>
-      <c r="F54" s="386"/>
-      <c r="G54" s="386"/>
-      <c r="H54" s="386"/>
-      <c r="I54" s="386"/>
-      <c r="J54" s="386"/>
-      <c r="K54" s="386"/>
-      <c r="L54" s="386"/>
-      <c r="M54" s="386"/>
-      <c r="N54" s="386"/>
-      <c r="O54" s="386"/>
-      <c r="P54" s="386"/>
-      <c r="Q54" s="386"/>
-      <c r="R54" s="386"/>
-      <c r="S54" s="386"/>
-      <c r="T54" s="386"/>
-      <c r="U54" s="386"/>
-      <c r="V54" s="386"/>
-      <c r="W54" s="386"/>
-      <c r="X54" s="386"/>
-      <c r="Y54" s="386"/>
-      <c r="Z54" s="386"/>
-      <c r="AA54" s="386"/>
-      <c r="AB54" s="386"/>
-      <c r="AC54" s="386"/>
-      <c r="AD54" s="386"/>
-      <c r="AE54" s="386"/>
-      <c r="AF54" s="386"/>
-      <c r="AG54" s="386"/>
-      <c r="AH54" s="359"/>
+      <c r="C54" s="376"/>
+      <c r="D54" s="376"/>
+      <c r="E54" s="376"/>
+      <c r="F54" s="376"/>
+      <c r="G54" s="376"/>
+      <c r="H54" s="376"/>
+      <c r="I54" s="376"/>
+      <c r="J54" s="376"/>
+      <c r="K54" s="376"/>
+      <c r="L54" s="376"/>
+      <c r="M54" s="376"/>
+      <c r="N54" s="376"/>
+      <c r="O54" s="376"/>
+      <c r="P54" s="376"/>
+      <c r="Q54" s="376"/>
+      <c r="R54" s="376"/>
+      <c r="S54" s="376"/>
+      <c r="T54" s="376"/>
+      <c r="U54" s="376"/>
+      <c r="V54" s="376"/>
+      <c r="W54" s="376"/>
+      <c r="X54" s="376"/>
+      <c r="Y54" s="376"/>
+      <c r="Z54" s="376"/>
+      <c r="AA54" s="376"/>
+      <c r="AB54" s="376"/>
+      <c r="AC54" s="376"/>
+      <c r="AD54" s="376"/>
+      <c r="AE54" s="376"/>
+      <c r="AF54" s="376"/>
+      <c r="AG54" s="376"/>
+      <c r="AH54" s="377"/>
       <c r="AI54" s="253"/>
       <c r="AJ54" s="169"/>
       <c r="AK54" s="225"/>
@@ -16456,38 +16458,38 @@
     <row r="55" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="169"/>
       <c r="B55" s="270"/>
-      <c r="C55" s="386"/>
-      <c r="D55" s="386"/>
-      <c r="E55" s="386"/>
-      <c r="F55" s="386"/>
-      <c r="G55" s="386"/>
-      <c r="H55" s="386"/>
-      <c r="I55" s="386"/>
-      <c r="J55" s="386"/>
-      <c r="K55" s="386"/>
-      <c r="L55" s="386"/>
-      <c r="M55" s="386"/>
-      <c r="N55" s="386"/>
-      <c r="O55" s="386"/>
-      <c r="P55" s="386"/>
-      <c r="Q55" s="386"/>
-      <c r="R55" s="386"/>
-      <c r="S55" s="386"/>
-      <c r="T55" s="386"/>
-      <c r="U55" s="386"/>
-      <c r="V55" s="386"/>
-      <c r="W55" s="386"/>
-      <c r="X55" s="386"/>
-      <c r="Y55" s="386"/>
-      <c r="Z55" s="386"/>
-      <c r="AA55" s="386"/>
-      <c r="AB55" s="386"/>
-      <c r="AC55" s="386"/>
-      <c r="AD55" s="386"/>
-      <c r="AE55" s="386"/>
-      <c r="AF55" s="386"/>
-      <c r="AG55" s="386"/>
-      <c r="AH55" s="359"/>
+      <c r="C55" s="376"/>
+      <c r="D55" s="376"/>
+      <c r="E55" s="376"/>
+      <c r="F55" s="376"/>
+      <c r="G55" s="376"/>
+      <c r="H55" s="376"/>
+      <c r="I55" s="376"/>
+      <c r="J55" s="376"/>
+      <c r="K55" s="376"/>
+      <c r="L55" s="376"/>
+      <c r="M55" s="376"/>
+      <c r="N55" s="376"/>
+      <c r="O55" s="376"/>
+      <c r="P55" s="376"/>
+      <c r="Q55" s="376"/>
+      <c r="R55" s="376"/>
+      <c r="S55" s="376"/>
+      <c r="T55" s="376"/>
+      <c r="U55" s="376"/>
+      <c r="V55" s="376"/>
+      <c r="W55" s="376"/>
+      <c r="X55" s="376"/>
+      <c r="Y55" s="376"/>
+      <c r="Z55" s="376"/>
+      <c r="AA55" s="376"/>
+      <c r="AB55" s="376"/>
+      <c r="AC55" s="376"/>
+      <c r="AD55" s="376"/>
+      <c r="AE55" s="376"/>
+      <c r="AF55" s="376"/>
+      <c r="AG55" s="376"/>
+      <c r="AH55" s="377"/>
       <c r="AI55" s="253"/>
       <c r="AJ55" s="169"/>
       <c r="AK55" s="225"/>
@@ -16514,38 +16516,38 @@
     <row r="56" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="169"/>
       <c r="B56" s="270"/>
-      <c r="C56" s="386"/>
-      <c r="D56" s="386"/>
-      <c r="E56" s="386"/>
-      <c r="F56" s="386"/>
-      <c r="G56" s="386"/>
-      <c r="H56" s="386"/>
-      <c r="I56" s="386"/>
-      <c r="J56" s="386"/>
-      <c r="K56" s="386"/>
-      <c r="L56" s="386"/>
-      <c r="M56" s="386"/>
-      <c r="N56" s="386"/>
-      <c r="O56" s="386"/>
-      <c r="P56" s="386"/>
-      <c r="Q56" s="386"/>
-      <c r="R56" s="386"/>
-      <c r="S56" s="386"/>
-      <c r="T56" s="386"/>
-      <c r="U56" s="386"/>
-      <c r="V56" s="386"/>
-      <c r="W56" s="386"/>
-      <c r="X56" s="386"/>
-      <c r="Y56" s="386"/>
-      <c r="Z56" s="386"/>
-      <c r="AA56" s="386"/>
-      <c r="AB56" s="386"/>
-      <c r="AC56" s="386"/>
-      <c r="AD56" s="386"/>
-      <c r="AE56" s="386"/>
-      <c r="AF56" s="386"/>
-      <c r="AG56" s="386"/>
-      <c r="AH56" s="359"/>
+      <c r="C56" s="376"/>
+      <c r="D56" s="376"/>
+      <c r="E56" s="376"/>
+      <c r="F56" s="376"/>
+      <c r="G56" s="376"/>
+      <c r="H56" s="376"/>
+      <c r="I56" s="376"/>
+      <c r="J56" s="376"/>
+      <c r="K56" s="376"/>
+      <c r="L56" s="376"/>
+      <c r="M56" s="376"/>
+      <c r="N56" s="376"/>
+      <c r="O56" s="376"/>
+      <c r="P56" s="376"/>
+      <c r="Q56" s="376"/>
+      <c r="R56" s="376"/>
+      <c r="S56" s="376"/>
+      <c r="T56" s="376"/>
+      <c r="U56" s="376"/>
+      <c r="V56" s="376"/>
+      <c r="W56" s="376"/>
+      <c r="X56" s="376"/>
+      <c r="Y56" s="376"/>
+      <c r="Z56" s="376"/>
+      <c r="AA56" s="376"/>
+      <c r="AB56" s="376"/>
+      <c r="AC56" s="376"/>
+      <c r="AD56" s="376"/>
+      <c r="AE56" s="376"/>
+      <c r="AF56" s="376"/>
+      <c r="AG56" s="376"/>
+      <c r="AH56" s="377"/>
       <c r="AI56" s="253"/>
       <c r="AJ56" s="169"/>
       <c r="AK56" s="225"/>
@@ -16572,38 +16574,38 @@
     <row r="57" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="169"/>
       <c r="B57" s="270"/>
-      <c r="C57" s="386"/>
-      <c r="D57" s="386"/>
-      <c r="E57" s="386"/>
-      <c r="F57" s="386"/>
-      <c r="G57" s="386"/>
-      <c r="H57" s="386"/>
-      <c r="I57" s="386"/>
-      <c r="J57" s="386"/>
-      <c r="K57" s="386"/>
-      <c r="L57" s="386"/>
-      <c r="M57" s="386"/>
-      <c r="N57" s="386"/>
-      <c r="O57" s="386"/>
-      <c r="P57" s="386"/>
-      <c r="Q57" s="386"/>
-      <c r="R57" s="386"/>
-      <c r="S57" s="386"/>
-      <c r="T57" s="386"/>
-      <c r="U57" s="386"/>
-      <c r="V57" s="386"/>
-      <c r="W57" s="386"/>
-      <c r="X57" s="386"/>
-      <c r="Y57" s="386"/>
-      <c r="Z57" s="386"/>
-      <c r="AA57" s="386"/>
-      <c r="AB57" s="386"/>
-      <c r="AC57" s="386"/>
-      <c r="AD57" s="386"/>
-      <c r="AE57" s="386"/>
-      <c r="AF57" s="386"/>
-      <c r="AG57" s="386"/>
-      <c r="AH57" s="359"/>
+      <c r="C57" s="376"/>
+      <c r="D57" s="376"/>
+      <c r="E57" s="376"/>
+      <c r="F57" s="376"/>
+      <c r="G57" s="376"/>
+      <c r="H57" s="376"/>
+      <c r="I57" s="376"/>
+      <c r="J57" s="376"/>
+      <c r="K57" s="376"/>
+      <c r="L57" s="376"/>
+      <c r="M57" s="376"/>
+      <c r="N57" s="376"/>
+      <c r="O57" s="376"/>
+      <c r="P57" s="376"/>
+      <c r="Q57" s="376"/>
+      <c r="R57" s="376"/>
+      <c r="S57" s="376"/>
+      <c r="T57" s="376"/>
+      <c r="U57" s="376"/>
+      <c r="V57" s="376"/>
+      <c r="W57" s="376"/>
+      <c r="X57" s="376"/>
+      <c r="Y57" s="376"/>
+      <c r="Z57" s="376"/>
+      <c r="AA57" s="376"/>
+      <c r="AB57" s="376"/>
+      <c r="AC57" s="376"/>
+      <c r="AD57" s="376"/>
+      <c r="AE57" s="376"/>
+      <c r="AF57" s="376"/>
+      <c r="AG57" s="376"/>
+      <c r="AH57" s="377"/>
       <c r="AI57" s="253"/>
       <c r="AJ57" s="169"/>
       <c r="AK57" s="225"/>
@@ -16630,38 +16632,38 @@
     <row r="58" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="169"/>
       <c r="B58" s="270"/>
-      <c r="C58" s="386"/>
-      <c r="D58" s="386"/>
-      <c r="E58" s="386"/>
-      <c r="F58" s="386"/>
-      <c r="G58" s="386"/>
-      <c r="H58" s="386"/>
-      <c r="I58" s="386"/>
-      <c r="J58" s="386"/>
-      <c r="K58" s="386"/>
-      <c r="L58" s="386"/>
-      <c r="M58" s="386"/>
-      <c r="N58" s="386"/>
-      <c r="O58" s="386"/>
-      <c r="P58" s="386"/>
-      <c r="Q58" s="386"/>
-      <c r="R58" s="386"/>
-      <c r="S58" s="386"/>
-      <c r="T58" s="386"/>
-      <c r="U58" s="386"/>
-      <c r="V58" s="386"/>
-      <c r="W58" s="386"/>
-      <c r="X58" s="386"/>
-      <c r="Y58" s="386"/>
-      <c r="Z58" s="386"/>
-      <c r="AA58" s="386"/>
-      <c r="AB58" s="386"/>
-      <c r="AC58" s="386"/>
-      <c r="AD58" s="386"/>
-      <c r="AE58" s="386"/>
-      <c r="AF58" s="386"/>
-      <c r="AG58" s="386"/>
-      <c r="AH58" s="359"/>
+      <c r="C58" s="376"/>
+      <c r="D58" s="376"/>
+      <c r="E58" s="376"/>
+      <c r="F58" s="376"/>
+      <c r="G58" s="376"/>
+      <c r="H58" s="376"/>
+      <c r="I58" s="376"/>
+      <c r="J58" s="376"/>
+      <c r="K58" s="376"/>
+      <c r="L58" s="376"/>
+      <c r="M58" s="376"/>
+      <c r="N58" s="376"/>
+      <c r="O58" s="376"/>
+      <c r="P58" s="376"/>
+      <c r="Q58" s="376"/>
+      <c r="R58" s="376"/>
+      <c r="S58" s="376"/>
+      <c r="T58" s="376"/>
+      <c r="U58" s="376"/>
+      <c r="V58" s="376"/>
+      <c r="W58" s="376"/>
+      <c r="X58" s="376"/>
+      <c r="Y58" s="376"/>
+      <c r="Z58" s="376"/>
+      <c r="AA58" s="376"/>
+      <c r="AB58" s="376"/>
+      <c r="AC58" s="376"/>
+      <c r="AD58" s="376"/>
+      <c r="AE58" s="376"/>
+      <c r="AF58" s="376"/>
+      <c r="AG58" s="376"/>
+      <c r="AH58" s="377"/>
       <c r="AI58" s="253"/>
       <c r="AJ58" s="169"/>
       <c r="AK58" s="225"/>
@@ -16688,38 +16690,38 @@
     <row r="59" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="169"/>
       <c r="B59" s="270"/>
-      <c r="C59" s="386"/>
-      <c r="D59" s="386"/>
-      <c r="E59" s="386"/>
-      <c r="F59" s="386"/>
-      <c r="G59" s="386"/>
-      <c r="H59" s="386"/>
-      <c r="I59" s="386"/>
-      <c r="J59" s="386"/>
-      <c r="K59" s="386"/>
-      <c r="L59" s="386"/>
-      <c r="M59" s="386"/>
-      <c r="N59" s="386"/>
-      <c r="O59" s="386"/>
-      <c r="P59" s="386"/>
-      <c r="Q59" s="386"/>
-      <c r="R59" s="386"/>
-      <c r="S59" s="386"/>
-      <c r="T59" s="386"/>
-      <c r="U59" s="386"/>
-      <c r="V59" s="386"/>
-      <c r="W59" s="386"/>
-      <c r="X59" s="386"/>
-      <c r="Y59" s="386"/>
-      <c r="Z59" s="386"/>
-      <c r="AA59" s="386"/>
-      <c r="AB59" s="386"/>
-      <c r="AC59" s="386"/>
-      <c r="AD59" s="386"/>
-      <c r="AE59" s="386"/>
-      <c r="AF59" s="386"/>
-      <c r="AG59" s="386"/>
-      <c r="AH59" s="359"/>
+      <c r="C59" s="376"/>
+      <c r="D59" s="376"/>
+      <c r="E59" s="376"/>
+      <c r="F59" s="376"/>
+      <c r="G59" s="376"/>
+      <c r="H59" s="376"/>
+      <c r="I59" s="376"/>
+      <c r="J59" s="376"/>
+      <c r="K59" s="376"/>
+      <c r="L59" s="376"/>
+      <c r="M59" s="376"/>
+      <c r="N59" s="376"/>
+      <c r="O59" s="376"/>
+      <c r="P59" s="376"/>
+      <c r="Q59" s="376"/>
+      <c r="R59" s="376"/>
+      <c r="S59" s="376"/>
+      <c r="T59" s="376"/>
+      <c r="U59" s="376"/>
+      <c r="V59" s="376"/>
+      <c r="W59" s="376"/>
+      <c r="X59" s="376"/>
+      <c r="Y59" s="376"/>
+      <c r="Z59" s="376"/>
+      <c r="AA59" s="376"/>
+      <c r="AB59" s="376"/>
+      <c r="AC59" s="376"/>
+      <c r="AD59" s="376"/>
+      <c r="AE59" s="376"/>
+      <c r="AF59" s="376"/>
+      <c r="AG59" s="376"/>
+      <c r="AH59" s="377"/>
       <c r="AI59" s="253"/>
       <c r="AJ59" s="169"/>
       <c r="AK59" s="225"/>
@@ -16806,42 +16808,42 @@
     <row r="61" spans="1:56" s="176" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="169"/>
       <c r="B61" s="270"/>
-      <c r="C61" s="355" t="s">
+      <c r="C61" s="378" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="356"/>
-      <c r="E61" s="356"/>
-      <c r="F61" s="356"/>
-      <c r="G61" s="357" t="s">
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="379"/>
+      <c r="G61" s="380" t="s">
         <v>128</v>
       </c>
-      <c r="H61" s="358"/>
-      <c r="I61" s="358"/>
-      <c r="J61" s="358"/>
-      <c r="K61" s="358"/>
-      <c r="L61" s="358"/>
-      <c r="M61" s="358"/>
-      <c r="N61" s="358"/>
-      <c r="O61" s="358"/>
-      <c r="P61" s="358"/>
-      <c r="Q61" s="358"/>
-      <c r="R61" s="358"/>
-      <c r="S61" s="358"/>
-      <c r="T61" s="358"/>
-      <c r="U61" s="358"/>
-      <c r="V61" s="358"/>
-      <c r="W61" s="358"/>
-      <c r="X61" s="358"/>
-      <c r="Y61" s="358"/>
-      <c r="Z61" s="358"/>
-      <c r="AA61" s="358"/>
-      <c r="AB61" s="358"/>
-      <c r="AC61" s="358"/>
-      <c r="AD61" s="358"/>
-      <c r="AE61" s="358"/>
-      <c r="AF61" s="358"/>
-      <c r="AG61" s="358"/>
-      <c r="AH61" s="359"/>
+      <c r="H61" s="381"/>
+      <c r="I61" s="381"/>
+      <c r="J61" s="381"/>
+      <c r="K61" s="381"/>
+      <c r="L61" s="381"/>
+      <c r="M61" s="381"/>
+      <c r="N61" s="381"/>
+      <c r="O61" s="381"/>
+      <c r="P61" s="381"/>
+      <c r="Q61" s="381"/>
+      <c r="R61" s="381"/>
+      <c r="S61" s="381"/>
+      <c r="T61" s="381"/>
+      <c r="U61" s="381"/>
+      <c r="V61" s="381"/>
+      <c r="W61" s="381"/>
+      <c r="X61" s="381"/>
+      <c r="Y61" s="381"/>
+      <c r="Z61" s="381"/>
+      <c r="AA61" s="381"/>
+      <c r="AB61" s="381"/>
+      <c r="AC61" s="381"/>
+      <c r="AD61" s="381"/>
+      <c r="AE61" s="381"/>
+      <c r="AF61" s="381"/>
+      <c r="AG61" s="381"/>
+      <c r="AH61" s="377"/>
       <c r="AI61" s="253"/>
       <c r="AJ61" s="169"/>
       <c r="AK61" s="225"/>
@@ -16872,34 +16874,34 @@
       <c r="D62" s="272"/>
       <c r="E62" s="272"/>
       <c r="F62" s="272"/>
-      <c r="G62" s="360"/>
-      <c r="H62" s="358"/>
-      <c r="I62" s="358"/>
-      <c r="J62" s="358"/>
-      <c r="K62" s="358"/>
-      <c r="L62" s="358"/>
-      <c r="M62" s="358"/>
-      <c r="N62" s="358"/>
-      <c r="O62" s="358"/>
-      <c r="P62" s="358"/>
-      <c r="Q62" s="358"/>
-      <c r="R62" s="358"/>
-      <c r="S62" s="358"/>
-      <c r="T62" s="358"/>
-      <c r="U62" s="358"/>
-      <c r="V62" s="358"/>
-      <c r="W62" s="358"/>
-      <c r="X62" s="358"/>
-      <c r="Y62" s="358"/>
-      <c r="Z62" s="358"/>
-      <c r="AA62" s="358"/>
-      <c r="AB62" s="358"/>
-      <c r="AC62" s="358"/>
-      <c r="AD62" s="358"/>
-      <c r="AE62" s="358"/>
-      <c r="AF62" s="358"/>
-      <c r="AG62" s="358"/>
-      <c r="AH62" s="359"/>
+      <c r="G62" s="382"/>
+      <c r="H62" s="381"/>
+      <c r="I62" s="381"/>
+      <c r="J62" s="381"/>
+      <c r="K62" s="381"/>
+      <c r="L62" s="381"/>
+      <c r="M62" s="381"/>
+      <c r="N62" s="381"/>
+      <c r="O62" s="381"/>
+      <c r="P62" s="381"/>
+      <c r="Q62" s="381"/>
+      <c r="R62" s="381"/>
+      <c r="S62" s="381"/>
+      <c r="T62" s="381"/>
+      <c r="U62" s="381"/>
+      <c r="V62" s="381"/>
+      <c r="W62" s="381"/>
+      <c r="X62" s="381"/>
+      <c r="Y62" s="381"/>
+      <c r="Z62" s="381"/>
+      <c r="AA62" s="381"/>
+      <c r="AB62" s="381"/>
+      <c r="AC62" s="381"/>
+      <c r="AD62" s="381"/>
+      <c r="AE62" s="381"/>
+      <c r="AF62" s="381"/>
+      <c r="AG62" s="381"/>
+      <c r="AH62" s="377"/>
       <c r="AI62" s="253"/>
       <c r="AJ62" s="169"/>
       <c r="AK62" s="225"/>
@@ -16930,34 +16932,34 @@
       <c r="D63" s="272"/>
       <c r="E63" s="272"/>
       <c r="F63" s="272"/>
-      <c r="G63" s="361"/>
-      <c r="H63" s="362"/>
-      <c r="I63" s="362"/>
-      <c r="J63" s="362"/>
-      <c r="K63" s="362"/>
-      <c r="L63" s="362"/>
-      <c r="M63" s="362"/>
-      <c r="N63" s="362"/>
-      <c r="O63" s="362"/>
-      <c r="P63" s="362"/>
-      <c r="Q63" s="362"/>
-      <c r="R63" s="362"/>
-      <c r="S63" s="362"/>
-      <c r="T63" s="362"/>
-      <c r="U63" s="362"/>
-      <c r="V63" s="362"/>
-      <c r="W63" s="362"/>
-      <c r="X63" s="362"/>
-      <c r="Y63" s="362"/>
-      <c r="Z63" s="362"/>
-      <c r="AA63" s="362"/>
-      <c r="AB63" s="362"/>
-      <c r="AC63" s="362"/>
-      <c r="AD63" s="362"/>
-      <c r="AE63" s="362"/>
-      <c r="AF63" s="362"/>
-      <c r="AG63" s="362"/>
-      <c r="AH63" s="363"/>
+      <c r="G63" s="383"/>
+      <c r="H63" s="384"/>
+      <c r="I63" s="384"/>
+      <c r="J63" s="384"/>
+      <c r="K63" s="384"/>
+      <c r="L63" s="384"/>
+      <c r="M63" s="384"/>
+      <c r="N63" s="384"/>
+      <c r="O63" s="384"/>
+      <c r="P63" s="384"/>
+      <c r="Q63" s="384"/>
+      <c r="R63" s="384"/>
+      <c r="S63" s="384"/>
+      <c r="T63" s="384"/>
+      <c r="U63" s="384"/>
+      <c r="V63" s="384"/>
+      <c r="W63" s="384"/>
+      <c r="X63" s="384"/>
+      <c r="Y63" s="384"/>
+      <c r="Z63" s="384"/>
+      <c r="AA63" s="384"/>
+      <c r="AB63" s="384"/>
+      <c r="AC63" s="384"/>
+      <c r="AD63" s="384"/>
+      <c r="AE63" s="384"/>
+      <c r="AF63" s="384"/>
+      <c r="AG63" s="384"/>
+      <c r="AH63" s="385"/>
       <c r="AI63" s="253"/>
       <c r="AJ63" s="169"/>
       <c r="AK63" s="225"/>
@@ -17010,38 +17012,38 @@
     <row r="65" spans="1:85" s="176" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="169"/>
       <c r="B65" s="270"/>
-      <c r="C65" s="367" t="s">
+      <c r="C65" s="389" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="368"/>
-      <c r="E65" s="368"/>
-      <c r="F65" s="369"/>
-      <c r="G65" s="372" t="s">
+      <c r="D65" s="390"/>
+      <c r="E65" s="390"/>
+      <c r="F65" s="391"/>
+      <c r="G65" s="394" t="s">
         <v>129</v>
       </c>
-      <c r="H65" s="373"/>
-      <c r="I65" s="373"/>
-      <c r="J65" s="373"/>
-      <c r="K65" s="373"/>
+      <c r="H65" s="395"/>
+      <c r="I65" s="395"/>
+      <c r="J65" s="395"/>
+      <c r="K65" s="395"/>
       <c r="L65" s="277"/>
       <c r="M65" s="277"/>
       <c r="N65" s="277"/>
       <c r="O65" s="277"/>
       <c r="P65" s="277"/>
-      <c r="U65" s="355"/>
-      <c r="V65" s="374"/>
-      <c r="W65" s="374"/>
-      <c r="X65" s="374"/>
+      <c r="U65" s="378"/>
+      <c r="V65" s="396"/>
+      <c r="W65" s="396"/>
+      <c r="X65" s="396"/>
       <c r="Y65" s="278"/>
       <c r="Z65" s="268"/>
       <c r="AA65" s="268"/>
       <c r="AB65" s="272"/>
-      <c r="AC65" s="370"/>
-      <c r="AD65" s="371"/>
-      <c r="AE65" s="371"/>
-      <c r="AF65" s="371"/>
-      <c r="AG65" s="355"/>
-      <c r="AH65" s="364"/>
+      <c r="AC65" s="392"/>
+      <c r="AD65" s="393"/>
+      <c r="AE65" s="393"/>
+      <c r="AF65" s="393"/>
+      <c r="AG65" s="378"/>
+      <c r="AH65" s="386"/>
       <c r="AI65" s="253"/>
       <c r="AJ65" s="169"/>
       <c r="AK65" s="225"/>
@@ -17126,24 +17128,24 @@
     <row r="67" spans="1:85" ht="6" customHeight="1">
       <c r="A67" s="169"/>
       <c r="B67" s="271"/>
-      <c r="C67" s="365"/>
-      <c r="D67" s="365"/>
-      <c r="E67" s="365"/>
-      <c r="F67" s="365"/>
-      <c r="G67" s="365"/>
-      <c r="H67" s="365"/>
-      <c r="I67" s="365"/>
-      <c r="J67" s="365"/>
-      <c r="K67" s="366"/>
-      <c r="L67" s="366"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="366"/>
-      <c r="O67" s="366"/>
-      <c r="P67" s="366"/>
-      <c r="Q67" s="366"/>
-      <c r="R67" s="366"/>
-      <c r="S67" s="366"/>
-      <c r="T67" s="366"/>
+      <c r="C67" s="387"/>
+      <c r="D67" s="387"/>
+      <c r="E67" s="387"/>
+      <c r="F67" s="387"/>
+      <c r="G67" s="387"/>
+      <c r="H67" s="387"/>
+      <c r="I67" s="387"/>
+      <c r="J67" s="387"/>
+      <c r="K67" s="388"/>
+      <c r="L67" s="388"/>
+      <c r="M67" s="388"/>
+      <c r="N67" s="388"/>
+      <c r="O67" s="388"/>
+      <c r="P67" s="388"/>
+      <c r="Q67" s="388"/>
+      <c r="R67" s="388"/>
+      <c r="S67" s="388"/>
+      <c r="T67" s="388"/>
       <c r="U67" s="275"/>
       <c r="V67" s="275"/>
       <c r="W67" s="275"/>
@@ -17247,35 +17249,35 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="351"/>
-      <c r="H69" s="351"/>
-      <c r="I69" s="351"/>
-      <c r="J69" s="351"/>
-      <c r="K69" s="351"/>
-      <c r="L69" s="351"/>
-      <c r="M69" s="351"/>
-      <c r="N69" s="351"/>
-      <c r="O69" s="351"/>
-      <c r="P69" s="351"/>
-      <c r="Q69" s="351"/>
-      <c r="R69" s="351"/>
-      <c r="S69" s="351"/>
-      <c r="T69" s="351"/>
-      <c r="U69" s="351"/>
-      <c r="V69" s="351"/>
-      <c r="W69" s="351"/>
-      <c r="X69" s="351"/>
-      <c r="Y69" s="351"/>
-      <c r="Z69" s="351"/>
-      <c r="AA69" s="351"/>
-      <c r="AB69" s="351"/>
-      <c r="AC69" s="351"/>
-      <c r="AD69" s="351"/>
-      <c r="AE69" s="351"/>
-      <c r="AF69" s="351"/>
-      <c r="AG69" s="351"/>
-      <c r="AH69" s="351"/>
-      <c r="AI69" s="351"/>
+      <c r="G69" s="299"/>
+      <c r="H69" s="299"/>
+      <c r="I69" s="299"/>
+      <c r="J69" s="299"/>
+      <c r="K69" s="299"/>
+      <c r="L69" s="299"/>
+      <c r="M69" s="299"/>
+      <c r="N69" s="299"/>
+      <c r="O69" s="299"/>
+      <c r="P69" s="299"/>
+      <c r="Q69" s="299"/>
+      <c r="R69" s="299"/>
+      <c r="S69" s="299"/>
+      <c r="T69" s="299"/>
+      <c r="U69" s="299"/>
+      <c r="V69" s="299"/>
+      <c r="W69" s="299"/>
+      <c r="X69" s="299"/>
+      <c r="Y69" s="299"/>
+      <c r="Z69" s="299"/>
+      <c r="AA69" s="299"/>
+      <c r="AB69" s="299"/>
+      <c r="AC69" s="299"/>
+      <c r="AD69" s="299"/>
+      <c r="AE69" s="299"/>
+      <c r="AF69" s="299"/>
+      <c r="AG69" s="299"/>
+      <c r="AH69" s="299"/>
+      <c r="AI69" s="299"/>
       <c r="BZ69" s="234"/>
       <c r="CA69" s="149"/>
       <c r="CB69" s="149"/>
@@ -17380,39 +17382,39 @@
     </row>
     <row r="72" spans="1:85" ht="8.85" customHeight="1">
       <c r="A72" s="25"/>
-      <c r="B72" s="344"/>
-      <c r="C72" s="344"/>
-      <c r="D72" s="344"/>
-      <c r="E72" s="344"/>
-      <c r="F72" s="344"/>
-      <c r="G72" s="344"/>
-      <c r="H72" s="344"/>
-      <c r="I72" s="344"/>
-      <c r="J72" s="344"/>
-      <c r="K72" s="344"/>
-      <c r="L72" s="344"/>
-      <c r="M72" s="344"/>
-      <c r="N72" s="344"/>
-      <c r="O72" s="344"/>
-      <c r="P72" s="344"/>
-      <c r="Q72" s="344"/>
-      <c r="R72" s="344"/>
-      <c r="S72" s="344"/>
-      <c r="T72" s="344"/>
-      <c r="U72" s="344"/>
-      <c r="V72" s="344"/>
-      <c r="W72" s="344"/>
-      <c r="X72" s="344"/>
-      <c r="Y72" s="344"/>
-      <c r="Z72" s="344"/>
-      <c r="AA72" s="344"/>
-      <c r="AB72" s="344"/>
-      <c r="AC72" s="344"/>
+      <c r="B72" s="292"/>
+      <c r="C72" s="292"/>
+      <c r="D72" s="292"/>
+      <c r="E72" s="292"/>
+      <c r="F72" s="292"/>
+      <c r="G72" s="292"/>
+      <c r="H72" s="292"/>
+      <c r="I72" s="292"/>
+      <c r="J72" s="292"/>
+      <c r="K72" s="292"/>
+      <c r="L72" s="292"/>
+      <c r="M72" s="292"/>
+      <c r="N72" s="292"/>
+      <c r="O72" s="292"/>
+      <c r="P72" s="292"/>
+      <c r="Q72" s="292"/>
+      <c r="R72" s="292"/>
+      <c r="S72" s="292"/>
+      <c r="T72" s="292"/>
+      <c r="U72" s="292"/>
+      <c r="V72" s="292"/>
+      <c r="W72" s="292"/>
+      <c r="X72" s="292"/>
+      <c r="Y72" s="292"/>
+      <c r="Z72" s="292"/>
+      <c r="AA72" s="292"/>
+      <c r="AB72" s="292"/>
+      <c r="AC72" s="292"/>
       <c r="AD72" s="25"/>
-      <c r="AE72" s="299"/>
-      <c r="AF72" s="299"/>
-      <c r="AG72" s="299"/>
-      <c r="AH72" s="299"/>
+      <c r="AE72" s="287"/>
+      <c r="AF72" s="287"/>
+      <c r="AG72" s="287"/>
+      <c r="AH72" s="287"/>
       <c r="AI72" s="26"/>
       <c r="BZ72" s="235"/>
       <c r="CA72" s="237"/>
@@ -17453,10 +17455,10 @@
       <c r="AB73" s="130"/>
       <c r="AC73" s="130"/>
       <c r="AD73" s="25"/>
-      <c r="AE73" s="394"/>
-      <c r="AF73" s="394"/>
-      <c r="AG73" s="394"/>
-      <c r="AH73" s="394"/>
+      <c r="AE73" s="359"/>
+      <c r="AF73" s="359"/>
+      <c r="AG73" s="359"/>
+      <c r="AH73" s="359"/>
       <c r="AI73" s="26"/>
       <c r="BZ73" s="235"/>
       <c r="CA73" s="237"/>
@@ -17471,31 +17473,31 @@
       <c r="B74" s="131"/>
       <c r="C74" s="131"/>
       <c r="D74" s="131"/>
-      <c r="E74" s="299"/>
-      <c r="F74" s="342"/>
-      <c r="G74" s="342"/>
-      <c r="H74" s="342"/>
-      <c r="I74" s="342"/>
-      <c r="J74" s="342"/>
-      <c r="K74" s="342"/>
-      <c r="L74" s="342"/>
-      <c r="M74" s="342"/>
-      <c r="N74" s="342"/>
-      <c r="O74" s="342"/>
-      <c r="P74" s="342"/>
-      <c r="Q74" s="342"/>
+      <c r="E74" s="287"/>
+      <c r="F74" s="288"/>
+      <c r="G74" s="288"/>
+      <c r="H74" s="288"/>
+      <c r="I74" s="288"/>
+      <c r="J74" s="288"/>
+      <c r="K74" s="288"/>
+      <c r="L74" s="288"/>
+      <c r="M74" s="288"/>
+      <c r="N74" s="288"/>
+      <c r="O74" s="288"/>
+      <c r="P74" s="288"/>
+      <c r="Q74" s="288"/>
       <c r="R74" s="25"/>
       <c r="S74" s="25"/>
-      <c r="T74" s="339"/>
-      <c r="U74" s="339"/>
-      <c r="V74" s="339"/>
-      <c r="W74" s="339"/>
-      <c r="X74" s="339"/>
-      <c r="Y74" s="339"/>
-      <c r="Z74" s="339"/>
-      <c r="AA74" s="339"/>
-      <c r="AB74" s="339"/>
-      <c r="AC74" s="339"/>
+      <c r="T74" s="284"/>
+      <c r="U74" s="284"/>
+      <c r="V74" s="284"/>
+      <c r="W74" s="284"/>
+      <c r="X74" s="284"/>
+      <c r="Y74" s="284"/>
+      <c r="Z74" s="284"/>
+      <c r="AA74" s="284"/>
+      <c r="AB74" s="284"/>
+      <c r="AC74" s="284"/>
       <c r="AD74" s="25"/>
       <c r="AE74" s="264"/>
       <c r="AF74" s="126"/>
@@ -17512,38 +17514,38 @@
     </row>
     <row r="75" spans="1:85" ht="12" customHeight="1">
       <c r="A75" s="53"/>
-      <c r="B75" s="339" t="s">
+      <c r="B75" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="339"/>
-      <c r="D75" s="339"/>
-      <c r="E75" s="353"/>
-      <c r="F75" s="353"/>
-      <c r="G75" s="353"/>
-      <c r="H75" s="353"/>
-      <c r="I75" s="353"/>
-      <c r="J75" s="353"/>
-      <c r="K75" s="353"/>
-      <c r="L75" s="353"/>
-      <c r="M75" s="353"/>
-      <c r="N75" s="353"/>
-      <c r="O75" s="353"/>
-      <c r="P75" s="353"/>
-      <c r="Q75" s="353"/>
-      <c r="R75" s="352" t="s">
+      <c r="C75" s="284"/>
+      <c r="D75" s="284"/>
+      <c r="E75" s="281"/>
+      <c r="F75" s="281"/>
+      <c r="G75" s="281"/>
+      <c r="H75" s="281"/>
+      <c r="I75" s="281"/>
+      <c r="J75" s="281"/>
+      <c r="K75" s="281"/>
+      <c r="L75" s="281"/>
+      <c r="M75" s="281"/>
+      <c r="N75" s="281"/>
+      <c r="O75" s="281"/>
+      <c r="P75" s="281"/>
+      <c r="Q75" s="281"/>
+      <c r="R75" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="S75" s="352"/>
-      <c r="T75" s="353"/>
-      <c r="U75" s="353"/>
-      <c r="V75" s="353"/>
-      <c r="W75" s="353"/>
-      <c r="X75" s="353"/>
-      <c r="Y75" s="353"/>
-      <c r="Z75" s="353"/>
-      <c r="AA75" s="353"/>
-      <c r="AB75" s="353"/>
-      <c r="AC75" s="353"/>
+      <c r="S75" s="280"/>
+      <c r="T75" s="281"/>
+      <c r="U75" s="281"/>
+      <c r="V75" s="281"/>
+      <c r="W75" s="281"/>
+      <c r="X75" s="281"/>
+      <c r="Y75" s="281"/>
+      <c r="Z75" s="281"/>
+      <c r="AA75" s="281"/>
+      <c r="AB75" s="281"/>
+      <c r="AC75" s="281"/>
       <c r="AD75" s="130"/>
       <c r="AE75" s="53" t="s">
         <v>20</v>
@@ -17562,43 +17564,43 @@
     </row>
     <row r="76" spans="1:85" ht="12" customHeight="1">
       <c r="A76" s="53"/>
-      <c r="B76" s="339" t="s">
+      <c r="B76" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="339"/>
-      <c r="D76" s="339"/>
-      <c r="E76" s="354"/>
-      <c r="F76" s="354"/>
-      <c r="G76" s="354"/>
-      <c r="H76" s="354"/>
-      <c r="I76" s="354"/>
-      <c r="J76" s="354"/>
-      <c r="K76" s="354"/>
-      <c r="L76" s="354"/>
-      <c r="M76" s="354"/>
-      <c r="N76" s="354"/>
-      <c r="O76" s="354"/>
-      <c r="P76" s="354"/>
-      <c r="Q76" s="354"/>
-      <c r="R76" s="352" t="s">
+      <c r="C76" s="284"/>
+      <c r="D76" s="284"/>
+      <c r="E76" s="282"/>
+      <c r="F76" s="282"/>
+      <c r="G76" s="282"/>
+      <c r="H76" s="282"/>
+      <c r="I76" s="282"/>
+      <c r="J76" s="282"/>
+      <c r="K76" s="282"/>
+      <c r="L76" s="282"/>
+      <c r="M76" s="282"/>
+      <c r="N76" s="282"/>
+      <c r="O76" s="282"/>
+      <c r="P76" s="282"/>
+      <c r="Q76" s="282"/>
+      <c r="R76" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="S76" s="352"/>
-      <c r="T76" s="340"/>
-      <c r="U76" s="340"/>
-      <c r="V76" s="340"/>
-      <c r="W76" s="340"/>
-      <c r="X76" s="340"/>
-      <c r="Y76" s="340"/>
-      <c r="Z76" s="340"/>
-      <c r="AA76" s="340"/>
-      <c r="AB76" s="340"/>
-      <c r="AC76" s="340"/>
+      <c r="S76" s="280"/>
+      <c r="T76" s="283"/>
+      <c r="U76" s="283"/>
+      <c r="V76" s="283"/>
+      <c r="W76" s="283"/>
+      <c r="X76" s="283"/>
+      <c r="Y76" s="283"/>
+      <c r="Z76" s="283"/>
+      <c r="AA76" s="283"/>
+      <c r="AB76" s="283"/>
+      <c r="AC76" s="283"/>
       <c r="AD76" s="132"/>
-      <c r="AE76" s="395"/>
-      <c r="AF76" s="395"/>
-      <c r="AG76" s="395"/>
-      <c r="AH76" s="395"/>
+      <c r="AE76" s="355"/>
+      <c r="AF76" s="355"/>
+      <c r="AG76" s="355"/>
+      <c r="AH76" s="355"/>
       <c r="AI76" s="130"/>
       <c r="BZ76" s="235"/>
       <c r="CA76" s="237"/>
@@ -17613,40 +17615,40 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="53"/>
-      <c r="E77" s="318" t="s">
+      <c r="E77" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="318"/>
-      <c r="G77" s="318"/>
-      <c r="H77" s="318"/>
-      <c r="I77" s="318"/>
-      <c r="J77" s="318"/>
-      <c r="K77" s="318"/>
-      <c r="L77" s="318"/>
-      <c r="M77" s="318"/>
-      <c r="N77" s="318"/>
-      <c r="O77" s="318"/>
-      <c r="P77" s="318"/>
-      <c r="Q77" s="318"/>
+      <c r="F77" s="279"/>
+      <c r="G77" s="279"/>
+      <c r="H77" s="279"/>
+      <c r="I77" s="279"/>
+      <c r="J77" s="279"/>
+      <c r="K77" s="279"/>
+      <c r="L77" s="279"/>
+      <c r="M77" s="279"/>
+      <c r="N77" s="279"/>
+      <c r="O77" s="279"/>
+      <c r="P77" s="279"/>
+      <c r="Q77" s="279"/>
       <c r="R77" s="71"/>
       <c r="S77" s="71"/>
-      <c r="T77" s="318" t="s">
+      <c r="T77" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="U77" s="318"/>
-      <c r="V77" s="318"/>
-      <c r="W77" s="318"/>
-      <c r="X77" s="318"/>
-      <c r="Y77" s="318"/>
-      <c r="Z77" s="318"/>
-      <c r="AA77" s="318"/>
-      <c r="AB77" s="318"/>
-      <c r="AC77" s="318"/>
+      <c r="U77" s="279"/>
+      <c r="V77" s="279"/>
+      <c r="W77" s="279"/>
+      <c r="X77" s="279"/>
+      <c r="Y77" s="279"/>
+      <c r="Z77" s="279"/>
+      <c r="AA77" s="279"/>
+      <c r="AB77" s="279"/>
+      <c r="AC77" s="279"/>
       <c r="AD77" s="3"/>
-      <c r="AE77" s="396"/>
-      <c r="AF77" s="396"/>
-      <c r="AG77" s="396"/>
-      <c r="AH77" s="396"/>
+      <c r="AE77" s="356"/>
+      <c r="AF77" s="356"/>
+      <c r="AG77" s="356"/>
+      <c r="AH77" s="356"/>
       <c r="AI77" s="3"/>
       <c r="BY77" s="149"/>
       <c r="BZ77" s="235"/>
@@ -18698,25 +18700,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E74:Q74"/>
-    <mergeCell ref="T74:AC74"/>
-    <mergeCell ref="AE76:AH77"/>
-    <mergeCell ref="B72:AC72"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="E75:Q75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:AC75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="G69:AI69"/>
-    <mergeCell ref="I37:S37"/>
-    <mergeCell ref="C17:AH17"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="AE72:AH73"/>
-    <mergeCell ref="E76:Q76"/>
-    <mergeCell ref="E77:Q77"/>
-    <mergeCell ref="T77:AC77"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:AC76"/>
     <mergeCell ref="L2:AG2"/>
     <mergeCell ref="L6:V6"/>
     <mergeCell ref="W6:AF6"/>
@@ -18726,6 +18709,11 @@
     <mergeCell ref="C28:AH28"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="T37:AH37"/>
+    <mergeCell ref="G69:AI69"/>
+    <mergeCell ref="I37:S37"/>
+    <mergeCell ref="C17:AH17"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="AE72:AH73"/>
     <mergeCell ref="C45:AH45"/>
     <mergeCell ref="C49:AH59"/>
     <mergeCell ref="C61:F61"/>
@@ -18737,6 +18725,20 @@
     <mergeCell ref="AC65:AF65"/>
     <mergeCell ref="G65:K65"/>
     <mergeCell ref="U65:X65"/>
+    <mergeCell ref="E74:Q74"/>
+    <mergeCell ref="T74:AC74"/>
+    <mergeCell ref="AE76:AH77"/>
+    <mergeCell ref="B72:AC72"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:AC75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:Q76"/>
+    <mergeCell ref="E77:Q77"/>
+    <mergeCell ref="T77:AC77"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:AC76"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.59055118110236227" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18752,69 +18754,144 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8276" r:id="rId4" name="GarSim">
-          <controlPr autoLine="0" linkedCell="AZ4" r:id="rId5">
+        <control shapeId="8294" r:id="rId4" name="Nenh">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="BB3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8276" r:id="rId4" name="GarSim"/>
+        <control shapeId="8294" r:id="rId4" name="Nenh"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8277" r:id="rId6" name="GarNao">
-          <controlPr autoLine="0" linkedCell="BA4" r:id="rId7">
+        <control shapeId="8293" r:id="rId6" name="Desval">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="BB2" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
+                <xdr:col>24</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8277" r:id="rId6" name="GarNao"/>
+        <control shapeId="8293" r:id="rId6" name="Desval"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8282" r:id="rId8" name="DocSim">
-          <controlPr autoLine="0" linkedCell="AZ5" r:id="rId9">
+        <control shapeId="8292" r:id="rId8" name="Val">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="BB1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>30</xdr:col>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8292" r:id="rId8" name="Val"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8291" r:id="rId10" name="EstNao">
+          <controlPr autoLine="0" linkedCell="BA1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>26</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>41</xdr:row>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>28</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8291" r:id="rId10" name="EstNao"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8290" r:id="rId12" name="EstSim">
+          <controlPr autoLine="0" linkedCell="AZ1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8290" r:id="rId12" name="EstSim"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8289" r:id="rId14" name="VicioNao">
+          <controlPr autoLine="0" linkedCell="BA2" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>42</xdr:row>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -18822,82 +18899,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8282" r:id="rId8" name="DocSim"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8283" r:id="rId10" name="DocNao">
-          <controlPr autoLine="0" linkedCell="BA5" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>41</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>35</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>42</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8283" r:id="rId10" name="DocNao"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8284" r:id="rId12" name="HabitSim">
-          <controlPr autoLine="0" linkedCell="AZ3" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8284" r:id="rId12" name="HabitSim"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8285" r:id="rId14" name="HabitNao">
-          <controlPr autoLine="0" linkedCell="BA3" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>20</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8285" r:id="rId14" name="HabitNao"/>
+        <control shapeId="8289" r:id="rId14" name="VicioNao"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -18927,19 +18929,69 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8289" r:id="rId18" name="VicioNao">
-          <controlPr autoLine="0" linkedCell="BA2" r:id="rId19">
+        <control shapeId="8285" r:id="rId18" name="HabitNao">
+          <controlPr autoLine="0" linkedCell="BA3" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>24</xdr:col>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>20</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8285" r:id="rId18" name="HabitNao"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8284" r:id="rId20" name="HabitSim">
+          <controlPr autoLine="0" linkedCell="AZ3" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8284" r:id="rId20" name="HabitSim"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8283" r:id="rId22" name="DocNao">
+          <controlPr autoLine="0" linkedCell="BA5" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>32</xdr:col>
                 <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>41</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>35</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -18947,132 +18999,82 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8289" r:id="rId18" name="VicioNao"/>
+        <control shapeId="8283" r:id="rId22" name="DocNao"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8290" r:id="rId20" name="EstSim">
-          <controlPr autoLine="0" linkedCell="AZ1" r:id="rId21">
+        <control shapeId="8282" r:id="rId24" name="DocSim">
+          <controlPr autoLine="0" linkedCell="AZ5" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>23</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>30</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>25</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>32</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8290" r:id="rId20" name="EstSim"/>
+        <control shapeId="8282" r:id="rId24" name="DocSim"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8291" r:id="rId22" name="EstNao">
-          <controlPr autoLine="0" linkedCell="BA1" r:id="rId23">
+        <control shapeId="8277" r:id="rId26" name="GarNao">
+          <controlPr autoLine="0" linkedCell="BA4" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>28</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8291" r:id="rId22" name="EstNao"/>
+        <control shapeId="8277" r:id="rId26" name="GarNao"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8292" r:id="rId24" name="Val">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="BB1" r:id="rId25">
+        <control shapeId="8276" r:id="rId28" name="GarSim">
+          <controlPr autoLine="0" linkedCell="AZ4" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>13</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8292" r:id="rId24" name="Val"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8293" r:id="rId26" name="Desval">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="BB2" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8293" r:id="rId26" name="Desval"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8294" r:id="rId28" name="Nenh">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="BB3" r:id="rId29">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>24</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>27</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8294" r:id="rId28" name="Nenh"/>
+        <control shapeId="8276" r:id="rId28" name="GarSim"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -19158,30 +19160,30 @@
       <c r="I2" s="157"/>
       <c r="J2" s="157"/>
       <c r="K2" s="157"/>
-      <c r="L2" s="286" t="s">
+      <c r="L2" s="340" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="286"/>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="286"/>
-      <c r="S2" s="286"/>
-      <c r="T2" s="286"/>
-      <c r="U2" s="286"/>
-      <c r="V2" s="286"/>
-      <c r="W2" s="286"/>
-      <c r="X2" s="286"/>
-      <c r="Y2" s="286"/>
-      <c r="Z2" s="286"/>
-      <c r="AA2" s="286"/>
-      <c r="AB2" s="286"/>
-      <c r="AC2" s="286"/>
-      <c r="AD2" s="286"/>
-      <c r="AE2" s="286"/>
-      <c r="AF2" s="286"/>
-      <c r="AG2" s="286"/>
+      <c r="M2" s="340"/>
+      <c r="N2" s="340"/>
+      <c r="O2" s="340"/>
+      <c r="P2" s="340"/>
+      <c r="Q2" s="340"/>
+      <c r="R2" s="340"/>
+      <c r="S2" s="340"/>
+      <c r="T2" s="340"/>
+      <c r="U2" s="340"/>
+      <c r="V2" s="340"/>
+      <c r="W2" s="340"/>
+      <c r="X2" s="340"/>
+      <c r="Y2" s="340"/>
+      <c r="Z2" s="340"/>
+      <c r="AA2" s="340"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
       <c r="AH2" s="157"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="157"/>
@@ -19302,30 +19304,30 @@
       <c r="I6" s="157"/>
       <c r="J6" s="157"/>
       <c r="K6" s="157"/>
-      <c r="L6" s="397"/>
-      <c r="M6" s="398"/>
-      <c r="N6" s="398"/>
-      <c r="O6" s="398"/>
-      <c r="P6" s="398"/>
-      <c r="Q6" s="398"/>
-      <c r="R6" s="398"/>
-      <c r="S6" s="398"/>
-      <c r="T6" s="398"/>
-      <c r="U6" s="398"/>
-      <c r="V6" s="399"/>
-      <c r="W6" s="397"/>
-      <c r="X6" s="398"/>
-      <c r="Y6" s="398"/>
-      <c r="Z6" s="398"/>
-      <c r="AA6" s="398"/>
-      <c r="AB6" s="398"/>
-      <c r="AC6" s="398"/>
-      <c r="AD6" s="398"/>
-      <c r="AE6" s="398"/>
-      <c r="AF6" s="399"/>
-      <c r="AG6" s="400"/>
-      <c r="AH6" s="401"/>
-      <c r="AI6" s="402"/>
+      <c r="L6" s="409"/>
+      <c r="M6" s="410"/>
+      <c r="N6" s="410"/>
+      <c r="O6" s="410"/>
+      <c r="P6" s="410"/>
+      <c r="Q6" s="410"/>
+      <c r="R6" s="410"/>
+      <c r="S6" s="410"/>
+      <c r="T6" s="410"/>
+      <c r="U6" s="410"/>
+      <c r="V6" s="411"/>
+      <c r="W6" s="409"/>
+      <c r="X6" s="410"/>
+      <c r="Y6" s="410"/>
+      <c r="Z6" s="410"/>
+      <c r="AA6" s="410"/>
+      <c r="AB6" s="410"/>
+      <c r="AC6" s="410"/>
+      <c r="AD6" s="410"/>
+      <c r="AE6" s="410"/>
+      <c r="AF6" s="411"/>
+      <c r="AG6" s="412"/>
+      <c r="AH6" s="413"/>
+      <c r="AI6" s="414"/>
       <c r="AJ6" s="157"/>
       <c r="AK6" s="158"/>
       <c r="AL6" s="143"/>
@@ -19471,40 +19473,40 @@
     </row>
     <row r="10" spans="1:78" s="159" customFormat="1" ht="10.5" customHeight="1">
       <c r="A10" s="28"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="288"/>
-      <c r="N10" s="288"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="288"/>
-      <c r="Q10" s="288"/>
-      <c r="R10" s="288"/>
-      <c r="S10" s="288"/>
-      <c r="T10" s="288"/>
-      <c r="U10" s="289"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="290"/>
+      <c r="K10" s="290"/>
+      <c r="L10" s="290"/>
+      <c r="M10" s="290"/>
+      <c r="N10" s="290"/>
+      <c r="O10" s="290"/>
+      <c r="P10" s="290"/>
+      <c r="Q10" s="290"/>
+      <c r="R10" s="290"/>
+      <c r="S10" s="290"/>
+      <c r="T10" s="290"/>
+      <c r="U10" s="291"/>
       <c r="V10" s="36"/>
-      <c r="W10" s="287"/>
-      <c r="X10" s="288"/>
-      <c r="Y10" s="288"/>
-      <c r="Z10" s="288"/>
-      <c r="AA10" s="288"/>
-      <c r="AB10" s="288"/>
-      <c r="AC10" s="288"/>
-      <c r="AD10" s="288"/>
-      <c r="AE10" s="288"/>
-      <c r="AF10" s="288"/>
-      <c r="AG10" s="288"/>
-      <c r="AH10" s="288"/>
-      <c r="AI10" s="289"/>
+      <c r="W10" s="303"/>
+      <c r="X10" s="290"/>
+      <c r="Y10" s="290"/>
+      <c r="Z10" s="290"/>
+      <c r="AA10" s="290"/>
+      <c r="AB10" s="290"/>
+      <c r="AC10" s="290"/>
+      <c r="AD10" s="290"/>
+      <c r="AE10" s="290"/>
+      <c r="AF10" s="290"/>
+      <c r="AG10" s="290"/>
+      <c r="AH10" s="290"/>
+      <c r="AI10" s="291"/>
       <c r="AJ10" s="169"/>
       <c r="AK10" s="172"/>
       <c r="AL10" s="172"/>
@@ -19619,40 +19621,40 @@
     </row>
     <row r="13" spans="1:78" s="159" customFormat="1" ht="10.5" customHeight="1">
       <c r="A13" s="28"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
-      <c r="M13" s="288"/>
-      <c r="N13" s="288"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="288"/>
-      <c r="Q13" s="288"/>
-      <c r="R13" s="288"/>
-      <c r="S13" s="288"/>
-      <c r="T13" s="288"/>
-      <c r="U13" s="289"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="290"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="290"/>
+      <c r="M13" s="290"/>
+      <c r="N13" s="290"/>
+      <c r="O13" s="290"/>
+      <c r="P13" s="290"/>
+      <c r="Q13" s="290"/>
+      <c r="R13" s="290"/>
+      <c r="S13" s="290"/>
+      <c r="T13" s="290"/>
+      <c r="U13" s="291"/>
       <c r="V13" s="36"/>
-      <c r="W13" s="287"/>
-      <c r="X13" s="288"/>
-      <c r="Y13" s="288"/>
-      <c r="Z13" s="288"/>
-      <c r="AA13" s="288"/>
-      <c r="AB13" s="288"/>
-      <c r="AC13" s="288"/>
-      <c r="AD13" s="288"/>
-      <c r="AE13" s="288"/>
-      <c r="AF13" s="288"/>
-      <c r="AG13" s="288"/>
-      <c r="AH13" s="288"/>
-      <c r="AI13" s="289"/>
+      <c r="W13" s="303"/>
+      <c r="X13" s="290"/>
+      <c r="Y13" s="290"/>
+      <c r="Z13" s="290"/>
+      <c r="AA13" s="290"/>
+      <c r="AB13" s="290"/>
+      <c r="AC13" s="290"/>
+      <c r="AD13" s="290"/>
+      <c r="AE13" s="290"/>
+      <c r="AF13" s="290"/>
+      <c r="AG13" s="290"/>
+      <c r="AH13" s="290"/>
+      <c r="AI13" s="291"/>
       <c r="AJ13" s="169"/>
       <c r="AK13" s="188"/>
       <c r="AL13" s="189"/>
@@ -19738,21 +19740,21 @@
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
       <c r="V15" s="34"/>
-      <c r="W15" s="302" t="s">
+      <c r="W15" s="352" t="s">
         <v>116</v>
       </c>
-      <c r="X15" s="303"/>
-      <c r="Y15" s="303"/>
-      <c r="Z15" s="303"/>
-      <c r="AA15" s="303"/>
-      <c r="AB15" s="303"/>
-      <c r="AC15" s="303"/>
-      <c r="AD15" s="303"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="303"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="303"/>
-      <c r="AI15" s="304"/>
+      <c r="X15" s="353"/>
+      <c r="Y15" s="353"/>
+      <c r="Z15" s="353"/>
+      <c r="AA15" s="353"/>
+      <c r="AB15" s="353"/>
+      <c r="AC15" s="353"/>
+      <c r="AD15" s="353"/>
+      <c r="AE15" s="353"/>
+      <c r="AF15" s="353"/>
+      <c r="AG15" s="353"/>
+      <c r="AH15" s="353"/>
+      <c r="AI15" s="354"/>
       <c r="AJ15" s="169"/>
       <c r="AK15" s="188"/>
       <c r="AL15" s="189"/>
@@ -19767,40 +19769,40 @@
     </row>
     <row r="16" spans="1:78" s="159" customFormat="1" ht="10.5" customHeight="1">
       <c r="A16" s="28"/>
-      <c r="B16" s="287"/>
-      <c r="C16" s="288"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="288"/>
-      <c r="G16" s="288"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="288"/>
-      <c r="J16" s="288"/>
-      <c r="K16" s="288"/>
-      <c r="L16" s="288"/>
-      <c r="M16" s="288"/>
-      <c r="N16" s="288"/>
-      <c r="O16" s="288"/>
-      <c r="P16" s="288"/>
-      <c r="Q16" s="288"/>
-      <c r="R16" s="288"/>
-      <c r="S16" s="288"/>
-      <c r="T16" s="288"/>
-      <c r="U16" s="289"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="290"/>
+      <c r="L16" s="290"/>
+      <c r="M16" s="290"/>
+      <c r="N16" s="290"/>
+      <c r="O16" s="290"/>
+      <c r="P16" s="290"/>
+      <c r="Q16" s="290"/>
+      <c r="R16" s="290"/>
+      <c r="S16" s="290"/>
+      <c r="T16" s="290"/>
+      <c r="U16" s="291"/>
       <c r="V16" s="36"/>
-      <c r="W16" s="287"/>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="288"/>
-      <c r="Z16" s="288"/>
-      <c r="AA16" s="288"/>
-      <c r="AB16" s="288"/>
-      <c r="AC16" s="288"/>
-      <c r="AD16" s="288"/>
-      <c r="AE16" s="288"/>
-      <c r="AF16" s="288"/>
-      <c r="AG16" s="288"/>
-      <c r="AH16" s="288"/>
-      <c r="AI16" s="289"/>
+      <c r="W16" s="303"/>
+      <c r="X16" s="290"/>
+      <c r="Y16" s="290"/>
+      <c r="Z16" s="290"/>
+      <c r="AA16" s="290"/>
+      <c r="AB16" s="290"/>
+      <c r="AC16" s="290"/>
+      <c r="AD16" s="290"/>
+      <c r="AE16" s="290"/>
+      <c r="AF16" s="290"/>
+      <c r="AG16" s="290"/>
+      <c r="AH16" s="290"/>
+      <c r="AI16" s="291"/>
       <c r="AJ16" s="169"/>
       <c r="AK16" s="188"/>
       <c r="AL16" s="189"/>
@@ -19925,40 +19927,40 @@
     </row>
     <row r="19" spans="1:85" s="159" customFormat="1" ht="10.5" customHeight="1">
       <c r="A19" s="28"/>
-      <c r="B19" s="287"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
-      <c r="G19" s="288"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="288"/>
-      <c r="J19" s="288"/>
-      <c r="K19" s="288"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="288"/>
-      <c r="N19" s="288"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="288"/>
-      <c r="Q19" s="288"/>
-      <c r="R19" s="288"/>
-      <c r="S19" s="288"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="289"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="290"/>
+      <c r="N19" s="290"/>
+      <c r="O19" s="290"/>
+      <c r="P19" s="290"/>
+      <c r="Q19" s="290"/>
+      <c r="R19" s="290"/>
+      <c r="S19" s="290"/>
+      <c r="T19" s="290"/>
+      <c r="U19" s="291"/>
       <c r="V19" s="36"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="288"/>
-      <c r="Z19" s="288"/>
-      <c r="AA19" s="288"/>
-      <c r="AB19" s="288"/>
-      <c r="AC19" s="288"/>
-      <c r="AD19" s="288"/>
-      <c r="AE19" s="288"/>
-      <c r="AF19" s="288"/>
-      <c r="AG19" s="288"/>
-      <c r="AH19" s="288"/>
-      <c r="AI19" s="289"/>
+      <c r="W19" s="303"/>
+      <c r="X19" s="290"/>
+      <c r="Y19" s="290"/>
+      <c r="Z19" s="290"/>
+      <c r="AA19" s="290"/>
+      <c r="AB19" s="290"/>
+      <c r="AC19" s="290"/>
+      <c r="AD19" s="290"/>
+      <c r="AE19" s="290"/>
+      <c r="AF19" s="290"/>
+      <c r="AG19" s="290"/>
+      <c r="AH19" s="290"/>
+      <c r="AI19" s="291"/>
       <c r="AJ19" s="200"/>
       <c r="AK19" s="200"/>
       <c r="AL19" s="200"/>
@@ -19975,11 +19977,11 @@
       <c r="AW19" s="143"/>
       <c r="AX19" s="143"/>
       <c r="AY19" s="143"/>
-      <c r="AZ19" s="410"/>
-      <c r="BA19" s="410"/>
-      <c r="BB19" s="410"/>
-      <c r="BC19" s="410"/>
-      <c r="BD19" s="410"/>
+      <c r="AZ19" s="400"/>
+      <c r="BA19" s="400"/>
+      <c r="BB19" s="400"/>
+      <c r="BC19" s="400"/>
+      <c r="BD19" s="400"/>
     </row>
     <row r="20" spans="1:85" s="159" customFormat="1" ht="3.6" customHeight="1">
       <c r="A20" s="28"/>
@@ -20106,40 +20108,40 @@
     </row>
     <row r="22" spans="1:85" s="159" customFormat="1" ht="10.5" customHeight="1">
       <c r="A22" s="28"/>
-      <c r="B22" s="287"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="288"/>
-      <c r="H22" s="288"/>
-      <c r="I22" s="288"/>
-      <c r="J22" s="288"/>
-      <c r="K22" s="288"/>
-      <c r="L22" s="289"/>
-      <c r="M22" s="287"/>
-      <c r="N22" s="288"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="288"/>
-      <c r="Q22" s="288"/>
-      <c r="R22" s="288"/>
-      <c r="S22" s="288"/>
-      <c r="T22" s="288"/>
-      <c r="U22" s="288"/>
-      <c r="V22" s="289"/>
-      <c r="W22" s="288"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="288"/>
-      <c r="Z22" s="288"/>
-      <c r="AA22" s="288"/>
-      <c r="AB22" s="288"/>
-      <c r="AC22" s="288"/>
-      <c r="AD22" s="288"/>
-      <c r="AE22" s="288"/>
-      <c r="AF22" s="288"/>
-      <c r="AG22" s="289"/>
-      <c r="AH22" s="288"/>
-      <c r="AI22" s="289"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="290"/>
+      <c r="J22" s="290"/>
+      <c r="K22" s="290"/>
+      <c r="L22" s="291"/>
+      <c r="M22" s="303"/>
+      <c r="N22" s="290"/>
+      <c r="O22" s="290"/>
+      <c r="P22" s="290"/>
+      <c r="Q22" s="290"/>
+      <c r="R22" s="290"/>
+      <c r="S22" s="290"/>
+      <c r="T22" s="290"/>
+      <c r="U22" s="290"/>
+      <c r="V22" s="291"/>
+      <c r="W22" s="290"/>
+      <c r="X22" s="290"/>
+      <c r="Y22" s="290"/>
+      <c r="Z22" s="290"/>
+      <c r="AA22" s="290"/>
+      <c r="AB22" s="290"/>
+      <c r="AC22" s="290"/>
+      <c r="AD22" s="290"/>
+      <c r="AE22" s="290"/>
+      <c r="AF22" s="290"/>
+      <c r="AG22" s="291"/>
+      <c r="AH22" s="290"/>
+      <c r="AI22" s="291"/>
       <c r="BZ22" s="231"/>
       <c r="CA22" s="143"/>
       <c r="CB22" s="143"/>
@@ -20188,18 +20190,18 @@
     </row>
     <row r="24" spans="1:85">
       <c r="A24" s="169"/>
-      <c r="B24" s="414" t="s">
+      <c r="B24" s="407" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="415"/>
-      <c r="D24" s="415"/>
-      <c r="E24" s="415"/>
-      <c r="F24" s="415"/>
-      <c r="G24" s="415"/>
-      <c r="H24" s="415"/>
-      <c r="I24" s="415"/>
-      <c r="J24" s="415"/>
-      <c r="K24" s="415"/>
+      <c r="C24" s="408"/>
+      <c r="D24" s="408"/>
+      <c r="E24" s="408"/>
+      <c r="F24" s="408"/>
+      <c r="G24" s="408"/>
+      <c r="H24" s="408"/>
+      <c r="I24" s="408"/>
+      <c r="J24" s="408"/>
+      <c r="K24" s="408"/>
       <c r="L24" s="176"/>
       <c r="M24" s="176"/>
       <c r="N24" s="176"/>
@@ -20267,38 +20269,38 @@
     <row r="26" spans="1:85" ht="170.1" customHeight="1">
       <c r="A26" s="169"/>
       <c r="B26" s="175"/>
-      <c r="C26" s="411"/>
-      <c r="D26" s="412"/>
-      <c r="E26" s="412"/>
-      <c r="F26" s="412"/>
-      <c r="G26" s="412"/>
-      <c r="H26" s="412"/>
-      <c r="I26" s="412"/>
-      <c r="J26" s="412"/>
-      <c r="K26" s="412"/>
-      <c r="L26" s="412"/>
-      <c r="M26" s="412"/>
-      <c r="N26" s="412"/>
-      <c r="O26" s="412"/>
-      <c r="P26" s="412"/>
-      <c r="Q26" s="413"/>
+      <c r="C26" s="404"/>
+      <c r="D26" s="405"/>
+      <c r="E26" s="405"/>
+      <c r="F26" s="405"/>
+      <c r="G26" s="405"/>
+      <c r="H26" s="405"/>
+      <c r="I26" s="405"/>
+      <c r="J26" s="405"/>
+      <c r="K26" s="405"/>
+      <c r="L26" s="405"/>
+      <c r="M26" s="405"/>
+      <c r="N26" s="405"/>
+      <c r="O26" s="405"/>
+      <c r="P26" s="405"/>
+      <c r="Q26" s="406"/>
       <c r="R26" s="176"/>
       <c r="S26" s="177"/>
-      <c r="T26" s="407"/>
-      <c r="U26" s="408"/>
-      <c r="V26" s="408"/>
-      <c r="W26" s="408"/>
-      <c r="X26" s="408"/>
-      <c r="Y26" s="408"/>
-      <c r="Z26" s="408"/>
-      <c r="AA26" s="408"/>
-      <c r="AB26" s="408"/>
-      <c r="AC26" s="408"/>
-      <c r="AD26" s="408"/>
-      <c r="AE26" s="408"/>
-      <c r="AF26" s="408"/>
-      <c r="AG26" s="408"/>
-      <c r="AH26" s="409"/>
+      <c r="T26" s="401"/>
+      <c r="U26" s="402"/>
+      <c r="V26" s="402"/>
+      <c r="W26" s="402"/>
+      <c r="X26" s="402"/>
+      <c r="Y26" s="402"/>
+      <c r="Z26" s="402"/>
+      <c r="AA26" s="402"/>
+      <c r="AB26" s="402"/>
+      <c r="AC26" s="402"/>
+      <c r="AD26" s="402"/>
+      <c r="AE26" s="402"/>
+      <c r="AF26" s="402"/>
+      <c r="AG26" s="402"/>
+      <c r="AH26" s="403"/>
       <c r="AI26" s="179"/>
       <c r="AJ26" s="144"/>
     </row>
@@ -20343,38 +20345,38 @@
     <row r="28" spans="1:85" ht="10.5" customHeight="1">
       <c r="A28" s="169"/>
       <c r="B28" s="262"/>
-      <c r="C28" s="403"/>
-      <c r="D28" s="403"/>
-      <c r="E28" s="403"/>
-      <c r="F28" s="403"/>
-      <c r="G28" s="403"/>
-      <c r="H28" s="403"/>
-      <c r="I28" s="403"/>
-      <c r="J28" s="403"/>
-      <c r="K28" s="403"/>
-      <c r="L28" s="403"/>
-      <c r="M28" s="403"/>
-      <c r="N28" s="403"/>
-      <c r="O28" s="403"/>
-      <c r="P28" s="403"/>
-      <c r="Q28" s="403"/>
+      <c r="C28" s="399"/>
+      <c r="D28" s="399"/>
+      <c r="E28" s="399"/>
+      <c r="F28" s="399"/>
+      <c r="G28" s="399"/>
+      <c r="H28" s="399"/>
+      <c r="I28" s="399"/>
+      <c r="J28" s="399"/>
+      <c r="K28" s="399"/>
+      <c r="L28" s="399"/>
+      <c r="M28" s="399"/>
+      <c r="N28" s="399"/>
+      <c r="O28" s="399"/>
+      <c r="P28" s="399"/>
+      <c r="Q28" s="399"/>
       <c r="R28" s="176"/>
       <c r="S28" s="177"/>
-      <c r="T28" s="403"/>
-      <c r="U28" s="403"/>
-      <c r="V28" s="403"/>
-      <c r="W28" s="403"/>
-      <c r="X28" s="403"/>
-      <c r="Y28" s="403"/>
-      <c r="Z28" s="403"/>
-      <c r="AA28" s="403"/>
-      <c r="AB28" s="403"/>
-      <c r="AC28" s="403"/>
-      <c r="AD28" s="403"/>
-      <c r="AE28" s="403"/>
-      <c r="AF28" s="403"/>
-      <c r="AG28" s="403"/>
-      <c r="AH28" s="403"/>
+      <c r="T28" s="399"/>
+      <c r="U28" s="399"/>
+      <c r="V28" s="399"/>
+      <c r="W28" s="399"/>
+      <c r="X28" s="399"/>
+      <c r="Y28" s="399"/>
+      <c r="Z28" s="399"/>
+      <c r="AA28" s="399"/>
+      <c r="AB28" s="399"/>
+      <c r="AC28" s="399"/>
+      <c r="AD28" s="399"/>
+      <c r="AE28" s="399"/>
+      <c r="AF28" s="399"/>
+      <c r="AG28" s="399"/>
+      <c r="AH28" s="399"/>
       <c r="AI28" s="179"/>
       <c r="AJ28" s="144"/>
     </row>
@@ -20419,38 +20421,38 @@
     <row r="30" spans="1:85" ht="170.1" customHeight="1">
       <c r="A30" s="169"/>
       <c r="B30" s="195"/>
-      <c r="C30" s="407"/>
-      <c r="D30" s="408"/>
-      <c r="E30" s="408"/>
-      <c r="F30" s="408"/>
-      <c r="G30" s="408"/>
-      <c r="H30" s="408"/>
-      <c r="I30" s="408"/>
-      <c r="J30" s="408"/>
-      <c r="K30" s="408"/>
-      <c r="L30" s="408"/>
-      <c r="M30" s="408"/>
-      <c r="N30" s="408"/>
-      <c r="O30" s="408"/>
-      <c r="P30" s="408"/>
-      <c r="Q30" s="409"/>
+      <c r="C30" s="401"/>
+      <c r="D30" s="402"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="402"/>
+      <c r="H30" s="402"/>
+      <c r="I30" s="402"/>
+      <c r="J30" s="402"/>
+      <c r="K30" s="402"/>
+      <c r="L30" s="402"/>
+      <c r="M30" s="402"/>
+      <c r="N30" s="402"/>
+      <c r="O30" s="402"/>
+      <c r="P30" s="402"/>
+      <c r="Q30" s="403"/>
       <c r="R30" s="178"/>
       <c r="S30" s="187"/>
-      <c r="T30" s="404"/>
-      <c r="U30" s="405"/>
-      <c r="V30" s="405"/>
-      <c r="W30" s="405"/>
-      <c r="X30" s="405"/>
-      <c r="Y30" s="405"/>
-      <c r="Z30" s="405"/>
-      <c r="AA30" s="405"/>
-      <c r="AB30" s="405"/>
-      <c r="AC30" s="405"/>
-      <c r="AD30" s="405"/>
-      <c r="AE30" s="405"/>
-      <c r="AF30" s="405"/>
-      <c r="AG30" s="405"/>
-      <c r="AH30" s="406"/>
+      <c r="T30" s="415"/>
+      <c r="U30" s="416"/>
+      <c r="V30" s="416"/>
+      <c r="W30" s="416"/>
+      <c r="X30" s="416"/>
+      <c r="Y30" s="416"/>
+      <c r="Z30" s="416"/>
+      <c r="AA30" s="416"/>
+      <c r="AB30" s="416"/>
+      <c r="AC30" s="416"/>
+      <c r="AD30" s="416"/>
+      <c r="AE30" s="416"/>
+      <c r="AF30" s="416"/>
+      <c r="AG30" s="416"/>
+      <c r="AH30" s="417"/>
       <c r="AI30" s="179"/>
       <c r="AJ30" s="144"/>
     </row>
@@ -20494,38 +20496,38 @@
     <row r="32" spans="1:85" ht="10.5" customHeight="1">
       <c r="A32" s="169"/>
       <c r="B32" s="175"/>
-      <c r="C32" s="403"/>
-      <c r="D32" s="403"/>
-      <c r="E32" s="403"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="403"/>
-      <c r="H32" s="403"/>
-      <c r="I32" s="403"/>
-      <c r="J32" s="403"/>
-      <c r="K32" s="403"/>
-      <c r="L32" s="403"/>
-      <c r="M32" s="403"/>
-      <c r="N32" s="403"/>
-      <c r="O32" s="403"/>
-      <c r="P32" s="403"/>
-      <c r="Q32" s="403"/>
+      <c r="C32" s="399"/>
+      <c r="D32" s="399"/>
+      <c r="E32" s="399"/>
+      <c r="F32" s="399"/>
+      <c r="G32" s="399"/>
+      <c r="H32" s="399"/>
+      <c r="I32" s="399"/>
+      <c r="J32" s="399"/>
+      <c r="K32" s="399"/>
+      <c r="L32" s="399"/>
+      <c r="M32" s="399"/>
+      <c r="N32" s="399"/>
+      <c r="O32" s="399"/>
+      <c r="P32" s="399"/>
+      <c r="Q32" s="399"/>
       <c r="R32" s="176"/>
       <c r="S32" s="176"/>
-      <c r="T32" s="403"/>
-      <c r="U32" s="403"/>
-      <c r="V32" s="403"/>
-      <c r="W32" s="403"/>
-      <c r="X32" s="403"/>
-      <c r="Y32" s="403"/>
-      <c r="Z32" s="403"/>
-      <c r="AA32" s="403"/>
-      <c r="AB32" s="403"/>
-      <c r="AC32" s="403"/>
-      <c r="AD32" s="403"/>
-      <c r="AE32" s="403"/>
-      <c r="AF32" s="403"/>
-      <c r="AG32" s="403"/>
-      <c r="AH32" s="403"/>
+      <c r="T32" s="399"/>
+      <c r="U32" s="399"/>
+      <c r="V32" s="399"/>
+      <c r="W32" s="399"/>
+      <c r="X32" s="399"/>
+      <c r="Y32" s="399"/>
+      <c r="Z32" s="399"/>
+      <c r="AA32" s="399"/>
+      <c r="AB32" s="399"/>
+      <c r="AC32" s="399"/>
+      <c r="AD32" s="399"/>
+      <c r="AE32" s="399"/>
+      <c r="AF32" s="399"/>
+      <c r="AG32" s="399"/>
+      <c r="AH32" s="399"/>
       <c r="AI32" s="179"/>
     </row>
     <row r="33" spans="1:38" ht="3.6" customHeight="1">
@@ -20574,35 +20576,35 @@
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="351"/>
-      <c r="H34" s="351"/>
-      <c r="I34" s="351"/>
-      <c r="J34" s="351"/>
-      <c r="K34" s="351"/>
-      <c r="L34" s="351"/>
-      <c r="M34" s="351"/>
-      <c r="N34" s="351"/>
-      <c r="O34" s="351"/>
-      <c r="P34" s="351"/>
-      <c r="Q34" s="351"/>
-      <c r="R34" s="351"/>
-      <c r="S34" s="351"/>
-      <c r="T34" s="351"/>
-      <c r="U34" s="351"/>
-      <c r="V34" s="351"/>
-      <c r="W34" s="351"/>
-      <c r="X34" s="351"/>
-      <c r="Y34" s="351"/>
-      <c r="Z34" s="351"/>
-      <c r="AA34" s="351"/>
-      <c r="AB34" s="351"/>
-      <c r="AC34" s="351"/>
-      <c r="AD34" s="351"/>
-      <c r="AE34" s="351"/>
-      <c r="AF34" s="351"/>
-      <c r="AG34" s="351"/>
-      <c r="AH34" s="351"/>
-      <c r="AI34" s="351"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
+      <c r="I34" s="299"/>
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
+      <c r="L34" s="299"/>
+      <c r="M34" s="299"/>
+      <c r="N34" s="299"/>
+      <c r="O34" s="299"/>
+      <c r="P34" s="299"/>
+      <c r="Q34" s="299"/>
+      <c r="R34" s="299"/>
+      <c r="S34" s="299"/>
+      <c r="T34" s="299"/>
+      <c r="U34" s="299"/>
+      <c r="V34" s="299"/>
+      <c r="W34" s="299"/>
+      <c r="X34" s="299"/>
+      <c r="Y34" s="299"/>
+      <c r="Z34" s="299"/>
+      <c r="AA34" s="299"/>
+      <c r="AB34" s="299"/>
+      <c r="AC34" s="299"/>
+      <c r="AD34" s="299"/>
+      <c r="AE34" s="299"/>
+      <c r="AF34" s="299"/>
+      <c r="AG34" s="299"/>
+      <c r="AH34" s="299"/>
+      <c r="AI34" s="299"/>
       <c r="AJ34" s="144"/>
       <c r="AK34" s="144"/>
       <c r="AL34" s="144"/>
@@ -20687,40 +20689,40 @@
     </row>
     <row r="37" spans="1:38" ht="10.5" customHeight="1">
       <c r="A37" s="25"/>
-      <c r="B37" s="344"/>
-      <c r="C37" s="344"/>
-      <c r="D37" s="344"/>
-      <c r="E37" s="344"/>
-      <c r="F37" s="344"/>
-      <c r="G37" s="344"/>
-      <c r="H37" s="344"/>
-      <c r="I37" s="344"/>
-      <c r="J37" s="344"/>
-      <c r="K37" s="344"/>
-      <c r="L37" s="344"/>
-      <c r="M37" s="344"/>
-      <c r="N37" s="344"/>
-      <c r="O37" s="344"/>
-      <c r="P37" s="344"/>
-      <c r="Q37" s="344"/>
-      <c r="R37" s="344"/>
-      <c r="S37" s="344"/>
-      <c r="T37" s="344"/>
-      <c r="U37" s="344"/>
-      <c r="V37" s="344"/>
-      <c r="W37" s="344"/>
-      <c r="X37" s="344"/>
-      <c r="Y37" s="344"/>
-      <c r="Z37" s="344"/>
-      <c r="AA37" s="344"/>
-      <c r="AB37" s="344"/>
-      <c r="AC37" s="344"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="292"/>
+      <c r="I37" s="292"/>
+      <c r="J37" s="292"/>
+      <c r="K37" s="292"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="292"/>
+      <c r="N37" s="292"/>
+      <c r="O37" s="292"/>
+      <c r="P37" s="292"/>
+      <c r="Q37" s="292"/>
+      <c r="R37" s="292"/>
+      <c r="S37" s="292"/>
+      <c r="T37" s="292"/>
+      <c r="U37" s="292"/>
+      <c r="V37" s="292"/>
+      <c r="W37" s="292"/>
+      <c r="X37" s="292"/>
+      <c r="Y37" s="292"/>
+      <c r="Z37" s="292"/>
+      <c r="AA37" s="292"/>
+      <c r="AB37" s="292"/>
+      <c r="AC37" s="292"/>
       <c r="AD37" s="25"/>
-      <c r="AE37" s="299"/>
-      <c r="AF37" s="299"/>
-      <c r="AG37" s="299"/>
-      <c r="AH37" s="299"/>
-      <c r="AI37" s="299"/>
+      <c r="AE37" s="287"/>
+      <c r="AF37" s="287"/>
+      <c r="AG37" s="287"/>
+      <c r="AH37" s="287"/>
+      <c r="AI37" s="287"/>
     </row>
     <row r="38" spans="1:38" ht="8.85" customHeight="1">
       <c r="A38" s="53"/>
@@ -20753,42 +20755,42 @@
       <c r="AB38" s="130"/>
       <c r="AC38" s="130"/>
       <c r="AD38" s="25"/>
-      <c r="AE38" s="394"/>
-      <c r="AF38" s="394"/>
-      <c r="AG38" s="394"/>
-      <c r="AH38" s="394"/>
-      <c r="AI38" s="394"/>
+      <c r="AE38" s="359"/>
+      <c r="AF38" s="359"/>
+      <c r="AG38" s="359"/>
+      <c r="AH38" s="359"/>
+      <c r="AI38" s="359"/>
     </row>
     <row r="39" spans="1:38" ht="8.85" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="131"/>
       <c r="C39" s="131"/>
       <c r="D39" s="131"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="342"/>
-      <c r="G39" s="342"/>
-      <c r="H39" s="342"/>
-      <c r="I39" s="342"/>
-      <c r="J39" s="342"/>
-      <c r="K39" s="342"/>
-      <c r="L39" s="342"/>
-      <c r="M39" s="342"/>
-      <c r="N39" s="342"/>
-      <c r="O39" s="342"/>
-      <c r="P39" s="342"/>
-      <c r="Q39" s="342"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="288"/>
+      <c r="H39" s="288"/>
+      <c r="I39" s="288"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="288"/>
+      <c r="L39" s="288"/>
+      <c r="M39" s="288"/>
+      <c r="N39" s="288"/>
+      <c r="O39" s="288"/>
+      <c r="P39" s="288"/>
+      <c r="Q39" s="288"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25"/>
-      <c r="T39" s="339"/>
-      <c r="U39" s="339"/>
-      <c r="V39" s="339"/>
-      <c r="W39" s="339"/>
-      <c r="X39" s="339"/>
-      <c r="Y39" s="339"/>
-      <c r="Z39" s="339"/>
-      <c r="AA39" s="339"/>
-      <c r="AB39" s="339"/>
-      <c r="AC39" s="339"/>
+      <c r="T39" s="284"/>
+      <c r="U39" s="284"/>
+      <c r="V39" s="284"/>
+      <c r="W39" s="284"/>
+      <c r="X39" s="284"/>
+      <c r="Y39" s="284"/>
+      <c r="Z39" s="284"/>
+      <c r="AA39" s="284"/>
+      <c r="AB39" s="284"/>
+      <c r="AC39" s="284"/>
       <c r="AD39" s="25"/>
       <c r="AE39" s="264"/>
       <c r="AF39" s="126"/>
@@ -20798,38 +20800,38 @@
     </row>
     <row r="40" spans="1:38" ht="12" customHeight="1">
       <c r="A40" s="53"/>
-      <c r="B40" s="339" t="s">
+      <c r="B40" s="284" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="339"/>
-      <c r="D40" s="339"/>
-      <c r="E40" s="353"/>
-      <c r="F40" s="353"/>
-      <c r="G40" s="353"/>
-      <c r="H40" s="353"/>
-      <c r="I40" s="353"/>
-      <c r="J40" s="353"/>
-      <c r="K40" s="353"/>
-      <c r="L40" s="353"/>
-      <c r="M40" s="353"/>
-      <c r="N40" s="353"/>
-      <c r="O40" s="353"/>
-      <c r="P40" s="353"/>
-      <c r="Q40" s="353"/>
-      <c r="R40" s="352" t="s">
+      <c r="C40" s="284"/>
+      <c r="D40" s="284"/>
+      <c r="E40" s="281"/>
+      <c r="F40" s="281"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="281"/>
+      <c r="I40" s="281"/>
+      <c r="J40" s="281"/>
+      <c r="K40" s="281"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="281"/>
+      <c r="N40" s="281"/>
+      <c r="O40" s="281"/>
+      <c r="P40" s="281"/>
+      <c r="Q40" s="281"/>
+      <c r="R40" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="S40" s="352"/>
-      <c r="T40" s="353"/>
-      <c r="U40" s="353"/>
-      <c r="V40" s="353"/>
-      <c r="W40" s="353"/>
-      <c r="X40" s="353"/>
-      <c r="Y40" s="353"/>
-      <c r="Z40" s="353"/>
-      <c r="AA40" s="353"/>
-      <c r="AB40" s="353"/>
-      <c r="AC40" s="353"/>
+      <c r="S40" s="280"/>
+      <c r="T40" s="281"/>
+      <c r="U40" s="281"/>
+      <c r="V40" s="281"/>
+      <c r="W40" s="281"/>
+      <c r="X40" s="281"/>
+      <c r="Y40" s="281"/>
+      <c r="Z40" s="281"/>
+      <c r="AA40" s="281"/>
+      <c r="AB40" s="281"/>
+      <c r="AC40" s="281"/>
       <c r="AD40" s="130"/>
       <c r="AE40" s="53" t="s">
         <v>20</v>
@@ -20841,43 +20843,43 @@
     </row>
     <row r="41" spans="1:38" ht="12" customHeight="1">
       <c r="A41" s="53"/>
-      <c r="B41" s="339" t="s">
+      <c r="B41" s="284" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="339"/>
-      <c r="D41" s="339"/>
-      <c r="E41" s="354"/>
-      <c r="F41" s="354"/>
-      <c r="G41" s="354"/>
-      <c r="H41" s="354"/>
-      <c r="I41" s="354"/>
-      <c r="J41" s="354"/>
-      <c r="K41" s="354"/>
-      <c r="L41" s="354"/>
-      <c r="M41" s="354"/>
-      <c r="N41" s="354"/>
-      <c r="O41" s="354"/>
-      <c r="P41" s="354"/>
-      <c r="Q41" s="354"/>
-      <c r="R41" s="352" t="s">
+      <c r="C41" s="284"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="282"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="282"/>
+      <c r="I41" s="282"/>
+      <c r="J41" s="282"/>
+      <c r="K41" s="282"/>
+      <c r="L41" s="282"/>
+      <c r="M41" s="282"/>
+      <c r="N41" s="282"/>
+      <c r="O41" s="282"/>
+      <c r="P41" s="282"/>
+      <c r="Q41" s="282"/>
+      <c r="R41" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="S41" s="352"/>
-      <c r="T41" s="340"/>
-      <c r="U41" s="340"/>
-      <c r="V41" s="340"/>
-      <c r="W41" s="340"/>
-      <c r="X41" s="340"/>
-      <c r="Y41" s="340"/>
-      <c r="Z41" s="340"/>
-      <c r="AA41" s="340"/>
-      <c r="AB41" s="340"/>
-      <c r="AC41" s="340"/>
+      <c r="S41" s="280"/>
+      <c r="T41" s="283"/>
+      <c r="U41" s="283"/>
+      <c r="V41" s="283"/>
+      <c r="W41" s="283"/>
+      <c r="X41" s="283"/>
+      <c r="Y41" s="283"/>
+      <c r="Z41" s="283"/>
+      <c r="AA41" s="283"/>
+      <c r="AB41" s="283"/>
+      <c r="AC41" s="283"/>
       <c r="AD41" s="132"/>
-      <c r="AE41" s="339"/>
-      <c r="AF41" s="339"/>
-      <c r="AG41" s="339"/>
-      <c r="AH41" s="339"/>
+      <c r="AE41" s="284"/>
+      <c r="AF41" s="284"/>
+      <c r="AG41" s="284"/>
+      <c r="AH41" s="284"/>
       <c r="AI41" s="130"/>
     </row>
     <row r="42" spans="1:38" ht="8.85" customHeight="1">
@@ -20885,35 +20887,35 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="53"/>
-      <c r="E42" s="318" t="s">
+      <c r="E42" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="318"/>
-      <c r="G42" s="318"/>
-      <c r="H42" s="318"/>
-      <c r="I42" s="318"/>
-      <c r="J42" s="318"/>
-      <c r="K42" s="318"/>
-      <c r="L42" s="318"/>
-      <c r="M42" s="318"/>
-      <c r="N42" s="318"/>
-      <c r="O42" s="318"/>
-      <c r="P42" s="318"/>
-      <c r="Q42" s="318"/>
+      <c r="F42" s="279"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="279"/>
+      <c r="I42" s="279"/>
+      <c r="J42" s="279"/>
+      <c r="K42" s="279"/>
+      <c r="L42" s="279"/>
+      <c r="M42" s="279"/>
+      <c r="N42" s="279"/>
+      <c r="O42" s="279"/>
+      <c r="P42" s="279"/>
+      <c r="Q42" s="279"/>
       <c r="R42" s="71"/>
       <c r="S42" s="71"/>
-      <c r="T42" s="318" t="s">
+      <c r="T42" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="U42" s="318"/>
-      <c r="V42" s="318"/>
-      <c r="W42" s="318"/>
-      <c r="X42" s="318"/>
-      <c r="Y42" s="318"/>
-      <c r="Z42" s="318"/>
-      <c r="AA42" s="318"/>
-      <c r="AB42" s="318"/>
-      <c r="AC42" s="318"/>
+      <c r="U42" s="279"/>
+      <c r="V42" s="279"/>
+      <c r="W42" s="279"/>
+      <c r="X42" s="279"/>
+      <c r="Y42" s="279"/>
+      <c r="Z42" s="279"/>
+      <c r="AA42" s="279"/>
+      <c r="AB42" s="279"/>
+      <c r="AC42" s="279"/>
       <c r="AD42" s="3"/>
       <c r="AE42" s="267"/>
       <c r="AF42" s="267"/>
@@ -20996,190 +20998,159 @@
       <c r="AI44" s="3"/>
     </row>
     <row r="45" spans="1:38">
-      <c r="B45" s="417" t="s">
+      <c r="B45" s="398" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="417"/>
-      <c r="D45" s="417"/>
-      <c r="E45" s="417"/>
-      <c r="F45" s="417"/>
-      <c r="G45" s="417"/>
-      <c r="H45" s="417"/>
-      <c r="I45" s="417"/>
-      <c r="J45" s="417"/>
-      <c r="K45" s="417"/>
-      <c r="L45" s="417"/>
-      <c r="M45" s="417"/>
-      <c r="N45" s="417"/>
-      <c r="O45" s="417"/>
-      <c r="P45" s="417"/>
-      <c r="Q45" s="417"/>
-      <c r="R45" s="417"/>
-      <c r="S45" s="417"/>
-      <c r="T45" s="417"/>
-      <c r="U45" s="417"/>
-      <c r="V45" s="417"/>
-      <c r="W45" s="417"/>
-      <c r="X45" s="417"/>
-      <c r="Y45" s="417"/>
-      <c r="Z45" s="417"/>
-      <c r="AA45" s="417"/>
-      <c r="AB45" s="417"/>
-      <c r="AC45" s="417"/>
-      <c r="AD45" s="417"/>
-      <c r="AE45" s="417"/>
-      <c r="AF45" s="417"/>
-      <c r="AG45" s="417"/>
-      <c r="AH45" s="417"/>
-      <c r="AI45" s="417"/>
+      <c r="C45" s="398"/>
+      <c r="D45" s="398"/>
+      <c r="E45" s="398"/>
+      <c r="F45" s="398"/>
+      <c r="G45" s="398"/>
+      <c r="H45" s="398"/>
+      <c r="I45" s="398"/>
+      <c r="J45" s="398"/>
+      <c r="K45" s="398"/>
+      <c r="L45" s="398"/>
+      <c r="M45" s="398"/>
+      <c r="N45" s="398"/>
+      <c r="O45" s="398"/>
+      <c r="P45" s="398"/>
+      <c r="Q45" s="398"/>
+      <c r="R45" s="398"/>
+      <c r="S45" s="398"/>
+      <c r="T45" s="398"/>
+      <c r="U45" s="398"/>
+      <c r="V45" s="398"/>
+      <c r="W45" s="398"/>
+      <c r="X45" s="398"/>
+      <c r="Y45" s="398"/>
+      <c r="Z45" s="398"/>
+      <c r="AA45" s="398"/>
+      <c r="AB45" s="398"/>
+      <c r="AC45" s="398"/>
+      <c r="AD45" s="398"/>
+      <c r="AE45" s="398"/>
+      <c r="AF45" s="398"/>
+      <c r="AG45" s="398"/>
+      <c r="AH45" s="398"/>
+      <c r="AI45" s="398"/>
     </row>
     <row r="46" spans="1:38">
-      <c r="B46" s="417" t="s">
+      <c r="B46" s="398" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="417"/>
-      <c r="D46" s="417"/>
-      <c r="E46" s="417"/>
-      <c r="F46" s="417"/>
-      <c r="G46" s="417"/>
-      <c r="H46" s="417"/>
-      <c r="I46" s="417"/>
-      <c r="J46" s="417"/>
-      <c r="K46" s="417"/>
-      <c r="L46" s="417"/>
-      <c r="M46" s="417"/>
-      <c r="N46" s="417"/>
-      <c r="O46" s="417"/>
-      <c r="P46" s="417"/>
-      <c r="Q46" s="417"/>
-      <c r="R46" s="417"/>
-      <c r="S46" s="417"/>
-      <c r="T46" s="417"/>
-      <c r="U46" s="417"/>
-      <c r="V46" s="417"/>
-      <c r="W46" s="417"/>
-      <c r="X46" s="417"/>
-      <c r="Y46" s="417"/>
-      <c r="Z46" s="417"/>
-      <c r="AA46" s="417"/>
-      <c r="AB46" s="417"/>
-      <c r="AC46" s="417"/>
-      <c r="AD46" s="417"/>
-      <c r="AE46" s="417"/>
-      <c r="AF46" s="417"/>
-      <c r="AG46" s="417"/>
-      <c r="AH46" s="417"/>
-      <c r="AI46" s="417"/>
+      <c r="C46" s="398"/>
+      <c r="D46" s="398"/>
+      <c r="E46" s="398"/>
+      <c r="F46" s="398"/>
+      <c r="G46" s="398"/>
+      <c r="H46" s="398"/>
+      <c r="I46" s="398"/>
+      <c r="J46" s="398"/>
+      <c r="K46" s="398"/>
+      <c r="L46" s="398"/>
+      <c r="M46" s="398"/>
+      <c r="N46" s="398"/>
+      <c r="O46" s="398"/>
+      <c r="P46" s="398"/>
+      <c r="Q46" s="398"/>
+      <c r="R46" s="398"/>
+      <c r="S46" s="398"/>
+      <c r="T46" s="398"/>
+      <c r="U46" s="398"/>
+      <c r="V46" s="398"/>
+      <c r="W46" s="398"/>
+      <c r="X46" s="398"/>
+      <c r="Y46" s="398"/>
+      <c r="Z46" s="398"/>
+      <c r="AA46" s="398"/>
+      <c r="AB46" s="398"/>
+      <c r="AC46" s="398"/>
+      <c r="AD46" s="398"/>
+      <c r="AE46" s="398"/>
+      <c r="AF46" s="398"/>
+      <c r="AG46" s="398"/>
+      <c r="AH46" s="398"/>
+      <c r="AI46" s="398"/>
     </row>
     <row r="47" spans="1:38">
-      <c r="B47" s="417" t="s">
+      <c r="B47" s="398" t="s">
         <v>120</v>
       </c>
-      <c r="C47" s="417"/>
-      <c r="D47" s="417"/>
-      <c r="E47" s="417"/>
-      <c r="F47" s="417"/>
-      <c r="G47" s="417"/>
-      <c r="H47" s="417"/>
-      <c r="I47" s="417"/>
-      <c r="J47" s="417"/>
-      <c r="K47" s="417"/>
-      <c r="L47" s="417"/>
-      <c r="M47" s="417"/>
-      <c r="N47" s="417"/>
-      <c r="O47" s="417"/>
-      <c r="P47" s="417"/>
-      <c r="Q47" s="417"/>
-      <c r="R47" s="417"/>
-      <c r="S47" s="417"/>
-      <c r="T47" s="417"/>
-      <c r="U47" s="417"/>
-      <c r="V47" s="417"/>
-      <c r="W47" s="417"/>
-      <c r="X47" s="417"/>
-      <c r="Y47" s="417"/>
-      <c r="Z47" s="417"/>
-      <c r="AA47" s="417"/>
-      <c r="AB47" s="417"/>
-      <c r="AC47" s="417"/>
-      <c r="AD47" s="417"/>
-      <c r="AE47" s="417"/>
-      <c r="AF47" s="417"/>
-      <c r="AG47" s="417"/>
-      <c r="AH47" s="417"/>
-      <c r="AI47" s="417"/>
+      <c r="C47" s="398"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="398"/>
+      <c r="F47" s="398"/>
+      <c r="G47" s="398"/>
+      <c r="H47" s="398"/>
+      <c r="I47" s="398"/>
+      <c r="J47" s="398"/>
+      <c r="K47" s="398"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="398"/>
+      <c r="P47" s="398"/>
+      <c r="Q47" s="398"/>
+      <c r="R47" s="398"/>
+      <c r="S47" s="398"/>
+      <c r="T47" s="398"/>
+      <c r="U47" s="398"/>
+      <c r="V47" s="398"/>
+      <c r="W47" s="398"/>
+      <c r="X47" s="398"/>
+      <c r="Y47" s="398"/>
+      <c r="Z47" s="398"/>
+      <c r="AA47" s="398"/>
+      <c r="AB47" s="398"/>
+      <c r="AC47" s="398"/>
+      <c r="AD47" s="398"/>
+      <c r="AE47" s="398"/>
+      <c r="AF47" s="398"/>
+      <c r="AG47" s="398"/>
+      <c r="AH47" s="398"/>
+      <c r="AI47" s="398"/>
     </row>
     <row r="48" spans="1:38">
-      <c r="B48" s="416" t="s">
+      <c r="B48" s="397" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="416"/>
-      <c r="D48" s="416"/>
-      <c r="E48" s="416"/>
-      <c r="F48" s="416"/>
-      <c r="G48" s="416"/>
-      <c r="H48" s="416"/>
-      <c r="I48" s="416"/>
-      <c r="J48" s="416"/>
-      <c r="K48" s="416"/>
-      <c r="L48" s="416"/>
-      <c r="M48" s="416"/>
-      <c r="N48" s="416"/>
-      <c r="O48" s="416"/>
-      <c r="P48" s="416"/>
-      <c r="Q48" s="416"/>
-      <c r="R48" s="416"/>
-      <c r="S48" s="416"/>
-      <c r="T48" s="416"/>
-      <c r="U48" s="416"/>
-      <c r="V48" s="416"/>
-      <c r="W48" s="416"/>
-      <c r="X48" s="416"/>
-      <c r="Y48" s="416"/>
-      <c r="Z48" s="416"/>
-      <c r="AA48" s="416"/>
-      <c r="AB48" s="416"/>
-      <c r="AC48" s="416"/>
-      <c r="AD48" s="416"/>
-      <c r="AE48" s="416"/>
-      <c r="AF48" s="416"/>
-      <c r="AG48" s="416"/>
-      <c r="AH48" s="416"/>
-      <c r="AI48" s="416"/>
+      <c r="C48" s="397"/>
+      <c r="D48" s="397"/>
+      <c r="E48" s="397"/>
+      <c r="F48" s="397"/>
+      <c r="G48" s="397"/>
+      <c r="H48" s="397"/>
+      <c r="I48" s="397"/>
+      <c r="J48" s="397"/>
+      <c r="K48" s="397"/>
+      <c r="L48" s="397"/>
+      <c r="M48" s="397"/>
+      <c r="N48" s="397"/>
+      <c r="O48" s="397"/>
+      <c r="P48" s="397"/>
+      <c r="Q48" s="397"/>
+      <c r="R48" s="397"/>
+      <c r="S48" s="397"/>
+      <c r="T48" s="397"/>
+      <c r="U48" s="397"/>
+      <c r="V48" s="397"/>
+      <c r="W48" s="397"/>
+      <c r="X48" s="397"/>
+      <c r="Y48" s="397"/>
+      <c r="Z48" s="397"/>
+      <c r="AA48" s="397"/>
+      <c r="AB48" s="397"/>
+      <c r="AC48" s="397"/>
+      <c r="AD48" s="397"/>
+      <c r="AE48" s="397"/>
+      <c r="AF48" s="397"/>
+      <c r="AG48" s="397"/>
+      <c r="AH48" s="397"/>
+      <c r="AI48" s="397"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B48:AI48"/>
-    <mergeCell ref="T42:AC42"/>
-    <mergeCell ref="B45:AI45"/>
-    <mergeCell ref="B46:AI46"/>
-    <mergeCell ref="B47:AI47"/>
-    <mergeCell ref="E42:Q42"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="AE37:AI38"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="B37:AC37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="G34:AI34"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="E39:Q39"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:Q41"/>
-    <mergeCell ref="W13:AI13"/>
-    <mergeCell ref="E40:Q40"/>
-    <mergeCell ref="AZ19:BD19"/>
-    <mergeCell ref="T28:AH28"/>
-    <mergeCell ref="M22:V22"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="W22:AG22"/>
-    <mergeCell ref="B24:K24"/>
     <mergeCell ref="L2:AG2"/>
     <mergeCell ref="L6:V6"/>
     <mergeCell ref="W6:AF6"/>
@@ -21196,6 +21167,37 @@
     <mergeCell ref="W16:AI16"/>
     <mergeCell ref="W15:AI15"/>
     <mergeCell ref="B13:U13"/>
+    <mergeCell ref="W13:AI13"/>
+    <mergeCell ref="E40:Q40"/>
+    <mergeCell ref="AZ19:BD19"/>
+    <mergeCell ref="T28:AH28"/>
+    <mergeCell ref="M22:V22"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="W22:AG22"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="AE37:AI38"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="B37:AC37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="G34:AI34"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="E39:Q39"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:Q41"/>
+    <mergeCell ref="B48:AI48"/>
+    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="B45:AI45"/>
+    <mergeCell ref="B46:AI46"/>
+    <mergeCell ref="B47:AI47"/>
+    <mergeCell ref="E42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
